--- a/carriers_source_analyses/crude_oil.carrier.xlsx
+++ b/carriers_source_analyses/crude_oil.carrier.xlsx
@@ -1,34 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23460" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
     <sheet name="Dashboard" sheetId="12" r:id="rId2"/>
-    <sheet name="Research data" sheetId="13" r:id="rId3"/>
-    <sheet name="Sources" sheetId="15" r:id="rId4"/>
-    <sheet name="Notes" sheetId="16" r:id="rId5"/>
+    <sheet name="nl_fce" sheetId="17" r:id="rId3"/>
+    <sheet name="Research data" sheetId="13" r:id="rId4"/>
+    <sheet name="Sources" sheetId="15" r:id="rId5"/>
+    <sheet name="Notes" sheetId="16" r:id="rId6"/>
+    <sheet name="Exchange_rates" sheetId="18" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
+    <definedName name="dollar_data">Exchange_rates!$E$9:$H$9</definedName>
+    <definedName name="dollar_per_euro">Exchange_rates!$E$9</definedName>
     <definedName name="exchange_rate_2011_2010">#REF!</definedName>
     <definedName name="Final_demand_residences">'[1]Fuel aggregation'!$L$11</definedName>
+    <definedName name="hours_a_year" localSheetId="6">#REF!</definedName>
     <definedName name="hours_a_year">#REF!</definedName>
+    <definedName name="km2_to_m2" localSheetId="6">#REF!</definedName>
     <definedName name="km2_to_m2">#REF!</definedName>
+    <definedName name="kW_to_MW" localSheetId="6">#REF!</definedName>
     <definedName name="kW_to_MW">#REF!</definedName>
+    <definedName name="kW_to_W" localSheetId="6">#REF!</definedName>
     <definedName name="kW_to_W">#REF!</definedName>
+    <definedName name="kWp_to_MWp" localSheetId="6">#REF!</definedName>
     <definedName name="kWp_to_MWp">#REF!</definedName>
+    <definedName name="litres_per_barrel">Notes!$G$132</definedName>
+    <definedName name="m2_to_km2" localSheetId="6">#REF!</definedName>
     <definedName name="m2_to_km2">#REF!</definedName>
+    <definedName name="STC" localSheetId="6">#REF!</definedName>
     <definedName name="STC">#REF!</definedName>
+    <definedName name="STC_insolation" localSheetId="6">#REF!</definedName>
     <definedName name="STC_insolation">#REF!</definedName>
+    <definedName name="W_to_MW" localSheetId="6">#REF!</definedName>
     <definedName name="W_to_MW">#REF!</definedName>
+    <definedName name="Wp_to_kWp" localSheetId="6">#REF!</definedName>
     <definedName name="Wp_to_kWp">#REF!</definedName>
+    <definedName name="WP_to_MWp" localSheetId="6">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -41,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="109">
   <si>
     <t>Source</t>
   </si>
@@ -166,9 +183,6 @@
     <t>co2_conversion_per_mj</t>
   </si>
   <si>
-    <t>typical_production_per_km2</t>
-  </si>
-  <si>
     <t>Whether or not this carrier is renewable</t>
   </si>
   <si>
@@ -214,26 +228,7 @@
     <t>Carrier (gobal properties)</t>
   </si>
   <si>
-    <t>MJ/km2</t>
-  </si>
-  <si>
-    <t>Source 4</t>
-  </si>
-  <si>
     <t>Page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. It contains both pure carrier values and values used by the Fuel Chain Emissions calculation (only for NL). Use the Excel formulas to find the original data and sources for these numbers. 
-</t>
-  </si>
-  <si>
-    <t>N.B.: This document is not yet used to automatically update the values in etsource.</t>
-  </si>
-  <si>
-    <t>Document 1</t>
-  </si>
-  <si>
-    <t>Document 2</t>
   </si>
   <si>
     <t>EU JRC_201111_Well-to-wheel analysis of future automotive fuels and powertrains in the European context (version 3c) WTT Appendix 1</t>
@@ -300,9 +295,6 @@
     <t>kg CO2 eq/GJ</t>
   </si>
   <si>
-    <t>crude_oil.ad</t>
-  </si>
-  <si>
     <t>Crude</t>
   </si>
   <si>
@@ -321,9 +313,6 @@
     <t>http://refman.et-model.com/publications/1708</t>
   </si>
   <si>
-    <t>Not relevant for fossil fuels</t>
-  </si>
-  <si>
     <t>density</t>
   </si>
   <si>
@@ -333,25 +322,120 @@
     <t>Crude oil</t>
   </si>
   <si>
-    <t>not relevant for fossil fuels</t>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>crude_oil</t>
+  </si>
+  <si>
+    <t>mj_per_kg</t>
+  </si>
+  <si>
+    <t>Carrier (global properties)</t>
+  </si>
+  <si>
+    <t>This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers.</t>
+  </si>
+  <si>
+    <t>This sheet summarizes the Fuel Chain Emissions attributes formatted in the way they are used by the Energy Transition Model. These FCE are only specified for carriers and at the moment only for NL.</t>
+  </si>
+  <si>
+    <t>N.B. These FCE attributes have to be exported to ETSource manually as this is not automated yet.</t>
+  </si>
+  <si>
+    <t>This sheet contains currency exchange rates. These are automatically updated from exchange rate files in the same folder. This only works if you open this `&lt;carrier name&gt;.xlsx` workbook using the `carrier_manager.xlsm` document.</t>
+  </si>
+  <si>
+    <t>Exchange rate</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>dollar_per_euro</t>
+  </si>
+  <si>
+    <t>USD/EUR</t>
+  </si>
+  <si>
+    <t>Running Month Average</t>
+  </si>
+  <si>
+    <t>http://www.ecb.europa.eu/stats/exchange/eurofxref/html/eurofxref-graph-usd.en.html</t>
+  </si>
+  <si>
+    <t>Open Price</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Close Price</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>http://www.euroinvestor.com/exchanges/gtis-energy/wti-oil/2327086/history</t>
+  </si>
+  <si>
+    <t>WTI oil prices</t>
+  </si>
+  <si>
+    <t>Monthly average</t>
+  </si>
+  <si>
+    <t>USD/barrel</t>
+  </si>
+  <si>
+    <t>L/barrel</t>
+  </si>
+  <si>
+    <t>USD/L</t>
+  </si>
+  <si>
+    <t>EUR/L</t>
+  </si>
+  <si>
+    <t>Euroinvestor</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>kg_per_liter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="169" formatCode="0.0000000000"/>
+    <numFmt numFmtId="170" formatCode="0.00000000000"/>
+    <numFmt numFmtId="171" formatCode="0.0000000000000000"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -551,6 +635,22 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Grande"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -626,7 +726,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -868,622 +968,750 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="337">
+  <cellStyleXfs count="343">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="26" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="25" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="337">
+  <cellStyles count="343">
+    <cellStyle name="Excel Built-in Normal" xfId="338"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1731,6 +1959,11 @@
     <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="335" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1827,7 +2060,77 @@
 </styleSheet>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>165100</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>3949700</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3073" name="export_data" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3073"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Lucida Grande"/>
+                  <a:ea typeface="Lucida Grande"/>
+                  <a:cs typeface="Lucida Grande"/>
+                </a:rPr>
+                <a:t>Update carrier attributes on ETSource</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2025,6 +2328,24 @@
       <sheetData sheetId="45" refreshError="1"/>
       <sheetData sheetId="46" refreshError="1"/>
       <sheetData sheetId="47" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cover sheet"/>
+      <sheetName val="Dashboard"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="update_attributes"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2353,184 +2674,196 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3.375" style="31" customWidth="1"/>
     <col min="2" max="2" width="9.125" style="23" customWidth="1"/>
     <col min="3" max="3" width="44.125" style="23" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="23"/>
+    <col min="4" max="4" width="2.125" style="23" customWidth="1"/>
+    <col min="5" max="16384" width="10.625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="29" customFormat="1">
+    <row r="1" spans="1:4" s="29" customFormat="1">
       <c r="A1" s="27"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:4" ht="20">
       <c r="A2" s="7"/>
       <c r="B2" s="30" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="30"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="7"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="7"/>
-      <c r="B5" s="130" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="131"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="B5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="7"/>
-      <c r="B6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="B6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="7"/>
-      <c r="B7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="7"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" s="7"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="B9" s="88" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="89"/>
+      <c r="D9" s="158"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="7"/>
-      <c r="B10" s="88" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="89"/>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="B10" s="90"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="159"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="7"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="91"/>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="B11" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="92" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="159"/>
+    </row>
+    <row r="12" spans="1:4" ht="16" thickBot="1">
       <c r="A12" s="7"/>
-      <c r="B12" s="90" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="92" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+      <c r="B12" s="90"/>
+      <c r="C12" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="159"/>
+    </row>
+    <row r="13" spans="1:4" ht="16" thickBot="1">
       <c r="A13" s="7"/>
       <c r="B13" s="90"/>
-      <c r="C13" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="16" thickBot="1">
+      <c r="C13" s="93" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="159"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="7"/>
       <c r="B14" s="90"/>
-      <c r="C14" s="93" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="C14" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="159"/>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="7"/>
       <c r="B15" s="90"/>
-      <c r="C15" s="91" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="C15" s="91"/>
+      <c r="D15" s="159"/>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="7"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="91"/>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="159"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="7"/>
-      <c r="B17" s="90" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="94" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="B17" s="90"/>
+      <c r="C17" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="159"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="7"/>
       <c r="B18" s="90"/>
-      <c r="C18" s="95" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="C18" s="96" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="159"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="7"/>
       <c r="B19" s="90"/>
-      <c r="C19" s="96" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="C19" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="159"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="7"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="97" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="B20" s="98"/>
+      <c r="C20" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="159"/>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="7"/>
       <c r="B21" s="98"/>
-      <c r="C21" s="99" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="C21" s="100" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="159"/>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="7"/>
       <c r="B22" s="98"/>
-      <c r="C22" s="100" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="7"/>
+      <c r="C22" s="101" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="159"/>
+    </row>
+    <row r="23" spans="1:4">
       <c r="B23" s="98"/>
-      <c r="C23" s="101" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" s="98"/>
-      <c r="C24" s="102" t="s">
+      <c r="C23" s="102" t="s">
         <v>29</v>
       </c>
+      <c r="D23" s="159"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="B24" s="160"/>
+      <c r="C24" s="161"/>
+      <c r="D24" s="162"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2544,15 +2877,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K26"/>
+  <dimension ref="B1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -2569,86 +2900,89 @@
     <col min="11" max="16384" width="10.625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:10">
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
       <c r="F1" s="36"/>
       <c r="G1" s="36"/>
     </row>
-    <row r="2" spans="2:11" ht="15" customHeight="1">
-      <c r="B2" s="157" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="159"/>
+    <row r="2" spans="2:10" ht="15" customHeight="1">
+      <c r="B2" s="179" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="181"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="160"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="162"/>
+    <row r="3" spans="2:10">
+      <c r="B3" s="182"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="184"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="163"/>
-      <c r="C4" s="164"/>
-      <c r="D4" s="164"/>
-      <c r="E4" s="165"/>
+    <row r="4" spans="2:10">
+      <c r="B4" s="185"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="187"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
-    <row r="5" spans="2:11" ht="15" customHeight="1">
-      <c r="B5" s="158" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-    </row>
-    <row r="6" spans="2:11" ht="16" thickBot="1">
-      <c r="D6" s="36"/>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="39"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="40"/>
-    </row>
-    <row r="8" spans="2:11" s="45" customFormat="1" ht="18">
-      <c r="B8" s="103"/>
-      <c r="C8" s="21" t="s">
+    <row r="5" spans="2:10" ht="16" thickBot="1">
+      <c r="D5" s="36"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="39"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="40"/>
+    </row>
+    <row r="7" spans="2:10" s="45" customFormat="1" ht="18">
+      <c r="B7" s="103"/>
+      <c r="C7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="104" t="s">
+      <c r="D7" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E7" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21" t="s">
+      <c r="F7" s="21"/>
+      <c r="G7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21" t="s">
+      <c r="H7" s="21"/>
+      <c r="I7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="107"/>
-    </row>
-    <row r="9" spans="2:11" s="45" customFormat="1" ht="18">
+      <c r="J7" s="107"/>
+    </row>
+    <row r="8" spans="2:10" s="45" customFormat="1" ht="18">
+      <c r="B8" s="25"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="46"/>
+    </row>
+    <row r="9" spans="2:10" s="45" customFormat="1" ht="19" thickBot="1">
       <c r="B9" s="25"/>
-      <c r="C9" s="20"/>
+      <c r="C9" s="157" t="s">
+        <v>83</v>
+      </c>
       <c r="D9" s="33"/>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
@@ -2657,319 +2991,157 @@
       <c r="I9" s="20"/>
       <c r="J9" s="46"/>
     </row>
-    <row r="10" spans="2:11" s="45" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:10" s="45" customFormat="1" ht="19" thickBot="1">
       <c r="B10" s="25"/>
-      <c r="C10" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="46"/>
-    </row>
-    <row r="11" spans="2:11" s="45" customFormat="1" ht="19" thickBot="1">
-      <c r="B11" s="25"/>
-      <c r="C11" s="113" t="s">
+      <c r="C10" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D10" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="124">
+      <c r="E10" s="124">
         <f>'Research data'!G6</f>
         <v>0</v>
       </c>
+      <c r="F10" s="37"/>
+      <c r="G10" s="122" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="32"/>
+      <c r="I10" s="123" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="46"/>
+    </row>
+    <row r="11" spans="2:10" s="45" customFormat="1" ht="19" thickBot="1">
+      <c r="B11" s="25"/>
+      <c r="C11" s="122" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="177">
+        <f>'Research data'!G7</f>
+        <v>8.3354761234823768E-3</v>
+      </c>
       <c r="F11" s="37"/>
-      <c r="G11" s="122" t="s">
-        <v>42</v>
-      </c>
+      <c r="G11" s="122"/>
       <c r="H11" s="32"/>
-      <c r="I11" s="123" t="s">
-        <v>43</v>
+      <c r="I11" s="170" t="s">
+        <v>106</v>
       </c>
       <c r="J11" s="46"/>
     </row>
-    <row r="12" spans="2:11" s="45" customFormat="1" ht="19" thickBot="1">
+    <row r="12" spans="2:10" s="45" customFormat="1" ht="19" thickBot="1">
       <c r="B12" s="25"/>
       <c r="C12" s="122" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="124"/>
+        <v>53</v>
+      </c>
+      <c r="E12" s="47">
+        <f>'Research data'!G8</f>
+        <v>42</v>
+      </c>
       <c r="F12" s="37"/>
       <c r="G12" s="122"/>
       <c r="H12" s="32"/>
-      <c r="I12" s="146"/>
+      <c r="I12" s="143" t="s">
+        <v>74</v>
+      </c>
       <c r="J12" s="46"/>
     </row>
-    <row r="13" spans="2:11" s="45" customFormat="1" ht="19" thickBot="1">
+    <row r="13" spans="2:10" s="45" customFormat="1" ht="19" thickBot="1">
       <c r="B13" s="25"/>
-      <c r="C13" s="122" t="s">
-        <v>53</v>
+      <c r="C13" s="178" t="s">
+        <v>108</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="E13" s="47">
-        <f>'Research data'!G8</f>
-        <v>42</v>
+        <f>'Research data'!G9</f>
+        <v>0.82</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="122"/>
       <c r="H13" s="32"/>
-      <c r="I13" s="146" t="s">
-        <v>82</v>
+      <c r="I13" s="143" t="s">
+        <v>74</v>
       </c>
       <c r="J13" s="46"/>
     </row>
-    <row r="14" spans="2:11" s="45" customFormat="1" ht="19" thickBot="1">
+    <row r="14" spans="2:10" s="45" customFormat="1" ht="19" thickBot="1">
       <c r="B14" s="25"/>
-      <c r="C14" s="166" t="s">
-        <v>86</v>
+      <c r="C14" s="37" t="s">
+        <v>40</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="47">
-        <f>'Research data'!G9</f>
-        <v>0.82</v>
+        <v>48</v>
+      </c>
+      <c r="E14" s="115">
+        <f>'Research data'!G10</f>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="122"/>
       <c r="H14" s="32"/>
-      <c r="I14" s="146" t="s">
-        <v>82</v>
+      <c r="I14" s="143" t="s">
+        <v>74</v>
       </c>
       <c r="J14" s="46"/>
     </row>
-    <row r="15" spans="2:11" s="45" customFormat="1" ht="19" thickBot="1">
-      <c r="B15" s="25"/>
-      <c r="C15" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="115">
-        <f>'Research data'!G10</f>
-        <v>7.5499999999999998E-2</v>
-      </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="146" t="s">
-        <v>82</v>
-      </c>
-      <c r="J15" s="46"/>
-    </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
-      <c r="B16" s="41"/>
-      <c r="C16" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="124"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="167" t="s">
-        <v>89</v>
-      </c>
-      <c r="J16" s="108"/>
-      <c r="K16" s="36"/>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="41"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="108"/>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="41"/>
-      <c r="C18" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="105"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="108"/>
-    </row>
-    <row r="19" spans="2:10" ht="16" thickBot="1">
-      <c r="B19" s="41"/>
-      <c r="C19" s="122"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="108"/>
-    </row>
-    <row r="20" spans="2:10" ht="16" thickBot="1">
-      <c r="B20" s="41"/>
-      <c r="C20" s="125" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="145">
-        <f>'Research data'!G14</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="37"/>
-      <c r="G20" s="122" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" s="37"/>
-      <c r="I20" s="123" t="s">
-        <v>52</v>
-      </c>
-      <c r="J20" s="108"/>
-    </row>
-    <row r="21" spans="2:10" ht="16" thickBot="1">
-      <c r="B21" s="41"/>
-      <c r="C21" s="125" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="145">
-        <f>'Research data'!G15</f>
-        <v>4.8300000000000001E-3</v>
-      </c>
-      <c r="F21" s="37"/>
-      <c r="G21" s="122" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" s="37"/>
-      <c r="I21" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="J21" s="108"/>
-    </row>
-    <row r="22" spans="2:10" ht="16" thickBot="1">
-      <c r="B22" s="41"/>
-      <c r="C22" s="125" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="145">
-        <f>'Research data'!G16</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="37"/>
-      <c r="G22" s="122" t="s">
-        <v>50</v>
-      </c>
-      <c r="H22" s="37"/>
-      <c r="I22" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="J22" s="108"/>
-    </row>
-    <row r="23" spans="2:10" ht="16" thickBot="1">
-      <c r="B23" s="41"/>
-      <c r="C23" s="125" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="145">
-        <f>'Research data'!G17</f>
-        <v>8.8000000000000003E-4</v>
-      </c>
-      <c r="F23" s="37"/>
-      <c r="G23" s="122" t="s">
-        <v>50</v>
-      </c>
-      <c r="H23" s="37"/>
-      <c r="I23" s="87" t="s">
-        <v>52</v>
-      </c>
-      <c r="J23" s="108"/>
-    </row>
-    <row r="24" spans="2:10" ht="16" thickBot="1">
-      <c r="B24" s="41"/>
-      <c r="C24" s="125" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="145">
-        <f>'Research data'!G18</f>
-        <v>7.5499999999999998E-2</v>
-      </c>
-      <c r="F24" s="37"/>
-      <c r="G24" s="122" t="s">
-        <v>50</v>
-      </c>
-      <c r="H24" s="37"/>
-      <c r="I24" s="87" t="s">
-        <v>52</v>
-      </c>
-      <c r="J24" s="108"/>
-    </row>
-    <row r="25" spans="2:10" ht="16" thickBot="1">
-      <c r="B25" s="41"/>
-      <c r="C25" s="125" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="145">
-        <f>'Research data'!G19</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="37"/>
-      <c r="G25" s="122" t="s">
-        <v>50</v>
-      </c>
-      <c r="H25" s="37"/>
-      <c r="I25" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="J25" s="108"/>
-    </row>
-    <row r="26" spans="2:10" ht="20" customHeight="1" thickBot="1">
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="44"/>
+    <row r="15" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B2:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3073" r:id="rId3" name="export_data">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_attributes">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>165100</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>3949700</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+          <mc:Fallback/>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2980,13 +3152,298 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="B1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3.25" style="38" customWidth="1"/>
+    <col min="2" max="2" width="3.75" style="38" customWidth="1"/>
+    <col min="3" max="3" width="46" style="38" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="38" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="38" customWidth="1"/>
+    <col min="6" max="6" width="4.625" style="38" customWidth="1"/>
+    <col min="7" max="7" width="45" style="38" customWidth="1"/>
+    <col min="8" max="8" width="5.125" style="38" customWidth="1"/>
+    <col min="9" max="9" width="51.5" style="38" customWidth="1"/>
+    <col min="10" max="10" width="5.375" style="38" customWidth="1"/>
+    <col min="11" max="16384" width="10.625" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10">
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+    </row>
+    <row r="2" spans="2:10" ht="15" customHeight="1">
+      <c r="B2" s="179" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="182"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="154"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="188" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+    </row>
+    <row r="5" spans="2:10" ht="16" thickBot="1">
+      <c r="D5" s="36"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="39"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="40"/>
+    </row>
+    <row r="7" spans="2:10" s="45" customFormat="1" ht="18">
+      <c r="B7" s="103"/>
+      <c r="C7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="104" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="107"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="41"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="108"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="41"/>
+      <c r="C9" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="105"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="108"/>
+    </row>
+    <row r="10" spans="2:10" ht="16" thickBot="1">
+      <c r="B10" s="41"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="108"/>
+    </row>
+    <row r="11" spans="2:10" ht="16" thickBot="1">
+      <c r="B11" s="41"/>
+      <c r="C11" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="142">
+        <f>'Research data'!G13</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="37"/>
+      <c r="G11" s="122" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="37"/>
+      <c r="I11" s="123" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="108"/>
+    </row>
+    <row r="12" spans="2:10" ht="16" thickBot="1">
+      <c r="B12" s="41"/>
+      <c r="C12" s="156" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="142">
+        <f>'Research data'!G14</f>
+        <v>4.8300000000000001E-3</v>
+      </c>
+      <c r="F12" s="37"/>
+      <c r="G12" s="122" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="37"/>
+      <c r="I12" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="108"/>
+    </row>
+    <row r="13" spans="2:10" ht="16" thickBot="1">
+      <c r="B13" s="41"/>
+      <c r="C13" s="156" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="142">
+        <f>'Research data'!G15</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="37"/>
+      <c r="G13" s="122" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="37"/>
+      <c r="I13" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="108"/>
+    </row>
+    <row r="14" spans="2:10" ht="16" thickBot="1">
+      <c r="B14" s="41"/>
+      <c r="C14" s="156" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="142">
+        <f>'Research data'!G16</f>
+        <v>8.8000000000000003E-4</v>
+      </c>
+      <c r="F14" s="37"/>
+      <c r="G14" s="122" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="37"/>
+      <c r="I14" s="87" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="108"/>
+    </row>
+    <row r="15" spans="2:10" ht="16" thickBot="1">
+      <c r="B15" s="41"/>
+      <c r="C15" s="156" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="142">
+        <f>'Research data'!G17</f>
+        <v>7.5499999999999998E-2</v>
+      </c>
+      <c r="F15" s="37"/>
+      <c r="G15" s="122" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="37"/>
+      <c r="I15" s="87" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" s="108"/>
+    </row>
+    <row r="16" spans="2:10" ht="16" thickBot="1">
+      <c r="B16" s="41"/>
+      <c r="C16" s="156" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="142">
+        <f>'Research data'!G18</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="37"/>
+      <c r="G16" s="122" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="37"/>
+      <c r="I16" s="114" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="108"/>
+    </row>
+    <row r="17" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="B4:E4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:O26"/>
+  <dimension ref="B1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3003,7 +3460,7 @@
     <col min="10" max="10" width="3" style="68" customWidth="1"/>
     <col min="11" max="11" width="8.5" style="68" customWidth="1"/>
     <col min="12" max="12" width="2.75" style="68" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="68" customWidth="1"/>
+    <col min="13" max="13" width="9.625" style="68" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="2.75" style="68" customWidth="1"/>
     <col min="15" max="15" width="60" style="67" customWidth="1"/>
     <col min="16" max="16384" width="10.625" style="67"/>
@@ -3041,15 +3498,15 @@
       </c>
       <c r="H3" s="112"/>
       <c r="I3" s="65" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J3" s="65"/>
       <c r="K3" s="65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L3" s="65"/>
       <c r="M3" s="65" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="N3" s="65"/>
       <c r="O3" s="1" t="s">
@@ -3075,7 +3532,7 @@
     <row r="5" spans="2:15" ht="16" thickBot="1">
       <c r="B5" s="73"/>
       <c r="C5" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="34"/>
       <c r="E5" s="34"/>
@@ -3092,13 +3549,13 @@
     </row>
     <row r="6" spans="2:15" ht="16" thickBot="1">
       <c r="B6" s="73"/>
-      <c r="C6" s="126" t="s">
+      <c r="C6" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="126" t="s">
+      <c r="D6" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="126" t="s">
+      <c r="E6" s="125" t="s">
         <v>38</v>
       </c>
       <c r="F6" s="24" t="s">
@@ -3118,41 +3575,47 @@
     </row>
     <row r="7" spans="2:15" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="B7" s="5"/>
-      <c r="C7" s="127" t="s">
+      <c r="C7" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="127" t="s">
+      <c r="D7" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="127" t="s">
+      <c r="E7" s="126" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="47"/>
+        <v>54</v>
+      </c>
+      <c r="G7" s="176">
+        <f>M7</f>
+        <v>8.3354761234823768E-3</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
-      <c r="M7" s="16"/>
+      <c r="M7" s="175">
+        <f>Notes!G137</f>
+        <v>8.3354761234823768E-3</v>
+      </c>
       <c r="N7" s="16"/>
-      <c r="O7" s="136"/>
+      <c r="O7" s="133"/>
     </row>
     <row r="8" spans="2:15" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="B8" s="5"/>
-      <c r="C8" s="127" t="s">
+      <c r="C8" s="126" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="126" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="126" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="24" t="s">
         <v>53</v>
-      </c>
-      <c r="D8" s="127" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="127" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>54</v>
       </c>
       <c r="G8" s="47">
         <f>I8</f>
@@ -3170,22 +3633,22 @@
       <c r="N8" s="16"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="2:15" s="153" customFormat="1" ht="16" thickBot="1">
-      <c r="B9" s="149"/>
-      <c r="C9" s="150" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="150"/>
-      <c r="E9" s="150"/>
+    <row r="9" spans="2:15" s="150" customFormat="1" ht="16" thickBot="1">
+      <c r="B9" s="146"/>
+      <c r="C9" s="147" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="147"/>
+      <c r="E9" s="147"/>
       <c r="F9" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="151">
+        <v>78</v>
+      </c>
+      <c r="G9" s="148">
         <f>I9</f>
         <v>0.82</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="151">
+      <c r="H9" s="149"/>
+      <c r="I9" s="148">
         <f>Notes!F10</f>
         <v>0.82</v>
       </c>
@@ -3194,21 +3657,21 @@
       <c r="L9" s="18"/>
       <c r="M9" s="16"/>
       <c r="N9" s="16"/>
-      <c r="O9" s="148"/>
+      <c r="O9" s="145"/>
     </row>
     <row r="10" spans="2:15" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="B10" s="5"/>
-      <c r="C10" s="128" t="s">
+      <c r="C10" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="128" t="s">
+      <c r="D10" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="128" t="s">
+      <c r="E10" s="127" t="s">
         <v>40</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="115">
         <f>I10</f>
@@ -3226,249 +3689,226 @@
       <c r="N10" s="16"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="2:15" ht="16" thickBot="1">
+    <row r="11" spans="2:15">
       <c r="B11" s="73"/>
-      <c r="C11" s="128" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="128" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="128" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="124"/>
-      <c r="H11" s="80"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
       <c r="M11" s="16"/>
       <c r="N11" s="16"/>
-      <c r="O11" s="148" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15">
+      <c r="O11" s="133"/>
+    </row>
+    <row r="12" spans="2:15" ht="16" thickBot="1">
       <c r="B12" s="73"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="C12" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="79"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
       <c r="M12" s="16"/>
       <c r="N12" s="16"/>
-      <c r="O12" s="136"/>
+      <c r="O12" s="133"/>
     </row>
     <row r="13" spans="2:15" ht="16" thickBot="1">
       <c r="B13" s="73"/>
-      <c r="C13" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="79"/>
+      <c r="C13" s="128" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="142">
+        <f>K13</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="80"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
+      <c r="K13" s="142">
+        <f>Notes!H82</f>
+        <v>0</v>
+      </c>
       <c r="L13" s="18"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="136"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="133" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="14" spans="2:15" ht="16" thickBot="1">
       <c r="B14" s="73"/>
-      <c r="C14" s="129" t="s">
+      <c r="C14" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
       <c r="F14" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="145">
-        <f>K14</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="80"/>
+        <v>48</v>
+      </c>
+      <c r="G14" s="142">
+        <f t="shared" ref="G14:G18" si="0">K14</f>
+        <v>4.8300000000000001E-3</v>
+      </c>
+      <c r="H14" s="18"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
-      <c r="K14" s="145">
-        <f>Notes!H82</f>
-        <v>0</v>
+      <c r="K14" s="142">
+        <f>Notes!H83</f>
+        <v>4.8300000000000001E-3</v>
       </c>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="136" t="s">
-        <v>52</v>
+      <c r="N14" s="6"/>
+      <c r="O14" s="133" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="16" thickBot="1">
       <c r="B15" s="73"/>
-      <c r="C15" s="129" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
+      <c r="C15" s="128" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="145">
-        <f t="shared" ref="G15:G19" si="0">K15</f>
-        <v>4.8300000000000001E-3</v>
+        <v>48</v>
+      </c>
+      <c r="G15" s="142">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
-      <c r="K15" s="145">
-        <f>Notes!H83</f>
-        <v>4.8300000000000001E-3</v>
+      <c r="K15" s="142">
+        <f>Notes!H84</f>
+        <v>0</v>
       </c>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
       <c r="N15" s="6"/>
-      <c r="O15" s="136" t="s">
-        <v>52</v>
+      <c r="O15" s="133" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="16" thickBot="1">
       <c r="B16" s="73"/>
-      <c r="C16" s="129" t="s">
-        <v>48</v>
+      <c r="C16" s="128" t="s">
+        <v>46</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="145">
+        <v>48</v>
+      </c>
+      <c r="G16" s="142">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.8000000000000003E-4</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
-      <c r="K16" s="145">
-        <f>Notes!H84</f>
-        <v>0</v>
+      <c r="K16" s="142">
+        <f>Notes!H85</f>
+        <v>8.8000000000000003E-4</v>
       </c>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="136" t="s">
-        <v>52</v>
+      <c r="O16" s="133" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="2:15" ht="16" thickBot="1">
       <c r="B17" s="73"/>
-      <c r="C17" s="129" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="C17" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
       <c r="F17" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="145">
+        <v>48</v>
+      </c>
+      <c r="G17" s="142">
         <f t="shared" si="0"/>
-        <v>8.8000000000000003E-4</v>
-      </c>
-      <c r="H17" s="18"/>
+        <v>7.5499999999999998E-2</v>
+      </c>
+      <c r="H17" s="80"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
-      <c r="K17" s="145">
-        <f>Notes!H85</f>
-        <v>8.8000000000000003E-4</v>
+      <c r="K17" s="142">
+        <f>Notes!H86</f>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="136" t="s">
-        <v>52</v>
+      <c r="N17" s="77"/>
+      <c r="O17" s="133" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="16" thickBot="1">
       <c r="B18" s="73"/>
-      <c r="C18" s="129" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
+      <c r="C18" s="128" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
       <c r="F18" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="145">
+        <v>48</v>
+      </c>
+      <c r="G18" s="142">
         <f t="shared" si="0"/>
-        <v>7.5499999999999998E-2</v>
-      </c>
-      <c r="H18" s="80"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="18"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
-      <c r="K18" s="145">
-        <f>Notes!H86</f>
-        <v>7.5499999999999998E-2</v>
+      <c r="K18" s="142">
+        <f>Notes!H87</f>
+        <v>0</v>
       </c>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
       <c r="N18" s="77"/>
-      <c r="O18" s="136" t="s">
-        <v>52</v>
+      <c r="O18" s="133" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="16" thickBot="1">
-      <c r="B19" s="73"/>
-      <c r="C19" s="129" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="145">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="145">
-        <f>Notes!H87</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="136" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" ht="16" thickBot="1">
-      <c r="B20" s="84"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="85"/>
-      <c r="N20" s="85"/>
-      <c r="O20" s="86"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="86"/>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="M20" s="18"/>
     </row>
     <row r="21" spans="2:15">
       <c r="M21" s="18"/>
@@ -3483,10 +3923,7 @@
       <c r="M24" s="18"/>
     </row>
     <row r="25" spans="2:15">
-      <c r="M25" s="18"/>
-    </row>
-    <row r="26" spans="2:15">
-      <c r="O26" s="136"/>
+      <c r="O25" s="133"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3499,7 +3936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.79998168889431442"/>
@@ -3507,7 +3944,7 @@
   <dimension ref="B1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3600,8 +4037,8 @@
       <c r="B6" s="54"/>
       <c r="C6" s="55"/>
       <c r="D6" s="55"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
       <c r="G6" s="55"/>
       <c r="H6" s="55"/>
       <c r="I6" s="55"/>
@@ -3611,63 +4048,63 @@
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="54"/>
-      <c r="C7" s="154" t="s">
-        <v>53</v>
+      <c r="C7" s="151" t="s">
+        <v>82</v>
       </c>
       <c r="D7" s="62"/>
-      <c r="E7" s="147" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="147" t="s">
-        <v>73</v>
+      <c r="E7" s="144" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="144" t="s">
+        <v>66</v>
       </c>
       <c r="G7" s="57" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H7" s="58" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I7" s="58" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="J7" s="58"/>
       <c r="K7" s="58" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="L7" s="63"/>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="54"/>
-      <c r="C8" s="155" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
+      <c r="C8" s="152" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="137"/>
+      <c r="F8" s="137"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="54"/>
-      <c r="C9" s="156" t="s">
+      <c r="C9" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="140"/>
-      <c r="F9" s="140"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="54"/>
       <c r="C10" s="121"/>
-      <c r="E10" s="140"/>
-      <c r="F10" s="140"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="54"/>
       <c r="C11" s="62" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D11" s="62"/>
       <c r="E11" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="138"/>
+        <v>67</v>
+      </c>
+      <c r="F11" s="135"/>
       <c r="G11" s="62" t="s">
         <v>3</v>
       </c>
@@ -3679,7 +4116,7 @@
       </c>
       <c r="J11" s="62"/>
       <c r="K11" s="64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L11" s="63"/>
     </row>
@@ -3687,8 +4124,8 @@
       <c r="B12" s="54"/>
       <c r="C12" s="62"/>
       <c r="D12" s="62"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="138"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
       <c r="G12" s="62"/>
       <c r="H12" s="66"/>
       <c r="I12" s="66"/>
@@ -3696,23 +4133,35 @@
       <c r="K12" s="64"/>
       <c r="L12" s="63"/>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" ht="17">
       <c r="B13" s="54"/>
-      <c r="C13" s="62"/>
+      <c r="C13" s="62" t="s">
+        <v>39</v>
+      </c>
       <c r="D13" s="62"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="62"/>
+      <c r="E13" s="136" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="136"/>
+      <c r="G13" s="62" t="s">
+        <v>107</v>
+      </c>
       <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="62"/>
+      <c r="I13" s="66">
+        <v>2015</v>
+      </c>
+      <c r="J13" s="174">
+        <v>42221</v>
+      </c>
       <c r="K13" s="64"/>
-      <c r="L13" s="63"/>
+      <c r="L13" s="138" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="54"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="140"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3725,12 +4174,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y126"/>
+  <dimension ref="A1:Y153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3739,7 +4188,10 @@
     <col min="2" max="2" width="5" style="116" customWidth="1"/>
     <col min="3" max="5" width="7" style="116"/>
     <col min="6" max="6" width="10.875" style="116" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="7" style="116"/>
+    <col min="7" max="7" width="9.625" style="116" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="7" style="116"/>
+    <col min="12" max="12" width="10" style="116" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="7" style="116"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:25" ht="16" thickBot="1"/>
@@ -3749,7 +4201,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="120" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E2" s="120"/>
       <c r="F2" s="120" t="s">
@@ -3795,688 +4247,688 @@
     </row>
     <row r="4" spans="2:25" customFormat="1" ht="16">
       <c r="B4" s="117"/>
-      <c r="C4" s="132" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="132"/>
-      <c r="L4" s="132"/>
-      <c r="M4" s="132"/>
-      <c r="N4" s="132"/>
-      <c r="O4" s="132"/>
-      <c r="P4" s="132"/>
-      <c r="Q4" s="132"/>
-      <c r="R4" s="132"/>
-      <c r="S4" s="132"/>
-      <c r="T4" s="132"/>
-      <c r="U4" s="132"/>
-      <c r="V4" s="132"/>
-      <c r="W4" s="132"/>
-      <c r="X4" s="132"/>
-      <c r="Y4" s="132"/>
+      <c r="C4" s="129" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="129"/>
+      <c r="O4" s="129"/>
+      <c r="P4" s="129"/>
+      <c r="Q4" s="129"/>
+      <c r="R4" s="129"/>
+      <c r="S4" s="129"/>
+      <c r="T4" s="129"/>
+      <c r="U4" s="129"/>
+      <c r="V4" s="129"/>
+      <c r="W4" s="129"/>
+      <c r="X4" s="129"/>
+      <c r="Y4" s="129"/>
     </row>
     <row r="5" spans="2:25" customFormat="1" ht="16">
       <c r="B5" s="117"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="132"/>
-      <c r="K5" s="132"/>
-      <c r="L5" s="132"/>
-      <c r="M5" s="132"/>
-      <c r="N5" s="132"/>
-      <c r="O5" s="132"/>
-      <c r="P5" s="132"/>
-      <c r="Q5" s="132"/>
-      <c r="R5" s="132"/>
-      <c r="S5" s="132"/>
-      <c r="T5" s="132"/>
-      <c r="U5" s="132"/>
-      <c r="V5" s="132"/>
-      <c r="W5" s="132"/>
-      <c r="X5" s="132"/>
-      <c r="Y5" s="132"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="129"/>
+      <c r="N5" s="129"/>
+      <c r="O5" s="129"/>
+      <c r="P5" s="129"/>
+      <c r="Q5" s="129"/>
+      <c r="R5" s="129"/>
+      <c r="S5" s="129"/>
+      <c r="T5" s="129"/>
+      <c r="U5" s="129"/>
+      <c r="V5" s="129"/>
+      <c r="W5" s="129"/>
+      <c r="X5" s="129"/>
+      <c r="Y5" s="129"/>
     </row>
     <row r="6" spans="2:25" customFormat="1" ht="16">
       <c r="B6" s="117"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="132"/>
-      <c r="K6" s="132"/>
-      <c r="L6" s="132"/>
-      <c r="M6" s="132"/>
-      <c r="N6" s="132"/>
-      <c r="O6" s="132"/>
-      <c r="P6" s="132"/>
-      <c r="Q6" s="132"/>
-      <c r="R6" s="132"/>
-      <c r="S6" s="132"/>
-      <c r="T6" s="132"/>
-      <c r="U6" s="132"/>
-      <c r="V6" s="132"/>
-      <c r="W6" s="132"/>
-      <c r="X6" s="132"/>
-      <c r="Y6" s="132"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="129"/>
+      <c r="M6" s="129"/>
+      <c r="N6" s="129"/>
+      <c r="O6" s="129"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="129"/>
+      <c r="R6" s="129"/>
+      <c r="S6" s="129"/>
+      <c r="T6" s="129"/>
+      <c r="U6" s="129"/>
+      <c r="V6" s="129"/>
+      <c r="W6" s="129"/>
+      <c r="X6" s="129"/>
+      <c r="Y6" s="129"/>
     </row>
     <row r="7" spans="2:25" customFormat="1" ht="16">
       <c r="B7" s="117"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="132"/>
-      <c r="K7" s="132"/>
-      <c r="L7" s="132"/>
-      <c r="M7" s="132"/>
-      <c r="N7" s="132"/>
-      <c r="O7" s="132"/>
-      <c r="P7" s="132"/>
-      <c r="Q7" s="132"/>
-      <c r="R7" s="132"/>
-      <c r="S7" s="132"/>
-      <c r="T7" s="132"/>
-      <c r="U7" s="132"/>
-      <c r="V7" s="132"/>
-      <c r="W7" s="132"/>
-      <c r="X7" s="132"/>
-      <c r="Y7" s="132"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="129"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="129"/>
+      <c r="O7" s="129"/>
+      <c r="P7" s="129"/>
+      <c r="Q7" s="129"/>
+      <c r="R7" s="129"/>
+      <c r="S7" s="129"/>
+      <c r="T7" s="129"/>
+      <c r="U7" s="129"/>
+      <c r="V7" s="129"/>
+      <c r="W7" s="129"/>
+      <c r="X7" s="129"/>
+      <c r="Y7" s="129"/>
     </row>
     <row r="8" spans="2:25" customFormat="1" ht="16">
       <c r="B8" s="117"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132">
+      <c r="C8" s="129"/>
+      <c r="D8" s="129">
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="132">
+        <v>71</v>
+      </c>
+      <c r="F8" s="129">
         <v>820</v>
       </c>
-      <c r="G8" s="133" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="134" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="132"/>
-      <c r="J8" s="132"/>
-      <c r="K8" s="132"/>
-      <c r="L8" s="132"/>
-      <c r="M8" s="132"/>
-      <c r="N8" s="132"/>
-      <c r="O8" s="132"/>
-      <c r="P8" s="132"/>
-      <c r="Q8" s="132"/>
-      <c r="R8" s="132"/>
-      <c r="S8" s="132"/>
-      <c r="T8" s="132"/>
-      <c r="U8" s="132"/>
-      <c r="V8" s="132"/>
-      <c r="W8" s="132"/>
-      <c r="X8" s="132"/>
-      <c r="Y8" s="132"/>
+      <c r="G8" s="130" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="131" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="129"/>
+      <c r="J8" s="129"/>
+      <c r="K8" s="129"/>
+      <c r="L8" s="129"/>
+      <c r="M8" s="129"/>
+      <c r="N8" s="129"/>
+      <c r="O8" s="129"/>
+      <c r="P8" s="129"/>
+      <c r="Q8" s="129"/>
+      <c r="R8" s="129"/>
+      <c r="S8" s="129"/>
+      <c r="T8" s="129"/>
+      <c r="U8" s="129"/>
+      <c r="V8" s="129"/>
+      <c r="W8" s="129"/>
+      <c r="X8" s="129"/>
+      <c r="Y8" s="129"/>
     </row>
     <row r="9" spans="2:25" customFormat="1" ht="16">
       <c r="B9" s="117"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="132"/>
-      <c r="F9" s="132">
+      <c r="C9" s="129"/>
+      <c r="D9" s="129"/>
+      <c r="F9" s="129">
         <v>42</v>
       </c>
-      <c r="G9" s="132" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="134" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="132"/>
-      <c r="J9" s="132"/>
-      <c r="K9" s="132"/>
-      <c r="L9" s="132"/>
-      <c r="M9" s="132"/>
-      <c r="N9" s="132"/>
-      <c r="O9" s="132"/>
-      <c r="P9" s="132"/>
-      <c r="Q9" s="132"/>
-      <c r="R9" s="132"/>
-      <c r="S9" s="132"/>
-      <c r="T9" s="132"/>
-      <c r="U9" s="132"/>
-      <c r="V9" s="132"/>
-      <c r="W9" s="132"/>
-      <c r="X9" s="132"/>
-      <c r="Y9" s="132"/>
+      <c r="G9" s="129" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="131" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="129"/>
+      <c r="J9" s="129"/>
+      <c r="K9" s="129"/>
+      <c r="L9" s="129"/>
+      <c r="M9" s="129"/>
+      <c r="N9" s="129"/>
+      <c r="O9" s="129"/>
+      <c r="P9" s="129"/>
+      <c r="Q9" s="129"/>
+      <c r="R9" s="129"/>
+      <c r="S9" s="129"/>
+      <c r="T9" s="129"/>
+      <c r="U9" s="129"/>
+      <c r="V9" s="129"/>
+      <c r="W9" s="129"/>
+      <c r="X9" s="129"/>
+      <c r="Y9" s="129"/>
     </row>
     <row r="10" spans="2:25" customFormat="1" ht="16">
       <c r="B10" s="117"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
-      <c r="F10" s="132">
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="F10" s="129">
         <f>F8/1000</f>
         <v>0.82</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" s="134" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" s="132"/>
-      <c r="J10" s="132"/>
-      <c r="K10" s="132"/>
-      <c r="L10" s="132"/>
-      <c r="M10" s="132"/>
-      <c r="N10" s="132"/>
-      <c r="O10" s="132"/>
-      <c r="P10" s="132"/>
-      <c r="Q10" s="132"/>
-      <c r="R10" s="132"/>
-      <c r="S10" s="132"/>
-      <c r="T10" s="132"/>
-      <c r="U10" s="132"/>
-      <c r="V10" s="132"/>
-      <c r="W10" s="132"/>
-      <c r="X10" s="132"/>
-      <c r="Y10" s="132"/>
+        <v>62</v>
+      </c>
+      <c r="H10" s="131" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="129"/>
+      <c r="J10" s="129"/>
+      <c r="K10" s="129"/>
+      <c r="L10" s="129"/>
+      <c r="M10" s="129"/>
+      <c r="N10" s="129"/>
+      <c r="O10" s="129"/>
+      <c r="P10" s="129"/>
+      <c r="Q10" s="129"/>
+      <c r="R10" s="129"/>
+      <c r="S10" s="129"/>
+      <c r="T10" s="129"/>
+      <c r="U10" s="129"/>
+      <c r="V10" s="129"/>
+      <c r="W10" s="129"/>
+      <c r="X10" s="129"/>
+      <c r="Y10" s="129"/>
     </row>
     <row r="11" spans="2:25" customFormat="1" ht="16">
       <c r="B11" s="117"/>
-      <c r="C11" s="132"/>
-      <c r="D11" s="132"/>
-      <c r="F11" s="132">
+      <c r="C11" s="129"/>
+      <c r="D11" s="129"/>
+      <c r="F11" s="129">
         <f>F9*F10</f>
         <v>34.44</v>
       </c>
-      <c r="G11" s="132" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="134" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" s="132"/>
-      <c r="J11" s="132"/>
-      <c r="K11" s="132"/>
-      <c r="L11" s="132"/>
-      <c r="M11" s="132"/>
-      <c r="N11" s="132"/>
-      <c r="O11" s="132"/>
-      <c r="P11" s="132"/>
-      <c r="Q11" s="132"/>
-      <c r="R11" s="132"/>
-      <c r="S11" s="132"/>
-      <c r="T11" s="132"/>
-      <c r="U11" s="132"/>
-      <c r="V11" s="132"/>
-      <c r="W11" s="132"/>
-      <c r="X11" s="132"/>
-      <c r="Y11" s="132"/>
+      <c r="G11" s="129" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="131" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="129"/>
+      <c r="J11" s="129"/>
+      <c r="K11" s="129"/>
+      <c r="L11" s="129"/>
+      <c r="M11" s="129"/>
+      <c r="N11" s="129"/>
+      <c r="O11" s="129"/>
+      <c r="P11" s="129"/>
+      <c r="Q11" s="129"/>
+      <c r="R11" s="129"/>
+      <c r="S11" s="129"/>
+      <c r="T11" s="129"/>
+      <c r="U11" s="129"/>
+      <c r="V11" s="129"/>
+      <c r="W11" s="129"/>
+      <c r="X11" s="129"/>
+      <c r="Y11" s="129"/>
     </row>
     <row r="12" spans="2:25" customFormat="1" ht="16">
       <c r="B12" s="117"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132">
+      <c r="C12" s="129"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129">
         <v>7.5499999999999998E-2</v>
       </c>
-      <c r="G12" s="132" t="s">
-        <v>80</v>
-      </c>
-      <c r="H12" s="132" t="s">
-        <v>81</v>
-      </c>
-      <c r="I12" s="132"/>
-      <c r="J12" s="132"/>
-      <c r="K12" s="132"/>
-      <c r="L12" s="132"/>
-      <c r="M12" s="132"/>
-      <c r="N12" s="132"/>
-      <c r="O12" s="132"/>
-      <c r="P12" s="132"/>
-      <c r="Q12" s="132"/>
-      <c r="R12" s="132"/>
-      <c r="S12" s="132"/>
-      <c r="T12" s="132"/>
-      <c r="U12" s="132"/>
-      <c r="V12" s="132"/>
-      <c r="W12" s="132"/>
-      <c r="X12" s="132"/>
-      <c r="Y12" s="132"/>
+      <c r="G12" s="129" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="129" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="129"/>
+      <c r="J12" s="129"/>
+      <c r="K12" s="129"/>
+      <c r="L12" s="129"/>
+      <c r="M12" s="129"/>
+      <c r="N12" s="129"/>
+      <c r="O12" s="129"/>
+      <c r="P12" s="129"/>
+      <c r="Q12" s="129"/>
+      <c r="R12" s="129"/>
+      <c r="S12" s="129"/>
+      <c r="T12" s="129"/>
+      <c r="U12" s="129"/>
+      <c r="V12" s="129"/>
+      <c r="W12" s="129"/>
+      <c r="X12" s="129"/>
+      <c r="Y12" s="129"/>
     </row>
     <row r="13" spans="2:25" customFormat="1" ht="16">
       <c r="B13" s="117"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="132"/>
-      <c r="H13" s="132"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="132"/>
-      <c r="K13" s="132"/>
-      <c r="L13" s="132"/>
-      <c r="M13" s="132"/>
-      <c r="N13" s="132"/>
-      <c r="O13" s="132"/>
-      <c r="P13" s="132"/>
-      <c r="Q13" s="132"/>
-      <c r="R13" s="132"/>
-      <c r="S13" s="132"/>
-      <c r="T13" s="132"/>
-      <c r="U13" s="132"/>
-      <c r="V13" s="132"/>
-      <c r="W13" s="132"/>
-      <c r="X13" s="132"/>
-      <c r="Y13" s="132"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="129"/>
+      <c r="K13" s="129"/>
+      <c r="L13" s="129"/>
+      <c r="M13" s="129"/>
+      <c r="N13" s="129"/>
+      <c r="O13" s="129"/>
+      <c r="P13" s="129"/>
+      <c r="Q13" s="129"/>
+      <c r="R13" s="129"/>
+      <c r="S13" s="129"/>
+      <c r="T13" s="129"/>
+      <c r="U13" s="129"/>
+      <c r="V13" s="129"/>
+      <c r="W13" s="129"/>
+      <c r="X13" s="129"/>
+      <c r="Y13" s="129"/>
     </row>
     <row r="14" spans="2:25" customFormat="1" ht="16">
       <c r="B14" s="117"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="132"/>
-      <c r="K14" s="132"/>
-      <c r="L14" s="132"/>
-      <c r="M14" s="132"/>
-      <c r="N14" s="132"/>
-      <c r="O14" s="132"/>
-      <c r="P14" s="132"/>
-      <c r="Q14" s="132"/>
-      <c r="R14" s="132"/>
-      <c r="S14" s="132"/>
-      <c r="T14" s="132"/>
-      <c r="U14" s="132"/>
-      <c r="V14" s="132"/>
-      <c r="W14" s="132"/>
-      <c r="X14" s="132"/>
-      <c r="Y14" s="132"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="129"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="129"/>
+      <c r="M14" s="129"/>
+      <c r="N14" s="129"/>
+      <c r="O14" s="129"/>
+      <c r="P14" s="129"/>
+      <c r="Q14" s="129"/>
+      <c r="R14" s="129"/>
+      <c r="S14" s="129"/>
+      <c r="T14" s="129"/>
+      <c r="U14" s="129"/>
+      <c r="V14" s="129"/>
+      <c r="W14" s="129"/>
+      <c r="X14" s="129"/>
+      <c r="Y14" s="129"/>
     </row>
     <row r="15" spans="2:25" customFormat="1" ht="16">
       <c r="B15" s="117"/>
-      <c r="C15" s="132"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="132"/>
-      <c r="G15" s="132"/>
-      <c r="H15" s="132"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="132"/>
-      <c r="K15" s="132"/>
-      <c r="L15" s="132"/>
-      <c r="M15" s="132"/>
-      <c r="N15" s="132"/>
-      <c r="O15" s="132"/>
-      <c r="P15" s="132"/>
-      <c r="Q15" s="132"/>
-      <c r="R15" s="132"/>
-      <c r="S15" s="132"/>
-      <c r="T15" s="132"/>
-      <c r="U15" s="132"/>
-      <c r="V15" s="132"/>
-      <c r="W15" s="132"/>
-      <c r="X15" s="132"/>
-      <c r="Y15" s="132"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="129"/>
+      <c r="K15" s="129"/>
+      <c r="L15" s="129"/>
+      <c r="M15" s="129"/>
+      <c r="N15" s="129"/>
+      <c r="O15" s="129"/>
+      <c r="P15" s="129"/>
+      <c r="Q15" s="129"/>
+      <c r="R15" s="129"/>
+      <c r="S15" s="129"/>
+      <c r="T15" s="129"/>
+      <c r="U15" s="129"/>
+      <c r="V15" s="129"/>
+      <c r="W15" s="129"/>
+      <c r="X15" s="129"/>
+      <c r="Y15" s="129"/>
     </row>
     <row r="16" spans="2:25" customFormat="1" ht="16">
       <c r="B16" s="117"/>
-      <c r="C16" s="132"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="132"/>
-      <c r="H16" s="132"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="132"/>
-      <c r="K16" s="132"/>
-      <c r="L16" s="132"/>
-      <c r="M16" s="132"/>
-      <c r="N16" s="132"/>
-      <c r="O16" s="132"/>
-      <c r="P16" s="132"/>
-      <c r="Q16" s="132"/>
-      <c r="R16" s="132"/>
-      <c r="S16" s="132"/>
-      <c r="T16" s="132"/>
-      <c r="U16" s="132"/>
-      <c r="V16" s="132"/>
-      <c r="W16" s="132"/>
-      <c r="X16" s="132"/>
-      <c r="Y16" s="132"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="129"/>
+      <c r="K16" s="129"/>
+      <c r="L16" s="129"/>
+      <c r="M16" s="129"/>
+      <c r="N16" s="129"/>
+      <c r="O16" s="129"/>
+      <c r="P16" s="129"/>
+      <c r="Q16" s="129"/>
+      <c r="R16" s="129"/>
+      <c r="S16" s="129"/>
+      <c r="T16" s="129"/>
+      <c r="U16" s="129"/>
+      <c r="V16" s="129"/>
+      <c r="W16" s="129"/>
+      <c r="X16" s="129"/>
+      <c r="Y16" s="129"/>
     </row>
     <row r="17" spans="2:25" customFormat="1" ht="16">
       <c r="B17" s="117"/>
-      <c r="C17" s="132"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="132"/>
-      <c r="H17" s="132"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="132"/>
-      <c r="K17" s="132"/>
-      <c r="L17" s="132"/>
-      <c r="M17" s="132"/>
-      <c r="N17" s="132"/>
-      <c r="O17" s="132"/>
-      <c r="P17" s="132"/>
-      <c r="Q17" s="132"/>
-      <c r="R17" s="132"/>
-      <c r="S17" s="132"/>
-      <c r="T17" s="132"/>
-      <c r="U17" s="132"/>
-      <c r="V17" s="132"/>
-      <c r="W17" s="132"/>
-      <c r="X17" s="132"/>
-      <c r="Y17" s="132"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="129"/>
+      <c r="K17" s="129"/>
+      <c r="L17" s="129"/>
+      <c r="M17" s="129"/>
+      <c r="N17" s="129"/>
+      <c r="O17" s="129"/>
+      <c r="P17" s="129"/>
+      <c r="Q17" s="129"/>
+      <c r="R17" s="129"/>
+      <c r="S17" s="129"/>
+      <c r="T17" s="129"/>
+      <c r="U17" s="129"/>
+      <c r="V17" s="129"/>
+      <c r="W17" s="129"/>
+      <c r="X17" s="129"/>
+      <c r="Y17" s="129"/>
     </row>
     <row r="18" spans="2:25" customFormat="1" ht="16">
       <c r="B18" s="117"/>
-      <c r="C18" s="132"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="132"/>
-      <c r="H18" s="132"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="132"/>
-      <c r="K18" s="132"/>
-      <c r="L18" s="132"/>
-      <c r="M18" s="132"/>
-      <c r="N18" s="132"/>
-      <c r="O18" s="132"/>
-      <c r="P18" s="132"/>
-      <c r="Q18" s="132"/>
-      <c r="R18" s="132"/>
-      <c r="S18" s="132"/>
-      <c r="T18" s="132"/>
-      <c r="U18" s="132"/>
-      <c r="V18" s="132"/>
-      <c r="W18" s="132"/>
-      <c r="X18" s="132"/>
-      <c r="Y18" s="132"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="129"/>
+      <c r="G18" s="129"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="129"/>
+      <c r="J18" s="129"/>
+      <c r="K18" s="129"/>
+      <c r="L18" s="129"/>
+      <c r="M18" s="129"/>
+      <c r="N18" s="129"/>
+      <c r="O18" s="129"/>
+      <c r="P18" s="129"/>
+      <c r="Q18" s="129"/>
+      <c r="R18" s="129"/>
+      <c r="S18" s="129"/>
+      <c r="T18" s="129"/>
+      <c r="U18" s="129"/>
+      <c r="V18" s="129"/>
+      <c r="W18" s="129"/>
+      <c r="X18" s="129"/>
+      <c r="Y18" s="129"/>
     </row>
     <row r="19" spans="2:25" customFormat="1" ht="16">
       <c r="B19" s="117"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="132"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="132"/>
-      <c r="K19" s="132"/>
-      <c r="L19" s="132"/>
-      <c r="M19" s="132"/>
-      <c r="N19" s="132"/>
-      <c r="O19" s="132"/>
-      <c r="P19" s="132"/>
-      <c r="Q19" s="132"/>
-      <c r="R19" s="132"/>
-      <c r="S19" s="132"/>
-      <c r="T19" s="132"/>
-      <c r="U19" s="132"/>
-      <c r="V19" s="132"/>
-      <c r="W19" s="132"/>
-      <c r="X19" s="132"/>
-      <c r="Y19" s="132"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="129"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="129"/>
+      <c r="H19" s="129"/>
+      <c r="I19" s="129"/>
+      <c r="J19" s="129"/>
+      <c r="K19" s="129"/>
+      <c r="L19" s="129"/>
+      <c r="M19" s="129"/>
+      <c r="N19" s="129"/>
+      <c r="O19" s="129"/>
+      <c r="P19" s="129"/>
+      <c r="Q19" s="129"/>
+      <c r="R19" s="129"/>
+      <c r="S19" s="129"/>
+      <c r="T19" s="129"/>
+      <c r="U19" s="129"/>
+      <c r="V19" s="129"/>
+      <c r="W19" s="129"/>
+      <c r="X19" s="129"/>
+      <c r="Y19" s="129"/>
     </row>
     <row r="20" spans="2:25" customFormat="1" ht="16">
       <c r="B20" s="117"/>
-      <c r="C20" s="132"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="132"/>
-      <c r="F20" s="132"/>
-      <c r="G20" s="132"/>
-      <c r="H20" s="132"/>
-      <c r="I20" s="132"/>
-      <c r="J20" s="132"/>
-      <c r="K20" s="132"/>
-      <c r="L20" s="132"/>
-      <c r="M20" s="132"/>
-      <c r="N20" s="132"/>
-      <c r="O20" s="132"/>
-      <c r="P20" s="132"/>
-      <c r="Q20" s="132"/>
-      <c r="R20" s="132"/>
-      <c r="S20" s="132"/>
-      <c r="T20" s="132"/>
-      <c r="U20" s="132"/>
-      <c r="V20" s="132"/>
-      <c r="W20" s="132"/>
-      <c r="X20" s="132"/>
-      <c r="Y20" s="132"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="129"/>
+      <c r="F20" s="129"/>
+      <c r="G20" s="129"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="129"/>
+      <c r="J20" s="129"/>
+      <c r="K20" s="129"/>
+      <c r="L20" s="129"/>
+      <c r="M20" s="129"/>
+      <c r="N20" s="129"/>
+      <c r="O20" s="129"/>
+      <c r="P20" s="129"/>
+      <c r="Q20" s="129"/>
+      <c r="R20" s="129"/>
+      <c r="S20" s="129"/>
+      <c r="T20" s="129"/>
+      <c r="U20" s="129"/>
+      <c r="V20" s="129"/>
+      <c r="W20" s="129"/>
+      <c r="X20" s="129"/>
+      <c r="Y20" s="129"/>
     </row>
     <row r="21" spans="2:25" customFormat="1" ht="16">
       <c r="B21" s="117"/>
-      <c r="C21" s="132"/>
-      <c r="D21" s="132"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="132"/>
-      <c r="K21" s="132"/>
-      <c r="L21" s="132"/>
-      <c r="M21" s="132"/>
-      <c r="N21" s="132"/>
-      <c r="O21" s="132"/>
-      <c r="P21" s="132"/>
-      <c r="Q21" s="132"/>
-      <c r="R21" s="132"/>
-      <c r="S21" s="132"/>
-      <c r="T21" s="132"/>
-      <c r="U21" s="132"/>
-      <c r="V21" s="132"/>
-      <c r="W21" s="132"/>
-      <c r="X21" s="132"/>
-      <c r="Y21" s="132"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="129"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="129"/>
+      <c r="H21" s="129"/>
+      <c r="I21" s="129"/>
+      <c r="J21" s="129"/>
+      <c r="K21" s="129"/>
+      <c r="L21" s="129"/>
+      <c r="M21" s="129"/>
+      <c r="N21" s="129"/>
+      <c r="O21" s="129"/>
+      <c r="P21" s="129"/>
+      <c r="Q21" s="129"/>
+      <c r="R21" s="129"/>
+      <c r="S21" s="129"/>
+      <c r="T21" s="129"/>
+      <c r="U21" s="129"/>
+      <c r="V21" s="129"/>
+      <c r="W21" s="129"/>
+      <c r="X21" s="129"/>
+      <c r="Y21" s="129"/>
     </row>
     <row r="22" spans="2:25" customFormat="1" ht="16">
       <c r="B22" s="117"/>
-      <c r="C22" s="132"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="132"/>
-      <c r="G22" s="132"/>
-      <c r="H22" s="132"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="132"/>
-      <c r="K22" s="132"/>
-      <c r="L22" s="132"/>
-      <c r="M22" s="132"/>
-      <c r="N22" s="132"/>
-      <c r="O22" s="132"/>
-      <c r="P22" s="132"/>
-      <c r="Q22" s="132"/>
-      <c r="R22" s="132"/>
-      <c r="S22" s="132"/>
-      <c r="T22" s="132"/>
-      <c r="U22" s="132"/>
-      <c r="V22" s="132"/>
-      <c r="W22" s="132"/>
-      <c r="X22" s="132"/>
-      <c r="Y22" s="132"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="129"/>
+      <c r="K22" s="129"/>
+      <c r="L22" s="129"/>
+      <c r="M22" s="129"/>
+      <c r="N22" s="129"/>
+      <c r="O22" s="129"/>
+      <c r="P22" s="129"/>
+      <c r="Q22" s="129"/>
+      <c r="R22" s="129"/>
+      <c r="S22" s="129"/>
+      <c r="T22" s="129"/>
+      <c r="U22" s="129"/>
+      <c r="V22" s="129"/>
+      <c r="W22" s="129"/>
+      <c r="X22" s="129"/>
+      <c r="Y22" s="129"/>
     </row>
     <row r="23" spans="2:25" customFormat="1" ht="16">
       <c r="B23" s="117"/>
-      <c r="C23" s="132"/>
-      <c r="D23" s="132"/>
-      <c r="E23" s="132"/>
-      <c r="F23" s="132"/>
-      <c r="G23" s="132"/>
-      <c r="H23" s="132"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="132"/>
-      <c r="K23" s="132"/>
-      <c r="L23" s="132"/>
-      <c r="M23" s="132"/>
-      <c r="N23" s="132"/>
-      <c r="O23" s="132"/>
-      <c r="P23" s="132"/>
-      <c r="Q23" s="132"/>
-      <c r="R23" s="132"/>
-      <c r="S23" s="132"/>
-      <c r="T23" s="132"/>
-      <c r="U23" s="132"/>
-      <c r="V23" s="132"/>
-      <c r="W23" s="132"/>
-      <c r="X23" s="132"/>
-      <c r="Y23" s="132"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="129"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="129"/>
+      <c r="H23" s="129"/>
+      <c r="I23" s="129"/>
+      <c r="J23" s="129"/>
+      <c r="K23" s="129"/>
+      <c r="L23" s="129"/>
+      <c r="M23" s="129"/>
+      <c r="N23" s="129"/>
+      <c r="O23" s="129"/>
+      <c r="P23" s="129"/>
+      <c r="Q23" s="129"/>
+      <c r="R23" s="129"/>
+      <c r="S23" s="129"/>
+      <c r="T23" s="129"/>
+      <c r="U23" s="129"/>
+      <c r="V23" s="129"/>
+      <c r="W23" s="129"/>
+      <c r="X23" s="129"/>
+      <c r="Y23" s="129"/>
     </row>
     <row r="24" spans="2:25" customFormat="1" ht="16">
       <c r="B24" s="117"/>
-      <c r="C24" s="132"/>
-      <c r="D24" s="132"/>
-      <c r="E24" s="132"/>
-      <c r="F24" s="132"/>
-      <c r="G24" s="132"/>
-      <c r="H24" s="132"/>
-      <c r="I24" s="132"/>
-      <c r="J24" s="132"/>
-      <c r="K24" s="132"/>
-      <c r="L24" s="132"/>
-      <c r="M24" s="132"/>
-      <c r="N24" s="132"/>
-      <c r="O24" s="132"/>
-      <c r="P24" s="132"/>
-      <c r="Q24" s="132"/>
-      <c r="R24" s="132"/>
-      <c r="S24" s="132"/>
-      <c r="T24" s="132"/>
-      <c r="U24" s="132"/>
-      <c r="V24" s="132"/>
-      <c r="W24" s="132"/>
-      <c r="X24" s="132"/>
-      <c r="Y24" s="132"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="129"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="129"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="129"/>
+      <c r="J24" s="129"/>
+      <c r="K24" s="129"/>
+      <c r="L24" s="129"/>
+      <c r="M24" s="129"/>
+      <c r="N24" s="129"/>
+      <c r="O24" s="129"/>
+      <c r="P24" s="129"/>
+      <c r="Q24" s="129"/>
+      <c r="R24" s="129"/>
+      <c r="S24" s="129"/>
+      <c r="T24" s="129"/>
+      <c r="U24" s="129"/>
+      <c r="V24" s="129"/>
+      <c r="W24" s="129"/>
+      <c r="X24" s="129"/>
+      <c r="Y24" s="129"/>
     </row>
     <row r="25" spans="2:25" customFormat="1" ht="16">
       <c r="B25" s="117"/>
-      <c r="C25" s="132"/>
-      <c r="D25" s="132"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="132"/>
-      <c r="H25" s="132"/>
-      <c r="I25" s="132"/>
-      <c r="J25" s="132"/>
-      <c r="K25" s="132"/>
-      <c r="L25" s="132"/>
-      <c r="M25" s="132"/>
-      <c r="N25" s="132"/>
-      <c r="O25" s="132"/>
-      <c r="P25" s="132"/>
-      <c r="Q25" s="132"/>
-      <c r="R25" s="132"/>
-      <c r="S25" s="132"/>
-      <c r="T25" s="132"/>
-      <c r="U25" s="132"/>
-      <c r="V25" s="132"/>
-      <c r="W25" s="132"/>
-      <c r="X25" s="132"/>
-      <c r="Y25" s="132"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="129"/>
+      <c r="I25" s="129"/>
+      <c r="J25" s="129"/>
+      <c r="K25" s="129"/>
+      <c r="L25" s="129"/>
+      <c r="M25" s="129"/>
+      <c r="N25" s="129"/>
+      <c r="O25" s="129"/>
+      <c r="P25" s="129"/>
+      <c r="Q25" s="129"/>
+      <c r="R25" s="129"/>
+      <c r="S25" s="129"/>
+      <c r="T25" s="129"/>
+      <c r="U25" s="129"/>
+      <c r="V25" s="129"/>
+      <c r="W25" s="129"/>
+      <c r="X25" s="129"/>
+      <c r="Y25" s="129"/>
     </row>
     <row r="26" spans="2:25" customFormat="1" ht="16">
       <c r="B26" s="117"/>
-      <c r="C26" s="132"/>
-      <c r="D26" s="132"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="132"/>
-      <c r="G26" s="132"/>
-      <c r="H26" s="132"/>
-      <c r="I26" s="132"/>
-      <c r="J26" s="132"/>
-      <c r="K26" s="132"/>
-      <c r="L26" s="132"/>
-      <c r="M26" s="132"/>
-      <c r="N26" s="132"/>
-      <c r="O26" s="132"/>
-      <c r="P26" s="132"/>
-      <c r="Q26" s="132"/>
-      <c r="R26" s="132"/>
-      <c r="S26" s="132"/>
-      <c r="T26" s="132"/>
-      <c r="U26" s="132"/>
-      <c r="V26" s="132"/>
-      <c r="W26" s="132"/>
-      <c r="X26" s="132"/>
-      <c r="Y26" s="132"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="129"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="129"/>
+      <c r="G26" s="129"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="129"/>
+      <c r="J26" s="129"/>
+      <c r="K26" s="129"/>
+      <c r="L26" s="129"/>
+      <c r="M26" s="129"/>
+      <c r="N26" s="129"/>
+      <c r="O26" s="129"/>
+      <c r="P26" s="129"/>
+      <c r="Q26" s="129"/>
+      <c r="R26" s="129"/>
+      <c r="S26" s="129"/>
+      <c r="T26" s="129"/>
+      <c r="U26" s="129"/>
+      <c r="V26" s="129"/>
+      <c r="W26" s="129"/>
+      <c r="X26" s="129"/>
+      <c r="Y26" s="129"/>
     </row>
     <row r="27" spans="2:25" customFormat="1" ht="16">
       <c r="B27" s="117"/>
-      <c r="C27" s="132"/>
-      <c r="D27" s="132"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="132"/>
-      <c r="H27" s="132"/>
-      <c r="I27" s="132"/>
-      <c r="J27" s="132"/>
-      <c r="K27" s="132"/>
-      <c r="L27" s="132"/>
-      <c r="M27" s="132"/>
-      <c r="N27" s="132"/>
-      <c r="O27" s="132"/>
-      <c r="P27" s="132"/>
-      <c r="Q27" s="132"/>
-      <c r="R27" s="132"/>
-      <c r="S27" s="132"/>
-      <c r="T27" s="132"/>
-      <c r="U27" s="132"/>
-      <c r="V27" s="132"/>
-      <c r="W27" s="132"/>
-      <c r="X27" s="132"/>
-      <c r="Y27" s="132"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="129"/>
+      <c r="E27" s="129"/>
+      <c r="F27" s="129"/>
+      <c r="G27" s="129"/>
+      <c r="H27" s="129"/>
+      <c r="I27" s="129"/>
+      <c r="J27" s="129"/>
+      <c r="K27" s="129"/>
+      <c r="L27" s="129"/>
+      <c r="M27" s="129"/>
+      <c r="N27" s="129"/>
+      <c r="O27" s="129"/>
+      <c r="P27" s="129"/>
+      <c r="Q27" s="129"/>
+      <c r="R27" s="129"/>
+      <c r="S27" s="129"/>
+      <c r="T27" s="129"/>
+      <c r="U27" s="129"/>
+      <c r="V27" s="129"/>
+      <c r="W27" s="129"/>
+      <c r="X27" s="129"/>
+      <c r="Y27" s="129"/>
     </row>
     <row r="28" spans="2:25" customFormat="1" ht="16">
       <c r="B28" s="117"/>
-      <c r="C28" s="132"/>
-      <c r="D28" s="132"/>
-      <c r="E28" s="132"/>
-      <c r="F28" s="132"/>
-      <c r="G28" s="132"/>
-      <c r="H28" s="132"/>
-      <c r="I28" s="132"/>
-      <c r="J28" s="132"/>
-      <c r="K28" s="132"/>
-      <c r="L28" s="132"/>
-      <c r="M28" s="132"/>
-      <c r="N28" s="132"/>
-      <c r="O28" s="132"/>
-      <c r="P28" s="132"/>
-      <c r="Q28" s="132"/>
-      <c r="R28" s="132"/>
-      <c r="S28" s="132"/>
-      <c r="T28" s="132"/>
-      <c r="U28" s="132"/>
-      <c r="V28" s="132"/>
-      <c r="W28" s="132"/>
-      <c r="X28" s="132"/>
-      <c r="Y28" s="132"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="129"/>
+      <c r="E28" s="129"/>
+      <c r="F28" s="129"/>
+      <c r="G28" s="129"/>
+      <c r="H28" s="129"/>
+      <c r="I28" s="129"/>
+      <c r="J28" s="129"/>
+      <c r="K28" s="129"/>
+      <c r="L28" s="129"/>
+      <c r="M28" s="129"/>
+      <c r="N28" s="129"/>
+      <c r="O28" s="129"/>
+      <c r="P28" s="129"/>
+      <c r="Q28" s="129"/>
+      <c r="R28" s="129"/>
+      <c r="S28" s="129"/>
+      <c r="T28" s="129"/>
+      <c r="U28" s="129"/>
+      <c r="V28" s="129"/>
+      <c r="W28" s="129"/>
+      <c r="X28" s="129"/>
+      <c r="Y28" s="129"/>
     </row>
     <row r="29" spans="2:25" customFormat="1" ht="16">
       <c r="B29" s="117"/>
@@ -4584,7 +5036,7 @@
         <v>25</v>
       </c>
       <c r="D62" s="120" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E62" s="120"/>
       <c r="F62" s="120" t="s">
@@ -4608,109 +5060,109 @@
     </row>
     <row r="63" spans="1:25" customFormat="1" ht="16">
       <c r="B63" s="117"/>
-      <c r="C63" s="135"/>
-      <c r="D63" s="132"/>
-      <c r="E63" s="132"/>
-      <c r="F63" s="132"/>
-      <c r="G63" s="132"/>
-      <c r="H63" s="132"/>
-      <c r="I63" s="132"/>
-      <c r="J63" s="132"/>
-      <c r="K63" s="132"/>
-      <c r="L63" s="132"/>
-      <c r="M63" s="132"/>
-      <c r="N63" s="132"/>
-      <c r="O63" s="132"/>
-      <c r="P63" s="132"/>
-      <c r="Q63" s="132"/>
-      <c r="R63" s="132"/>
-      <c r="S63" s="132"/>
-      <c r="T63" s="132"/>
-      <c r="U63" s="132"/>
-      <c r="V63" s="132"/>
-      <c r="W63" s="132"/>
-      <c r="X63" s="132"/>
-      <c r="Y63" s="132"/>
+      <c r="C63" s="132"/>
+      <c r="D63" s="129"/>
+      <c r="E63" s="129"/>
+      <c r="F63" s="129"/>
+      <c r="G63" s="129"/>
+      <c r="H63" s="129"/>
+      <c r="I63" s="129"/>
+      <c r="J63" s="129"/>
+      <c r="K63" s="129"/>
+      <c r="L63" s="129"/>
+      <c r="M63" s="129"/>
+      <c r="N63" s="129"/>
+      <c r="O63" s="129"/>
+      <c r="P63" s="129"/>
+      <c r="Q63" s="129"/>
+      <c r="R63" s="129"/>
+      <c r="S63" s="129"/>
+      <c r="T63" s="129"/>
+      <c r="U63" s="129"/>
+      <c r="V63" s="129"/>
+      <c r="W63" s="129"/>
+      <c r="X63" s="129"/>
+      <c r="Y63" s="129"/>
     </row>
     <row r="64" spans="1:25" customFormat="1" ht="17">
       <c r="B64" s="117"/>
-      <c r="C64" s="141" t="s">
-        <v>74</v>
-      </c>
-      <c r="D64" s="132"/>
-      <c r="E64" s="132"/>
-      <c r="F64" s="132"/>
-      <c r="G64" s="132"/>
-      <c r="H64" s="132"/>
-      <c r="I64" s="132"/>
-      <c r="J64" s="132"/>
-      <c r="K64" s="132"/>
-      <c r="L64" s="132"/>
-      <c r="M64" s="132"/>
-      <c r="N64" s="132"/>
-      <c r="O64" s="132"/>
-      <c r="P64" s="132"/>
-      <c r="Q64" s="132"/>
-      <c r="R64" s="132"/>
-      <c r="S64" s="132"/>
-      <c r="T64" s="132"/>
-      <c r="U64" s="132"/>
-      <c r="V64" s="132"/>
-      <c r="W64" s="132"/>
-      <c r="X64" s="132"/>
-      <c r="Y64" s="132"/>
+      <c r="C64" s="138" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64" s="129"/>
+      <c r="E64" s="129"/>
+      <c r="F64" s="129"/>
+      <c r="G64" s="129"/>
+      <c r="H64" s="129"/>
+      <c r="I64" s="129"/>
+      <c r="J64" s="129"/>
+      <c r="K64" s="129"/>
+      <c r="L64" s="129"/>
+      <c r="M64" s="129"/>
+      <c r="N64" s="129"/>
+      <c r="O64" s="129"/>
+      <c r="P64" s="129"/>
+      <c r="Q64" s="129"/>
+      <c r="R64" s="129"/>
+      <c r="S64" s="129"/>
+      <c r="T64" s="129"/>
+      <c r="U64" s="129"/>
+      <c r="V64" s="129"/>
+      <c r="W64" s="129"/>
+      <c r="X64" s="129"/>
+      <c r="Y64" s="129"/>
     </row>
     <row r="65" spans="2:25" customFormat="1" ht="16">
       <c r="B65" s="117"/>
-      <c r="C65" s="132"/>
-      <c r="D65" s="132"/>
-      <c r="E65" s="132"/>
-      <c r="F65" s="132"/>
-      <c r="G65" s="132"/>
-      <c r="H65" s="132"/>
-      <c r="I65" s="132"/>
-      <c r="J65" s="132"/>
-      <c r="K65" s="132"/>
-      <c r="L65" s="132"/>
-      <c r="M65" s="132"/>
-      <c r="N65" s="132"/>
-      <c r="O65" s="132"/>
-      <c r="P65" s="132"/>
-      <c r="Q65" s="132"/>
-      <c r="R65" s="132"/>
-      <c r="S65" s="132"/>
-      <c r="T65" s="132"/>
-      <c r="U65" s="132"/>
-      <c r="V65" s="132"/>
-      <c r="W65" s="132"/>
-      <c r="X65" s="132"/>
-      <c r="Y65" s="132"/>
+      <c r="C65" s="129"/>
+      <c r="D65" s="129"/>
+      <c r="E65" s="129"/>
+      <c r="F65" s="129"/>
+      <c r="G65" s="129"/>
+      <c r="H65" s="129"/>
+      <c r="I65" s="129"/>
+      <c r="J65" s="129"/>
+      <c r="K65" s="129"/>
+      <c r="L65" s="129"/>
+      <c r="M65" s="129"/>
+      <c r="N65" s="129"/>
+      <c r="O65" s="129"/>
+      <c r="P65" s="129"/>
+      <c r="Q65" s="129"/>
+      <c r="R65" s="129"/>
+      <c r="S65" s="129"/>
+      <c r="T65" s="129"/>
+      <c r="U65" s="129"/>
+      <c r="V65" s="129"/>
+      <c r="W65" s="129"/>
+      <c r="X65" s="129"/>
+      <c r="Y65" s="129"/>
     </row>
     <row r="66" spans="2:25" customFormat="1" ht="16">
       <c r="B66" s="117"/>
-      <c r="C66" s="132"/>
-      <c r="D66" s="132"/>
-      <c r="E66" s="132"/>
-      <c r="F66" s="132"/>
-      <c r="G66" s="132"/>
-      <c r="H66" s="132"/>
-      <c r="I66" s="132"/>
-      <c r="J66" s="132"/>
-      <c r="K66" s="132"/>
-      <c r="L66" s="132"/>
-      <c r="M66" s="132"/>
-      <c r="N66" s="132"/>
-      <c r="O66" s="132"/>
-      <c r="P66" s="132"/>
-      <c r="Q66" s="132"/>
-      <c r="R66" s="132"/>
-      <c r="S66" s="132"/>
-      <c r="T66" s="132"/>
-      <c r="U66" s="132"/>
-      <c r="V66" s="132"/>
-      <c r="W66" s="132"/>
-      <c r="X66" s="132"/>
-      <c r="Y66" s="132"/>
+      <c r="C66" s="129"/>
+      <c r="D66" s="129"/>
+      <c r="E66" s="129"/>
+      <c r="F66" s="129"/>
+      <c r="G66" s="129"/>
+      <c r="H66" s="129"/>
+      <c r="I66" s="129"/>
+      <c r="J66" s="129"/>
+      <c r="K66" s="129"/>
+      <c r="L66" s="129"/>
+      <c r="M66" s="129"/>
+      <c r="N66" s="129"/>
+      <c r="O66" s="129"/>
+      <c r="P66" s="129"/>
+      <c r="Q66" s="129"/>
+      <c r="R66" s="129"/>
+      <c r="S66" s="129"/>
+      <c r="T66" s="129"/>
+      <c r="U66" s="129"/>
+      <c r="V66" s="129"/>
+      <c r="W66" s="129"/>
+      <c r="X66" s="129"/>
+      <c r="Y66" s="129"/>
     </row>
     <row r="68" spans="2:25">
       <c r="D68" s="116">
@@ -4718,366 +5170,1009 @@
       </c>
     </row>
     <row r="73" spans="2:25">
-      <c r="E73" s="142" t="s">
-        <v>88</v>
+      <c r="E73" s="139" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="2:25">
-      <c r="E74" s="132" t="s">
+      <c r="E74" s="129" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" s="129"/>
+      <c r="G74" s="129"/>
+      <c r="H74" s="129">
+        <v>0</v>
+      </c>
+      <c r="I74" s="129" t="s">
+        <v>70</v>
+      </c>
+      <c r="J74" s="129"/>
+      <c r="K74" s="129" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25">
+      <c r="E75" s="129" t="s">
         <v>44</v>
       </c>
-      <c r="F74" s="132"/>
-      <c r="G74" s="132"/>
-      <c r="H74" s="132">
+      <c r="F75" s="129"/>
+      <c r="G75" s="129"/>
+      <c r="H75" s="129">
+        <v>4.83</v>
+      </c>
+      <c r="I75" s="129" t="s">
+        <v>70</v>
+      </c>
+      <c r="J75" s="129"/>
+      <c r="K75" s="129"/>
+    </row>
+    <row r="76" spans="2:25">
+      <c r="E76" s="129" t="s">
+        <v>47</v>
+      </c>
+      <c r="F76" s="129"/>
+      <c r="G76" s="129"/>
+      <c r="H76" s="129">
         <v>0</v>
       </c>
-      <c r="I74" s="132" t="s">
-        <v>77</v>
-      </c>
-      <c r="J74" s="132"/>
-      <c r="K74" s="132" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="75" spans="2:25">
-      <c r="E75" s="132" t="s">
+      <c r="I76" s="129" t="s">
+        <v>70</v>
+      </c>
+      <c r="J76" s="129"/>
+      <c r="K76" s="129"/>
+    </row>
+    <row r="77" spans="2:25">
+      <c r="D77" s="129"/>
+      <c r="E77" s="129" t="s">
+        <v>46</v>
+      </c>
+      <c r="F77" s="129"/>
+      <c r="G77" s="129"/>
+      <c r="H77" s="129">
+        <v>0.88</v>
+      </c>
+      <c r="I77" s="129" t="s">
+        <v>70</v>
+      </c>
+      <c r="J77" s="129"/>
+      <c r="K77" s="129"/>
+    </row>
+    <row r="78" spans="2:25">
+      <c r="D78" s="129"/>
+      <c r="E78" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="F78" s="129"/>
+      <c r="G78" s="129"/>
+      <c r="H78" s="129">
+        <v>75.5</v>
+      </c>
+      <c r="I78" s="129" t="s">
+        <v>70</v>
+      </c>
+      <c r="J78" s="129"/>
+      <c r="K78" s="129"/>
+    </row>
+    <row r="79" spans="2:25">
+      <c r="D79" s="129"/>
+      <c r="E79" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="F75" s="132"/>
-      <c r="G75" s="132"/>
-      <c r="H75" s="132">
-        <v>4.83</v>
-      </c>
-      <c r="I75" s="132" t="s">
-        <v>77</v>
-      </c>
-      <c r="J75" s="132"/>
-      <c r="K75" s="132"/>
-    </row>
-    <row r="76" spans="2:25">
-      <c r="E76" s="132" t="s">
-        <v>48</v>
-      </c>
-      <c r="F76" s="132"/>
-      <c r="G76" s="132"/>
-      <c r="H76" s="132">
+      <c r="F79" s="129"/>
+      <c r="G79" s="129"/>
+      <c r="H79" s="129">
         <v>0</v>
       </c>
-      <c r="I76" s="132" t="s">
-        <v>77</v>
-      </c>
-      <c r="J76" s="132"/>
-      <c r="K76" s="132"/>
-    </row>
-    <row r="77" spans="2:25">
-      <c r="D77" s="132"/>
-      <c r="E77" s="132" t="s">
-        <v>47</v>
-      </c>
-      <c r="F77" s="132"/>
-      <c r="G77" s="132"/>
-      <c r="H77" s="132">
-        <v>0.88</v>
-      </c>
-      <c r="I77" s="132" t="s">
-        <v>77</v>
-      </c>
-      <c r="J77" s="132"/>
-      <c r="K77" s="132"/>
-    </row>
-    <row r="78" spans="2:25">
-      <c r="D78" s="132"/>
-      <c r="E78" s="132" t="s">
-        <v>40</v>
-      </c>
-      <c r="F78" s="132"/>
-      <c r="G78" s="132"/>
-      <c r="H78" s="132">
-        <v>75.5</v>
-      </c>
-      <c r="I78" s="132" t="s">
-        <v>77</v>
-      </c>
-      <c r="J78" s="132"/>
-      <c r="K78" s="132"/>
-    </row>
-    <row r="79" spans="2:25">
-      <c r="D79" s="132"/>
-      <c r="E79" s="132" t="s">
-        <v>46</v>
-      </c>
-      <c r="F79" s="132"/>
-      <c r="G79" s="132"/>
-      <c r="H79" s="132">
-        <v>0</v>
-      </c>
-      <c r="I79" s="132" t="s">
-        <v>77</v>
-      </c>
-      <c r="J79" s="132"/>
-      <c r="K79" s="132" t="s">
-        <v>76</v>
+      <c r="I79" s="129" t="s">
+        <v>70</v>
+      </c>
+      <c r="J79" s="129"/>
+      <c r="K79" s="129" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="2:25">
-      <c r="D80" s="132"/>
-      <c r="E80" s="132"/>
-      <c r="F80" s="132"/>
-      <c r="G80" s="132"/>
-      <c r="H80" s="132"/>
-      <c r="I80" s="132"/>
-      <c r="J80" s="132"/>
+      <c r="D80" s="129"/>
+      <c r="E80" s="129"/>
+      <c r="F80" s="129"/>
+      <c r="G80" s="129"/>
+      <c r="H80" s="129"/>
+      <c r="I80" s="129"/>
+      <c r="J80" s="129"/>
     </row>
     <row r="81" spans="4:11">
-      <c r="D81" s="132"/>
-      <c r="E81" s="132"/>
-      <c r="F81" s="132"/>
-      <c r="G81" s="132"/>
-      <c r="H81" s="132"/>
-      <c r="I81" s="132"/>
-      <c r="J81" s="132"/>
+      <c r="D81" s="129"/>
+      <c r="E81" s="129"/>
+      <c r="F81" s="129"/>
+      <c r="G81" s="129"/>
+      <c r="H81" s="129"/>
+      <c r="I81" s="129"/>
+      <c r="J81" s="129"/>
     </row>
     <row r="82" spans="4:11">
-      <c r="D82" s="132"/>
-      <c r="E82" s="132" t="s">
-        <v>44</v>
-      </c>
-      <c r="F82" s="132"/>
-      <c r="G82" s="132"/>
-      <c r="H82" s="132">
+      <c r="D82" s="129"/>
+      <c r="E82" s="129" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" s="129"/>
+      <c r="G82" s="129"/>
+      <c r="H82" s="129">
         <f>H74/1000</f>
         <v>0</v>
       </c>
-      <c r="I82" s="132" t="s">
-        <v>77</v>
-      </c>
-      <c r="J82" s="132"/>
-      <c r="K82" s="132" t="s">
-        <v>76</v>
+      <c r="I82" s="129" t="s">
+        <v>70</v>
+      </c>
+      <c r="J82" s="129"/>
+      <c r="K82" s="129" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="83" spans="4:11">
-      <c r="E83" s="132" t="s">
-        <v>45</v>
-      </c>
-      <c r="F83" s="132"/>
-      <c r="G83" s="132"/>
-      <c r="H83" s="132">
+      <c r="E83" s="129" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" s="129"/>
+      <c r="G83" s="129"/>
+      <c r="H83" s="129">
         <f t="shared" ref="H83:H87" si="0">H75/1000</f>
         <v>4.8300000000000001E-3</v>
       </c>
-      <c r="I83" s="132" t="s">
-        <v>77</v>
-      </c>
-      <c r="J83" s="132"/>
-      <c r="K83" s="132"/>
+      <c r="I83" s="129" t="s">
+        <v>70</v>
+      </c>
+      <c r="J83" s="129"/>
+      <c r="K83" s="129"/>
     </row>
     <row r="84" spans="4:11">
-      <c r="E84" s="132" t="s">
-        <v>48</v>
-      </c>
-      <c r="F84" s="132"/>
-      <c r="G84" s="132"/>
-      <c r="H84" s="132">
+      <c r="E84" s="129" t="s">
+        <v>47</v>
+      </c>
+      <c r="F84" s="129"/>
+      <c r="G84" s="129"/>
+      <c r="H84" s="129">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I84" s="132" t="s">
-        <v>77</v>
-      </c>
-      <c r="J84" s="132"/>
-      <c r="K84" s="132"/>
+      <c r="I84" s="129" t="s">
+        <v>70</v>
+      </c>
+      <c r="J84" s="129"/>
+      <c r="K84" s="129"/>
     </row>
     <row r="85" spans="4:11">
-      <c r="E85" s="132" t="s">
-        <v>47</v>
-      </c>
-      <c r="F85" s="132"/>
-      <c r="G85" s="132"/>
-      <c r="H85" s="132">
+      <c r="E85" s="129" t="s">
+        <v>46</v>
+      </c>
+      <c r="F85" s="129"/>
+      <c r="G85" s="129"/>
+      <c r="H85" s="129">
         <f t="shared" si="0"/>
         <v>8.8000000000000003E-4</v>
       </c>
-      <c r="I85" s="132" t="s">
-        <v>77</v>
-      </c>
-      <c r="J85" s="132"/>
-      <c r="K85" s="132"/>
+      <c r="I85" s="129" t="s">
+        <v>70</v>
+      </c>
+      <c r="J85" s="129"/>
+      <c r="K85" s="129"/>
     </row>
     <row r="86" spans="4:11">
-      <c r="E86" s="132" t="s">
+      <c r="E86" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="F86" s="132"/>
-      <c r="G86" s="132"/>
-      <c r="H86" s="132">
+      <c r="F86" s="129"/>
+      <c r="G86" s="129"/>
+      <c r="H86" s="129">
         <f t="shared" si="0"/>
         <v>7.5499999999999998E-2</v>
       </c>
-      <c r="I86" s="132" t="s">
-        <v>77</v>
-      </c>
-      <c r="J86" s="132"/>
-      <c r="K86" s="132"/>
+      <c r="I86" s="129" t="s">
+        <v>70</v>
+      </c>
+      <c r="J86" s="129"/>
+      <c r="K86" s="129"/>
     </row>
     <row r="87" spans="4:11">
-      <c r="E87" s="132" t="s">
-        <v>46</v>
-      </c>
-      <c r="F87" s="132"/>
-      <c r="G87" s="132"/>
-      <c r="H87" s="132">
+      <c r="E87" s="129" t="s">
+        <v>45</v>
+      </c>
+      <c r="F87" s="129"/>
+      <c r="G87" s="129"/>
+      <c r="H87" s="129">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I87" s="132" t="s">
-        <v>77</v>
-      </c>
-      <c r="J87" s="132"/>
-      <c r="K87" s="132" t="s">
-        <v>76</v>
+      <c r="I87" s="129" t="s">
+        <v>70</v>
+      </c>
+      <c r="J87" s="129"/>
+      <c r="K87" s="129" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="90" spans="4:11">
-      <c r="E90" s="143"/>
-      <c r="F90" s="144"/>
-      <c r="G90" s="144"/>
-      <c r="H90" s="144"/>
-      <c r="I90" s="144"/>
-      <c r="J90" s="144"/>
-      <c r="K90" s="144"/>
+      <c r="E90" s="140"/>
+      <c r="F90" s="141"/>
+      <c r="G90" s="141"/>
+      <c r="H90" s="141"/>
+      <c r="I90" s="141"/>
+      <c r="J90" s="141"/>
+      <c r="K90" s="141"/>
     </row>
     <row r="91" spans="4:11">
-      <c r="E91" s="132"/>
-      <c r="F91" s="132"/>
-      <c r="G91" s="132"/>
-      <c r="H91" s="132"/>
-      <c r="I91" s="132"/>
-      <c r="J91" s="132"/>
-      <c r="K91" s="132"/>
+      <c r="E91" s="129"/>
+      <c r="F91" s="129"/>
+      <c r="G91" s="129"/>
+      <c r="H91" s="129"/>
+      <c r="I91" s="129"/>
+      <c r="J91" s="129"/>
+      <c r="K91" s="129"/>
     </row>
     <row r="92" spans="4:11">
-      <c r="E92" s="132"/>
-      <c r="F92" s="132"/>
-      <c r="G92" s="132"/>
-      <c r="H92" s="132"/>
-      <c r="I92" s="132"/>
-      <c r="J92" s="132"/>
-      <c r="K92" s="132"/>
+      <c r="E92" s="129"/>
+      <c r="F92" s="129"/>
+      <c r="G92" s="129"/>
+      <c r="H92" s="129"/>
+      <c r="I92" s="129"/>
+      <c r="J92" s="129"/>
+      <c r="K92" s="129"/>
     </row>
     <row r="93" spans="4:11">
-      <c r="E93" s="132"/>
-      <c r="F93" s="132"/>
-      <c r="G93" s="132"/>
-      <c r="H93" s="132"/>
-      <c r="I93" s="132"/>
-      <c r="J93" s="132"/>
-      <c r="K93" s="132"/>
+      <c r="E93" s="129"/>
+      <c r="F93" s="129"/>
+      <c r="G93" s="129"/>
+      <c r="H93" s="129"/>
+      <c r="I93" s="129"/>
+      <c r="J93" s="129"/>
+      <c r="K93" s="129"/>
     </row>
     <row r="94" spans="4:11">
-      <c r="E94" s="132"/>
-      <c r="F94" s="132"/>
-      <c r="G94" s="132"/>
-      <c r="H94" s="132"/>
-      <c r="I94" s="132"/>
-      <c r="J94" s="132"/>
-      <c r="K94" s="132"/>
+      <c r="E94" s="129"/>
+      <c r="F94" s="129"/>
+      <c r="G94" s="129"/>
+      <c r="H94" s="129"/>
+      <c r="I94" s="129"/>
+      <c r="J94" s="129"/>
+      <c r="K94" s="129"/>
     </row>
     <row r="95" spans="4:11">
-      <c r="E95" s="132"/>
-      <c r="F95" s="132"/>
-      <c r="G95" s="132"/>
-      <c r="H95" s="132"/>
-      <c r="I95" s="132"/>
-      <c r="J95" s="132"/>
-      <c r="K95" s="132"/>
+      <c r="E95" s="129"/>
+      <c r="F95" s="129"/>
+      <c r="G95" s="129"/>
+      <c r="H95" s="129"/>
+      <c r="I95" s="129"/>
+      <c r="J95" s="129"/>
+      <c r="K95" s="129"/>
     </row>
     <row r="96" spans="4:11">
-      <c r="E96" s="132"/>
-      <c r="F96" s="132"/>
-      <c r="G96" s="132"/>
-      <c r="H96" s="132"/>
-      <c r="I96" s="132"/>
-      <c r="J96" s="132"/>
-      <c r="K96" s="132"/>
+      <c r="E96" s="129"/>
+      <c r="F96" s="129"/>
+      <c r="G96" s="129"/>
+      <c r="H96" s="129"/>
+      <c r="I96" s="129"/>
+      <c r="J96" s="129"/>
+      <c r="K96" s="129"/>
     </row>
     <row r="97" spans="5:11">
-      <c r="E97" s="132"/>
-      <c r="F97" s="132"/>
-      <c r="G97" s="132"/>
-      <c r="H97" s="132"/>
-      <c r="I97" s="132"/>
-      <c r="J97" s="132"/>
-      <c r="K97" s="144"/>
+      <c r="E97" s="129"/>
+      <c r="F97" s="129"/>
+      <c r="G97" s="129"/>
+      <c r="H97" s="129"/>
+      <c r="I97" s="129"/>
+      <c r="J97" s="129"/>
+      <c r="K97" s="141"/>
     </row>
     <row r="98" spans="5:11">
-      <c r="E98" s="132"/>
-      <c r="F98" s="132"/>
-      <c r="G98" s="132"/>
-      <c r="H98" s="132"/>
-      <c r="I98" s="132"/>
-      <c r="J98" s="132"/>
-      <c r="K98" s="144"/>
+      <c r="E98" s="129"/>
+      <c r="F98" s="129"/>
+      <c r="G98" s="129"/>
+      <c r="H98" s="129"/>
+      <c r="I98" s="129"/>
+      <c r="J98" s="129"/>
+      <c r="K98" s="141"/>
     </row>
     <row r="99" spans="5:11">
-      <c r="E99" s="132"/>
-      <c r="F99" s="132"/>
-      <c r="G99" s="132"/>
-      <c r="H99" s="132"/>
-      <c r="I99" s="132"/>
-      <c r="J99" s="132"/>
-      <c r="K99" s="132"/>
+      <c r="E99" s="129"/>
+      <c r="F99" s="129"/>
+      <c r="G99" s="129"/>
+      <c r="H99" s="129"/>
+      <c r="I99" s="129"/>
+      <c r="J99" s="129"/>
+      <c r="K99" s="129"/>
     </row>
     <row r="100" spans="5:11">
-      <c r="E100" s="132"/>
-      <c r="F100" s="132"/>
-      <c r="G100" s="132"/>
-      <c r="H100" s="132"/>
-      <c r="I100" s="132"/>
-      <c r="J100" s="132"/>
-      <c r="K100" s="132"/>
+      <c r="E100" s="129"/>
+      <c r="F100" s="129"/>
+      <c r="G100" s="129"/>
+      <c r="H100" s="129"/>
+      <c r="I100" s="129"/>
+      <c r="J100" s="129"/>
+      <c r="K100" s="129"/>
     </row>
     <row r="101" spans="5:11">
-      <c r="E101" s="132"/>
-      <c r="F101" s="132"/>
-      <c r="G101" s="132"/>
-      <c r="H101" s="132"/>
-      <c r="I101" s="132"/>
-      <c r="J101" s="132"/>
-      <c r="K101" s="132"/>
+      <c r="E101" s="129"/>
+      <c r="F101" s="129"/>
+      <c r="G101" s="129"/>
+      <c r="H101" s="129"/>
+      <c r="I101" s="129"/>
+      <c r="J101" s="129"/>
+      <c r="K101" s="129"/>
     </row>
     <row r="102" spans="5:11">
-      <c r="E102" s="132"/>
-      <c r="F102" s="132"/>
-      <c r="G102" s="132"/>
-      <c r="H102" s="132"/>
-      <c r="I102" s="132"/>
-      <c r="J102" s="132"/>
-      <c r="K102" s="132"/>
+      <c r="E102" s="129"/>
+      <c r="F102" s="129"/>
+      <c r="G102" s="129"/>
+      <c r="H102" s="129"/>
+      <c r="I102" s="129"/>
+      <c r="J102" s="129"/>
+      <c r="K102" s="129"/>
     </row>
     <row r="103" spans="5:11">
-      <c r="E103" s="132"/>
-      <c r="F103" s="132"/>
-      <c r="G103" s="132"/>
-      <c r="H103" s="132"/>
-      <c r="I103" s="132"/>
-      <c r="J103" s="132"/>
-      <c r="K103" s="132"/>
+      <c r="E103" s="129"/>
+      <c r="F103" s="129"/>
+      <c r="G103" s="129"/>
+      <c r="H103" s="129"/>
+      <c r="I103" s="129"/>
+      <c r="J103" s="129"/>
+      <c r="K103" s="129"/>
     </row>
     <row r="104" spans="5:11">
-      <c r="E104" s="132"/>
-      <c r="F104" s="132"/>
-      <c r="G104" s="132"/>
-      <c r="H104" s="132"/>
-      <c r="I104" s="132"/>
-      <c r="J104" s="132"/>
-      <c r="K104" s="132"/>
-    </row>
-    <row r="122" customFormat="1" ht="16"/>
-    <row r="123" customFormat="1" ht="16"/>
-    <row r="124" customFormat="1" ht="16"/>
-    <row r="125" customFormat="1" ht="16"/>
-    <row r="126" customFormat="1" ht="16"/>
+      <c r="E104" s="129"/>
+      <c r="F104" s="129"/>
+      <c r="G104" s="129"/>
+      <c r="H104" s="129"/>
+      <c r="I104" s="129"/>
+      <c r="J104" s="129"/>
+      <c r="K104" s="129"/>
+    </row>
+    <row r="122" spans="1:25" customFormat="1" ht="16"/>
+    <row r="123" spans="1:25" customFormat="1" ht="17" thickBot="1"/>
+    <row r="124" spans="1:25" s="26" customFormat="1" ht="16">
+      <c r="A124"/>
+      <c r="B124" s="119"/>
+      <c r="C124" s="120" t="s">
+        <v>25</v>
+      </c>
+      <c r="D124" s="120" t="s">
+        <v>56</v>
+      </c>
+      <c r="E124" s="120"/>
+      <c r="F124" s="120" t="s">
+        <v>32</v>
+      </c>
+      <c r="G124" s="120"/>
+      <c r="H124" s="120"/>
+      <c r="I124" s="120"/>
+      <c r="J124" s="120"/>
+      <c r="K124" s="120"/>
+      <c r="L124" s="120"/>
+      <c r="M124" s="120"/>
+      <c r="N124" s="120"/>
+      <c r="O124" s="120"/>
+      <c r="P124" s="120"/>
+      <c r="Q124" s="120"/>
+      <c r="R124" s="120"/>
+      <c r="S124" s="120"/>
+      <c r="T124" s="120"/>
+      <c r="U124" s="120"/>
+    </row>
+    <row r="125" spans="1:25" customFormat="1" ht="16">
+      <c r="B125" s="117"/>
+      <c r="C125" s="132"/>
+      <c r="D125" s="129"/>
+      <c r="E125" s="129"/>
+      <c r="F125" s="129"/>
+      <c r="G125" s="129"/>
+      <c r="H125" s="129"/>
+      <c r="I125" s="129"/>
+      <c r="J125" s="129"/>
+      <c r="K125" s="129"/>
+      <c r="L125" s="129"/>
+      <c r="M125" s="129"/>
+      <c r="N125" s="129"/>
+      <c r="O125" s="129"/>
+      <c r="P125" s="129"/>
+      <c r="Q125" s="129"/>
+      <c r="R125" s="129"/>
+      <c r="S125" s="129"/>
+      <c r="T125" s="129"/>
+      <c r="U125" s="129"/>
+      <c r="V125" s="129"/>
+      <c r="W125" s="129"/>
+      <c r="X125" s="129"/>
+      <c r="Y125" s="129"/>
+    </row>
+    <row r="126" spans="1:25" customFormat="1" ht="17">
+      <c r="B126" s="117"/>
+      <c r="C126" s="138" t="s">
+        <v>99</v>
+      </c>
+      <c r="D126" s="129"/>
+      <c r="E126" s="129"/>
+      <c r="F126" s="129"/>
+      <c r="G126" s="129"/>
+      <c r="H126" s="129"/>
+      <c r="I126" s="129"/>
+      <c r="J126" s="129"/>
+      <c r="K126" s="129"/>
+      <c r="L126" s="129"/>
+      <c r="M126" s="129"/>
+      <c r="N126" s="129"/>
+      <c r="O126" s="129"/>
+      <c r="P126" s="129"/>
+      <c r="Q126" s="129"/>
+      <c r="R126" s="129"/>
+      <c r="S126" s="129"/>
+      <c r="T126" s="129"/>
+      <c r="U126" s="129"/>
+      <c r="V126" s="129"/>
+      <c r="W126" s="129"/>
+      <c r="X126" s="129"/>
+      <c r="Y126" s="129"/>
+    </row>
+    <row r="127" spans="1:25" customFormat="1" ht="16">
+      <c r="B127" s="117"/>
+      <c r="C127" s="129"/>
+      <c r="D127" s="129"/>
+      <c r="E127" s="129"/>
+      <c r="F127" s="129"/>
+      <c r="G127" s="129"/>
+      <c r="H127" s="129"/>
+      <c r="I127" s="129"/>
+      <c r="J127" s="129"/>
+      <c r="K127" s="129"/>
+      <c r="L127" s="129"/>
+      <c r="M127" s="129"/>
+      <c r="N127" s="129"/>
+      <c r="O127" s="129"/>
+      <c r="P127" s="129"/>
+      <c r="Q127" s="129"/>
+      <c r="R127" s="129"/>
+      <c r="S127" s="129"/>
+      <c r="T127" s="129"/>
+      <c r="U127" s="129"/>
+      <c r="V127" s="129"/>
+      <c r="W127" s="129"/>
+      <c r="X127" s="129"/>
+      <c r="Y127" s="129"/>
+    </row>
+    <row r="128" spans="1:25" customFormat="1" ht="16"/>
+    <row r="129" spans="6:17" customFormat="1" ht="16">
+      <c r="F129" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="6:17" customFormat="1" ht="16">
+      <c r="L130" s="171" t="s">
+        <v>89</v>
+      </c>
+      <c r="M130" s="171" t="s">
+        <v>94</v>
+      </c>
+      <c r="N130" s="171" t="s">
+        <v>95</v>
+      </c>
+      <c r="O130" s="171" t="s">
+        <v>96</v>
+      </c>
+      <c r="P130" s="171" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q130" s="171" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="131" spans="6:17" ht="16">
+      <c r="G131" s="116">
+        <f>AVERAGE(P131:P153)</f>
+        <v>50.113913043478263</v>
+      </c>
+      <c r="H131" s="163" t="s">
+        <v>102</v>
+      </c>
+      <c r="I131" s="163" t="s">
+        <v>101</v>
+      </c>
+      <c r="L131" s="172">
+        <v>42220</v>
+      </c>
+      <c r="M131" s="171">
+        <v>45.69</v>
+      </c>
+      <c r="N131" s="171">
+        <v>45.69</v>
+      </c>
+      <c r="O131" s="171">
+        <v>45.69</v>
+      </c>
+      <c r="P131" s="171">
+        <v>45.69</v>
+      </c>
+      <c r="Q131" s="171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="6:17" ht="16">
+      <c r="G132" s="116">
+        <v>158.98729499999999</v>
+      </c>
+      <c r="H132" s="163" t="s">
+        <v>103</v>
+      </c>
+      <c r="L132" s="172">
+        <v>42219</v>
+      </c>
+      <c r="M132" s="171">
+        <v>45.31</v>
+      </c>
+      <c r="N132" s="171">
+        <v>45.31</v>
+      </c>
+      <c r="O132" s="171">
+        <v>45.31</v>
+      </c>
+      <c r="P132" s="171">
+        <v>45.31</v>
+      </c>
+      <c r="Q132" s="171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="6:17" ht="16">
+      <c r="G133" s="116">
+        <f>G131/litres_per_barrel</f>
+        <v>0.31520702986662091</v>
+      </c>
+      <c r="H133" s="163" t="s">
+        <v>104</v>
+      </c>
+      <c r="L133" s="172">
+        <v>42216</v>
+      </c>
+      <c r="M133" s="171">
+        <v>46.79</v>
+      </c>
+      <c r="N133" s="171">
+        <v>46.79</v>
+      </c>
+      <c r="O133" s="171">
+        <v>46.79</v>
+      </c>
+      <c r="P133" s="171">
+        <v>46.79</v>
+      </c>
+      <c r="Q133" s="171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="6:17" ht="16">
+      <c r="G134" s="116">
+        <f>dollar_per_euro</f>
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="H134" s="163" t="s">
+        <v>91</v>
+      </c>
+      <c r="L134" s="172">
+        <v>42215</v>
+      </c>
+      <c r="M134" s="171">
+        <v>48.47</v>
+      </c>
+      <c r="N134" s="171">
+        <v>48.47</v>
+      </c>
+      <c r="O134" s="171">
+        <v>48.47</v>
+      </c>
+      <c r="P134" s="171">
+        <v>48.47</v>
+      </c>
+      <c r="Q134" s="171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="6:17" ht="16">
+      <c r="G135" s="116">
+        <f>G133/G134</f>
+        <v>0.28707379769273306</v>
+      </c>
+      <c r="H135" s="163" t="s">
+        <v>105</v>
+      </c>
+      <c r="L135" s="172">
+        <v>42214</v>
+      </c>
+      <c r="M135" s="171">
+        <v>48.78</v>
+      </c>
+      <c r="N135" s="171">
+        <v>48.78</v>
+      </c>
+      <c r="O135" s="171">
+        <v>48.78</v>
+      </c>
+      <c r="P135" s="171">
+        <v>48.78</v>
+      </c>
+      <c r="Q135" s="171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="6:17" ht="16">
+      <c r="G136" s="116">
+        <f>F11</f>
+        <v>34.44</v>
+      </c>
+      <c r="H136" s="163" t="s">
+        <v>64</v>
+      </c>
+      <c r="L136" s="172">
+        <v>42213</v>
+      </c>
+      <c r="M136" s="171">
+        <v>47.69</v>
+      </c>
+      <c r="N136" s="171">
+        <v>47.69</v>
+      </c>
+      <c r="O136" s="171">
+        <v>47.69</v>
+      </c>
+      <c r="P136" s="171">
+        <v>47.69</v>
+      </c>
+      <c r="Q136" s="171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="6:17" ht="16">
+      <c r="G137" s="173">
+        <f>G135/G136</f>
+        <v>8.3354761234823768E-3</v>
+      </c>
+      <c r="H137" s="163" t="s">
+        <v>54</v>
+      </c>
+      <c r="L137" s="172">
+        <v>42212</v>
+      </c>
+      <c r="M137" s="171">
+        <v>47.1</v>
+      </c>
+      <c r="N137" s="171">
+        <v>47.1</v>
+      </c>
+      <c r="O137" s="171">
+        <v>47.1</v>
+      </c>
+      <c r="P137" s="171">
+        <v>47.1</v>
+      </c>
+      <c r="Q137" s="171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="6:17" ht="16">
+      <c r="L138" s="172">
+        <v>42209</v>
+      </c>
+      <c r="M138" s="171">
+        <v>47.94</v>
+      </c>
+      <c r="N138" s="171">
+        <v>47.94</v>
+      </c>
+      <c r="O138" s="171">
+        <v>47.94</v>
+      </c>
+      <c r="P138" s="171">
+        <v>47.94</v>
+      </c>
+      <c r="Q138" s="171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="6:17" ht="16">
+      <c r="L139" s="172">
+        <v>42208</v>
+      </c>
+      <c r="M139" s="171">
+        <v>48.74</v>
+      </c>
+      <c r="N139" s="171">
+        <v>48.74</v>
+      </c>
+      <c r="O139" s="171">
+        <v>48.74</v>
+      </c>
+      <c r="P139" s="171">
+        <v>48.74</v>
+      </c>
+      <c r="Q139" s="171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="6:17" ht="16">
+      <c r="L140" s="172">
+        <v>42207</v>
+      </c>
+      <c r="M140" s="171">
+        <v>49.08</v>
+      </c>
+      <c r="N140" s="171">
+        <v>49.08</v>
+      </c>
+      <c r="O140" s="171">
+        <v>49.08</v>
+      </c>
+      <c r="P140" s="171">
+        <v>49.08</v>
+      </c>
+      <c r="Q140" s="171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="6:17" ht="16">
+      <c r="L141" s="172">
+        <v>42206</v>
+      </c>
+      <c r="M141" s="171">
+        <v>50.79</v>
+      </c>
+      <c r="N141" s="171">
+        <v>50.79</v>
+      </c>
+      <c r="O141" s="171">
+        <v>50.79</v>
+      </c>
+      <c r="P141" s="171">
+        <v>50.79</v>
+      </c>
+      <c r="Q141" s="171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="6:17" ht="16">
+      <c r="L142" s="172">
+        <v>42205</v>
+      </c>
+      <c r="M142" s="171">
+        <v>49.98</v>
+      </c>
+      <c r="N142" s="171">
+        <v>49.98</v>
+      </c>
+      <c r="O142" s="171">
+        <v>49.98</v>
+      </c>
+      <c r="P142" s="171">
+        <v>49.98</v>
+      </c>
+      <c r="Q142" s="171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="6:17" ht="16">
+      <c r="L143" s="172">
+        <v>42202</v>
+      </c>
+      <c r="M143" s="171">
+        <v>50.86</v>
+      </c>
+      <c r="N143" s="171">
+        <v>50.86</v>
+      </c>
+      <c r="O143" s="171">
+        <v>50.86</v>
+      </c>
+      <c r="P143" s="171">
+        <v>50.86</v>
+      </c>
+      <c r="Q143" s="171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="6:17" ht="16">
+      <c r="L144" s="172">
+        <v>42201</v>
+      </c>
+      <c r="M144" s="171">
+        <v>50.98</v>
+      </c>
+      <c r="N144" s="171">
+        <v>50.98</v>
+      </c>
+      <c r="O144" s="171">
+        <v>50.98</v>
+      </c>
+      <c r="P144" s="171">
+        <v>50.98</v>
+      </c>
+      <c r="Q144" s="171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="12:17" ht="16">
+      <c r="L145" s="172">
+        <v>42200</v>
+      </c>
+      <c r="M145" s="171">
+        <v>51.31</v>
+      </c>
+      <c r="N145" s="171">
+        <v>51.31</v>
+      </c>
+      <c r="O145" s="171">
+        <v>51.31</v>
+      </c>
+      <c r="P145" s="171">
+        <v>51.31</v>
+      </c>
+      <c r="Q145" s="171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="12:17" ht="16">
+      <c r="L146" s="172">
+        <v>42199</v>
+      </c>
+      <c r="M146" s="171">
+        <v>52.84</v>
+      </c>
+      <c r="N146" s="171">
+        <v>52.84</v>
+      </c>
+      <c r="O146" s="171">
+        <v>52.84</v>
+      </c>
+      <c r="P146" s="171">
+        <v>52.84</v>
+      </c>
+      <c r="Q146" s="171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="12:17" ht="16">
+      <c r="L147" s="172">
+        <v>42198</v>
+      </c>
+      <c r="M147" s="171">
+        <v>52.17</v>
+      </c>
+      <c r="N147" s="171">
+        <v>52.17</v>
+      </c>
+      <c r="O147" s="171">
+        <v>52.17</v>
+      </c>
+      <c r="P147" s="171">
+        <v>52.17</v>
+      </c>
+      <c r="Q147" s="171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="12:17" ht="16">
+      <c r="L148" s="172">
+        <v>42195</v>
+      </c>
+      <c r="M148" s="171">
+        <v>52.64</v>
+      </c>
+      <c r="N148" s="171">
+        <v>52.64</v>
+      </c>
+      <c r="O148" s="171">
+        <v>52.64</v>
+      </c>
+      <c r="P148" s="171">
+        <v>52.64</v>
+      </c>
+      <c r="Q148" s="171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="12:17" ht="16">
+      <c r="L149" s="172">
+        <v>42194</v>
+      </c>
+      <c r="M149" s="171">
+        <v>52.83</v>
+      </c>
+      <c r="N149" s="171">
+        <v>52.83</v>
+      </c>
+      <c r="O149" s="171">
+        <v>52.83</v>
+      </c>
+      <c r="P149" s="171">
+        <v>52.83</v>
+      </c>
+      <c r="Q149" s="171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="12:17" ht="16">
+      <c r="L150" s="172">
+        <v>42193</v>
+      </c>
+      <c r="M150" s="171">
+        <v>51.65</v>
+      </c>
+      <c r="N150" s="171">
+        <v>51.65</v>
+      </c>
+      <c r="O150" s="171">
+        <v>51.65</v>
+      </c>
+      <c r="P150" s="171">
+        <v>51.65</v>
+      </c>
+      <c r="Q150" s="171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="12:17" ht="16">
+      <c r="L151" s="172">
+        <v>42192</v>
+      </c>
+      <c r="M151" s="171">
+        <v>52.83</v>
+      </c>
+      <c r="N151" s="171">
+        <v>52.83</v>
+      </c>
+      <c r="O151" s="171">
+        <v>52.83</v>
+      </c>
+      <c r="P151" s="171">
+        <v>52.83</v>
+      </c>
+      <c r="Q151" s="171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="12:17" ht="16">
+      <c r="L152" s="172">
+        <v>42191</v>
+      </c>
+      <c r="M152" s="171">
+        <v>52.66</v>
+      </c>
+      <c r="N152" s="171">
+        <v>52.66</v>
+      </c>
+      <c r="O152" s="171">
+        <v>52.66</v>
+      </c>
+      <c r="P152" s="171">
+        <v>52.66</v>
+      </c>
+      <c r="Q152" s="171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="12:17" ht="16">
+      <c r="L153" s="172">
+        <v>42188</v>
+      </c>
+      <c r="M153" s="171">
+        <v>55.49</v>
+      </c>
+      <c r="N153" s="171">
+        <v>55.49</v>
+      </c>
+      <c r="O153" s="171">
+        <v>55.49</v>
+      </c>
+      <c r="P153" s="171">
+        <v>55.49</v>
+      </c>
+      <c r="Q153" s="171">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5088,4 +6183,130 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="2" width="3.25" customWidth="1"/>
+    <col min="3" max="3" width="46" customWidth="1"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
+    <col min="6" max="7" width="17.75" customWidth="1"/>
+    <col min="8" max="8" width="55" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" s="163" customFormat="1" ht="15">
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+    </row>
+    <row r="2" spans="2:9" s="163" customFormat="1" ht="15" customHeight="1">
+      <c r="B2" s="179" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+    </row>
+    <row r="3" spans="2:9" s="163" customFormat="1" ht="15">
+      <c r="B3" s="182"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+    </row>
+    <row r="4" spans="2:9" s="163" customFormat="1" ht="15">
+      <c r="B4" s="191"/>
+      <c r="C4" s="192"/>
+      <c r="D4" s="192"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
+    </row>
+    <row r="5" spans="2:9" s="163" customFormat="1" thickBot="1">
+      <c r="D5" s="164"/>
+    </row>
+    <row r="6" spans="2:9" s="163" customFormat="1" ht="15">
+      <c r="B6" s="165"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="166"/>
+    </row>
+    <row r="7" spans="2:9" s="45" customFormat="1" ht="18">
+      <c r="B7" s="103"/>
+      <c r="C7" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="104" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="107"/>
+    </row>
+    <row r="8" spans="2:9" ht="19" thickBot="1">
+      <c r="B8" s="25"/>
+      <c r="I8" s="46"/>
+    </row>
+    <row r="9" spans="2:9" s="45" customFormat="1" ht="19" thickBot="1">
+      <c r="B9" s="25"/>
+      <c r="C9" s="167" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="168">
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="F9" s="167" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="169">
+        <v>42221</v>
+      </c>
+      <c r="H9" s="170" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/carriers_source_analyses/crude_oil.carrier.xlsx
+++ b/carriers_source_analyses/crude_oil.carrier.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
@@ -18,6 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="dollar_data">Exchange_rates!$E$9:$H$9</definedName>
@@ -1648,14 +1649,6 @@
     <xf numFmtId="166" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="169" fontId="6" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1708,6 +1701,14 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="343">
@@ -2339,6 +2340,26 @@
     <sheetNames>
       <sheetName val="Cover sheet"/>
       <sheetName val="Dashboard"/>
+      <sheetName val="carrier_manager.xlsm"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="update_attributes"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cover sheet"/>
+      <sheetName val="Dashboard"/>
     </sheetNames>
     <definedNames>
       <definedName name="update_attributes"/>
@@ -2907,28 +2928,28 @@
       <c r="G1" s="36"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="179" t="s">
+      <c r="B2" s="177" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="181"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="179"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="182"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="184"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="182"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="185"/>
-      <c r="C4" s="186"/>
-      <c r="D4" s="186"/>
-      <c r="E4" s="187"/>
+      <c r="B4" s="183"/>
+      <c r="C4" s="184"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="185"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
@@ -3021,9 +3042,9 @@
       <c r="D11" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="177">
+      <c r="E11" s="175">
         <f>'Research data'!G7</f>
-        <v>8.3354761234823768E-3</v>
+        <v>5.0606873263783344E-3</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="122"/>
@@ -3055,7 +3076,7 @@
     </row>
     <row r="13" spans="2:10" s="45" customFormat="1" ht="19" thickBot="1">
       <c r="B13" s="25"/>
-      <c r="C13" s="178" t="s">
+      <c r="C13" s="176" t="s">
         <v>108</v>
       </c>
       <c r="D13" s="24" t="s">
@@ -3118,7 +3139,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="3073" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_attributes">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[3]!update_attributes">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
@@ -3181,30 +3202,30 @@
       <c r="G1" s="36"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="179" t="s">
+      <c r="B2" s="177" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="181"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="179"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="182"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="184"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="182"/>
       <c r="F3" s="36"/>
       <c r="G3" s="154"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="188" t="s">
+      <c r="B4" s="186" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="190"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="188"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
@@ -3587,18 +3608,18 @@
       <c r="F7" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="176">
+      <c r="G7" s="174">
         <f>M7</f>
-        <v>8.3354761234823768E-3</v>
+        <v>5.0606873263783344E-3</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
-      <c r="M7" s="175">
+      <c r="M7" s="173">
         <f>Notes!G137</f>
-        <v>8.3354761234823768E-3</v>
+        <v>5.0606873263783344E-3</v>
       </c>
       <c r="N7" s="16"/>
       <c r="O7" s="133"/>
@@ -4150,7 +4171,7 @@
       <c r="I13" s="66">
         <v>2015</v>
       </c>
-      <c r="J13" s="174">
+      <c r="J13" s="172">
         <v>42221</v>
       </c>
       <c r="K13" s="64"/>
@@ -4176,10 +4197,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y153"/>
+  <dimension ref="A1:Y154"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="C126" sqref="C126"/>
+    <sheetView topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="L130" sqref="L130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5643,29 +5664,29 @@
       </c>
     </row>
     <row r="130" spans="6:17" customFormat="1" ht="16">
-      <c r="L130" s="171" t="s">
+      <c r="L130" s="192" t="s">
         <v>89</v>
       </c>
-      <c r="M130" s="171" t="s">
+      <c r="M130" s="192" t="s">
         <v>94</v>
       </c>
-      <c r="N130" s="171" t="s">
+      <c r="N130" s="192" t="s">
         <v>95</v>
       </c>
-      <c r="O130" s="171" t="s">
+      <c r="O130" s="192" t="s">
         <v>96</v>
       </c>
-      <c r="P130" s="171" t="s">
+      <c r="P130" s="192" t="s">
         <v>97</v>
       </c>
-      <c r="Q130" s="171" t="s">
+      <c r="Q130" s="192" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="131" spans="6:17" ht="16">
+    <row r="131" spans="6:17">
       <c r="G131" s="116">
         <f>AVERAGE(P131:P153)</f>
-        <v>50.113913043478263</v>
+        <v>30.383913043478252</v>
       </c>
       <c r="H131" s="163" t="s">
         <v>102</v>
@@ -5673,133 +5694,133 @@
       <c r="I131" s="163" t="s">
         <v>101</v>
       </c>
-      <c r="L131" s="172">
-        <v>42220</v>
-      </c>
-      <c r="M131" s="171">
-        <v>45.69</v>
-      </c>
-      <c r="N131" s="171">
-        <v>45.69</v>
-      </c>
-      <c r="O131" s="171">
-        <v>45.69</v>
-      </c>
-      <c r="P131" s="171">
-        <v>45.69</v>
-      </c>
-      <c r="Q131" s="171">
+      <c r="L131" s="193">
+        <v>42411</v>
+      </c>
+      <c r="M131" s="192">
+        <v>26.79</v>
+      </c>
+      <c r="N131" s="192">
+        <v>26.79</v>
+      </c>
+      <c r="O131" s="192">
+        <v>26.79</v>
+      </c>
+      <c r="P131" s="192">
+        <v>26.79</v>
+      </c>
+      <c r="Q131" s="192">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="6:17" ht="16">
+    <row r="132" spans="6:17">
       <c r="G132" s="116">
         <v>158.98729499999999</v>
       </c>
       <c r="H132" s="163" t="s">
         <v>103</v>
       </c>
-      <c r="L132" s="172">
-        <v>42219</v>
-      </c>
-      <c r="M132" s="171">
-        <v>45.31</v>
-      </c>
-      <c r="N132" s="171">
-        <v>45.31</v>
-      </c>
-      <c r="O132" s="171">
-        <v>45.31</v>
-      </c>
-      <c r="P132" s="171">
-        <v>45.31</v>
-      </c>
-      <c r="Q132" s="171">
+      <c r="L132" s="193">
+        <v>42410</v>
+      </c>
+      <c r="M132" s="192">
+        <v>27.61</v>
+      </c>
+      <c r="N132" s="192">
+        <v>27.61</v>
+      </c>
+      <c r="O132" s="192">
+        <v>27.61</v>
+      </c>
+      <c r="P132" s="192">
+        <v>27.61</v>
+      </c>
+      <c r="Q132" s="192">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="6:17" ht="16">
+    <row r="133" spans="6:17">
       <c r="G133" s="116">
         <f>G131/litres_per_barrel</f>
-        <v>0.31520702986662091</v>
+        <v>0.19110906342219516</v>
       </c>
       <c r="H133" s="163" t="s">
         <v>104</v>
       </c>
-      <c r="L133" s="172">
-        <v>42216</v>
-      </c>
-      <c r="M133" s="171">
-        <v>46.79</v>
-      </c>
-      <c r="N133" s="171">
-        <v>46.79</v>
-      </c>
-      <c r="O133" s="171">
-        <v>46.79</v>
-      </c>
-      <c r="P133" s="171">
-        <v>46.79</v>
-      </c>
-      <c r="Q133" s="171">
+      <c r="L133" s="193">
+        <v>42409</v>
+      </c>
+      <c r="M133" s="192">
+        <v>28.25</v>
+      </c>
+      <c r="N133" s="192">
+        <v>28.25</v>
+      </c>
+      <c r="O133" s="192">
+        <v>28.25</v>
+      </c>
+      <c r="P133" s="192">
+        <v>28.25</v>
+      </c>
+      <c r="Q133" s="192">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="6:17" ht="16">
+    <row r="134" spans="6:17">
       <c r="G134" s="116">
         <f>dollar_per_euro</f>
-        <v>1.0980000000000001</v>
+        <v>1.0965</v>
       </c>
       <c r="H134" s="163" t="s">
         <v>91</v>
       </c>
-      <c r="L134" s="172">
-        <v>42215</v>
-      </c>
-      <c r="M134" s="171">
-        <v>48.47</v>
-      </c>
-      <c r="N134" s="171">
-        <v>48.47</v>
-      </c>
-      <c r="O134" s="171">
-        <v>48.47</v>
-      </c>
-      <c r="P134" s="171">
-        <v>48.47</v>
-      </c>
-      <c r="Q134" s="171">
+      <c r="L134" s="193">
+        <v>42408</v>
+      </c>
+      <c r="M134" s="192">
+        <v>29.97</v>
+      </c>
+      <c r="N134" s="192">
+        <v>29.97</v>
+      </c>
+      <c r="O134" s="192">
+        <v>29.97</v>
+      </c>
+      <c r="P134" s="192">
+        <v>29.97</v>
+      </c>
+      <c r="Q134" s="192">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="6:17" ht="16">
+    <row r="135" spans="6:17">
       <c r="G135" s="116">
         <f>G133/G134</f>
-        <v>0.28707379769273306</v>
+        <v>0.17429007152046982</v>
       </c>
       <c r="H135" s="163" t="s">
         <v>105</v>
       </c>
-      <c r="L135" s="172">
-        <v>42214</v>
-      </c>
-      <c r="M135" s="171">
-        <v>48.78</v>
-      </c>
-      <c r="N135" s="171">
-        <v>48.78</v>
-      </c>
-      <c r="O135" s="171">
-        <v>48.78</v>
-      </c>
-      <c r="P135" s="171">
-        <v>48.78</v>
-      </c>
-      <c r="Q135" s="171">
+      <c r="L135" s="193">
+        <v>42405</v>
+      </c>
+      <c r="M135" s="192">
+        <v>30.84</v>
+      </c>
+      <c r="N135" s="192">
+        <v>30.84</v>
+      </c>
+      <c r="O135" s="192">
+        <v>30.84</v>
+      </c>
+      <c r="P135" s="192">
+        <v>30.84</v>
+      </c>
+      <c r="Q135" s="192">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="6:17" ht="16">
+    <row r="136" spans="6:17">
       <c r="G136" s="116">
         <f>F11</f>
         <v>34.44</v>
@@ -5807,369 +5828,389 @@
       <c r="H136" s="163" t="s">
         <v>64</v>
       </c>
-      <c r="L136" s="172">
-        <v>42213</v>
-      </c>
-      <c r="M136" s="171">
-        <v>47.69</v>
-      </c>
-      <c r="N136" s="171">
-        <v>47.69</v>
-      </c>
-      <c r="O136" s="171">
-        <v>47.69</v>
-      </c>
-      <c r="P136" s="171">
-        <v>47.69</v>
-      </c>
-      <c r="Q136" s="171">
+      <c r="L136" s="193">
+        <v>42404</v>
+      </c>
+      <c r="M136" s="192">
+        <v>31.63</v>
+      </c>
+      <c r="N136" s="192">
+        <v>31.63</v>
+      </c>
+      <c r="O136" s="192">
+        <v>31.63</v>
+      </c>
+      <c r="P136" s="192">
+        <v>31.63</v>
+      </c>
+      <c r="Q136" s="192">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="6:17" ht="16">
-      <c r="G137" s="173">
+    <row r="137" spans="6:17">
+      <c r="G137" s="171">
         <f>G135/G136</f>
-        <v>8.3354761234823768E-3</v>
+        <v>5.0606873263783344E-3</v>
       </c>
       <c r="H137" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="L137" s="172">
-        <v>42212</v>
-      </c>
-      <c r="M137" s="171">
-        <v>47.1</v>
-      </c>
-      <c r="N137" s="171">
-        <v>47.1</v>
-      </c>
-      <c r="O137" s="171">
-        <v>47.1</v>
-      </c>
-      <c r="P137" s="171">
-        <v>47.1</v>
-      </c>
-      <c r="Q137" s="171">
+      <c r="L137" s="193">
+        <v>42403</v>
+      </c>
+      <c r="M137" s="192">
+        <v>32.25</v>
+      </c>
+      <c r="N137" s="192">
+        <v>32.25</v>
+      </c>
+      <c r="O137" s="192">
+        <v>32.25</v>
+      </c>
+      <c r="P137" s="192">
+        <v>32.25</v>
+      </c>
+      <c r="Q137" s="192">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="6:17" ht="16">
-      <c r="L138" s="172">
-        <v>42209</v>
-      </c>
-      <c r="M138" s="171">
-        <v>47.94</v>
-      </c>
-      <c r="N138" s="171">
-        <v>47.94</v>
-      </c>
-      <c r="O138" s="171">
-        <v>47.94</v>
-      </c>
-      <c r="P138" s="171">
-        <v>47.94</v>
-      </c>
-      <c r="Q138" s="171">
+    <row r="138" spans="6:17">
+      <c r="L138" s="193">
+        <v>42402</v>
+      </c>
+      <c r="M138" s="192">
+        <v>29.96</v>
+      </c>
+      <c r="N138" s="192">
+        <v>29.96</v>
+      </c>
+      <c r="O138" s="192">
+        <v>29.96</v>
+      </c>
+      <c r="P138" s="192">
+        <v>29.96</v>
+      </c>
+      <c r="Q138" s="192">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="6:17" ht="16">
-      <c r="L139" s="172">
-        <v>42208</v>
-      </c>
-      <c r="M139" s="171">
-        <v>48.74</v>
-      </c>
-      <c r="N139" s="171">
-        <v>48.74</v>
-      </c>
-      <c r="O139" s="171">
-        <v>48.74</v>
-      </c>
-      <c r="P139" s="171">
-        <v>48.74</v>
-      </c>
-      <c r="Q139" s="171">
+    <row r="139" spans="6:17">
+      <c r="L139" s="193">
+        <v>42401</v>
+      </c>
+      <c r="M139" s="192">
+        <v>31.46</v>
+      </c>
+      <c r="N139" s="192">
+        <v>31.46</v>
+      </c>
+      <c r="O139" s="192">
+        <v>31.46</v>
+      </c>
+      <c r="P139" s="192">
+        <v>31.46</v>
+      </c>
+      <c r="Q139" s="192">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="6:17" ht="16">
-      <c r="L140" s="172">
-        <v>42207</v>
-      </c>
-      <c r="M140" s="171">
-        <v>49.08</v>
-      </c>
-      <c r="N140" s="171">
-        <v>49.08</v>
-      </c>
-      <c r="O140" s="171">
-        <v>49.08</v>
-      </c>
-      <c r="P140" s="171">
-        <v>49.08</v>
-      </c>
-      <c r="Q140" s="171">
+    <row r="140" spans="6:17">
+      <c r="L140" s="193">
+        <v>42398</v>
+      </c>
+      <c r="M140" s="192">
+        <v>33.61</v>
+      </c>
+      <c r="N140" s="192">
+        <v>33.61</v>
+      </c>
+      <c r="O140" s="192">
+        <v>33.61</v>
+      </c>
+      <c r="P140" s="192">
+        <v>33.61</v>
+      </c>
+      <c r="Q140" s="192">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="6:17" ht="16">
-      <c r="L141" s="172">
-        <v>42206</v>
-      </c>
-      <c r="M141" s="171">
-        <v>50.79</v>
-      </c>
-      <c r="N141" s="171">
-        <v>50.79</v>
-      </c>
-      <c r="O141" s="171">
-        <v>50.79</v>
-      </c>
-      <c r="P141" s="171">
-        <v>50.79</v>
-      </c>
-      <c r="Q141" s="171">
+    <row r="141" spans="6:17">
+      <c r="L141" s="193">
+        <v>42397</v>
+      </c>
+      <c r="M141" s="192">
+        <v>33.39</v>
+      </c>
+      <c r="N141" s="192">
+        <v>33.39</v>
+      </c>
+      <c r="O141" s="192">
+        <v>33.39</v>
+      </c>
+      <c r="P141" s="192">
+        <v>33.39</v>
+      </c>
+      <c r="Q141" s="192">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="6:17" ht="16">
-      <c r="L142" s="172">
-        <v>42205</v>
-      </c>
-      <c r="M142" s="171">
-        <v>49.98</v>
-      </c>
-      <c r="N142" s="171">
-        <v>49.98</v>
-      </c>
-      <c r="O142" s="171">
-        <v>49.98</v>
-      </c>
-      <c r="P142" s="171">
-        <v>49.98</v>
-      </c>
-      <c r="Q142" s="171">
+    <row r="142" spans="6:17">
+      <c r="L142" s="193">
+        <v>42396</v>
+      </c>
+      <c r="M142" s="192">
+        <v>31.9</v>
+      </c>
+      <c r="N142" s="192">
+        <v>31.9</v>
+      </c>
+      <c r="O142" s="192">
+        <v>31.9</v>
+      </c>
+      <c r="P142" s="192">
+        <v>31.9</v>
+      </c>
+      <c r="Q142" s="192">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="6:17" ht="16">
-      <c r="L143" s="172">
-        <v>42202</v>
-      </c>
-      <c r="M143" s="171">
-        <v>50.86</v>
-      </c>
-      <c r="N143" s="171">
-        <v>50.86</v>
-      </c>
-      <c r="O143" s="171">
-        <v>50.86</v>
-      </c>
-      <c r="P143" s="171">
-        <v>50.86</v>
-      </c>
-      <c r="Q143" s="171">
+    <row r="143" spans="6:17">
+      <c r="L143" s="193">
+        <v>42395</v>
+      </c>
+      <c r="M143" s="192">
+        <v>31.2</v>
+      </c>
+      <c r="N143" s="192">
+        <v>31.2</v>
+      </c>
+      <c r="O143" s="192">
+        <v>31.2</v>
+      </c>
+      <c r="P143" s="192">
+        <v>31.2</v>
+      </c>
+      <c r="Q143" s="192">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="6:17" ht="16">
-      <c r="L144" s="172">
-        <v>42201</v>
-      </c>
-      <c r="M144" s="171">
-        <v>50.98</v>
-      </c>
-      <c r="N144" s="171">
-        <v>50.98</v>
-      </c>
-      <c r="O144" s="171">
-        <v>50.98</v>
-      </c>
-      <c r="P144" s="171">
-        <v>50.98</v>
-      </c>
-      <c r="Q144" s="171">
+    <row r="144" spans="6:17">
+      <c r="L144" s="193">
+        <v>42394</v>
+      </c>
+      <c r="M144" s="192">
+        <v>30.14</v>
+      </c>
+      <c r="N144" s="192">
+        <v>30.14</v>
+      </c>
+      <c r="O144" s="192">
+        <v>30.14</v>
+      </c>
+      <c r="P144" s="192">
+        <v>30.14</v>
+      </c>
+      <c r="Q144" s="192">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="12:17" ht="16">
-      <c r="L145" s="172">
-        <v>42200</v>
-      </c>
-      <c r="M145" s="171">
-        <v>51.31</v>
-      </c>
-      <c r="N145" s="171">
-        <v>51.31</v>
-      </c>
-      <c r="O145" s="171">
-        <v>51.31</v>
-      </c>
-      <c r="P145" s="171">
-        <v>51.31</v>
-      </c>
-      <c r="Q145" s="171">
+    <row r="145" spans="12:17">
+      <c r="L145" s="193">
+        <v>42391</v>
+      </c>
+      <c r="M145" s="192">
+        <v>31.99</v>
+      </c>
+      <c r="N145" s="192">
+        <v>31.99</v>
+      </c>
+      <c r="O145" s="192">
+        <v>31.99</v>
+      </c>
+      <c r="P145" s="192">
+        <v>31.99</v>
+      </c>
+      <c r="Q145" s="192">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="12:17" ht="16">
-      <c r="L146" s="172">
-        <v>42199</v>
-      </c>
-      <c r="M146" s="171">
-        <v>52.84</v>
-      </c>
-      <c r="N146" s="171">
-        <v>52.84</v>
-      </c>
-      <c r="O146" s="171">
-        <v>52.84</v>
-      </c>
-      <c r="P146" s="171">
-        <v>52.84</v>
-      </c>
-      <c r="Q146" s="171">
+    <row r="146" spans="12:17">
+      <c r="L146" s="193">
+        <v>42390</v>
+      </c>
+      <c r="M146" s="192">
+        <v>29.68</v>
+      </c>
+      <c r="N146" s="192">
+        <v>29.68</v>
+      </c>
+      <c r="O146" s="192">
+        <v>29.68</v>
+      </c>
+      <c r="P146" s="192">
+        <v>29.68</v>
+      </c>
+      <c r="Q146" s="192">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="12:17" ht="16">
-      <c r="L147" s="172">
-        <v>42198</v>
-      </c>
-      <c r="M147" s="171">
-        <v>52.17</v>
-      </c>
-      <c r="N147" s="171">
-        <v>52.17</v>
-      </c>
-      <c r="O147" s="171">
-        <v>52.17</v>
-      </c>
-      <c r="P147" s="171">
-        <v>52.17</v>
-      </c>
-      <c r="Q147" s="171">
+    <row r="147" spans="12:17">
+      <c r="L147" s="193">
+        <v>42389</v>
+      </c>
+      <c r="M147" s="192">
+        <v>29.05</v>
+      </c>
+      <c r="N147" s="192">
+        <v>29.05</v>
+      </c>
+      <c r="O147" s="192">
+        <v>29.05</v>
+      </c>
+      <c r="P147" s="192">
+        <v>29.05</v>
+      </c>
+      <c r="Q147" s="192">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="12:17" ht="16">
-      <c r="L148" s="172">
-        <v>42195</v>
-      </c>
-      <c r="M148" s="171">
-        <v>52.64</v>
-      </c>
-      <c r="N148" s="171">
-        <v>52.64</v>
-      </c>
-      <c r="O148" s="171">
-        <v>52.64</v>
-      </c>
-      <c r="P148" s="171">
-        <v>52.64</v>
-      </c>
-      <c r="Q148" s="171">
+    <row r="148" spans="12:17">
+      <c r="L148" s="193">
+        <v>42388</v>
+      </c>
+      <c r="M148" s="192">
+        <v>28.4</v>
+      </c>
+      <c r="N148" s="192">
+        <v>28.4</v>
+      </c>
+      <c r="O148" s="192">
+        <v>28.4</v>
+      </c>
+      <c r="P148" s="192">
+        <v>28.4</v>
+      </c>
+      <c r="Q148" s="192">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="12:17" ht="16">
-      <c r="L149" s="172">
-        <v>42194</v>
-      </c>
-      <c r="M149" s="171">
-        <v>52.83</v>
-      </c>
-      <c r="N149" s="171">
-        <v>52.83</v>
-      </c>
-      <c r="O149" s="171">
-        <v>52.83</v>
-      </c>
-      <c r="P149" s="171">
-        <v>52.83</v>
-      </c>
-      <c r="Q149" s="171">
+    <row r="149" spans="12:17">
+      <c r="L149" s="193">
+        <v>42387</v>
+      </c>
+      <c r="M149" s="192">
+        <v>28.91</v>
+      </c>
+      <c r="N149" s="192">
+        <v>28.91</v>
+      </c>
+      <c r="O149" s="192">
+        <v>28.91</v>
+      </c>
+      <c r="P149" s="192">
+        <v>28.91</v>
+      </c>
+      <c r="Q149" s="192">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="12:17" ht="16">
-      <c r="L150" s="172">
-        <v>42193</v>
-      </c>
-      <c r="M150" s="171">
-        <v>51.65</v>
-      </c>
-      <c r="N150" s="171">
-        <v>51.65</v>
-      </c>
-      <c r="O150" s="171">
-        <v>51.65</v>
-      </c>
-      <c r="P150" s="171">
-        <v>51.65</v>
-      </c>
-      <c r="Q150" s="171">
+    <row r="150" spans="12:17">
+      <c r="L150" s="193">
+        <v>42384</v>
+      </c>
+      <c r="M150" s="192">
+        <v>29.67</v>
+      </c>
+      <c r="N150" s="192">
+        <v>29.67</v>
+      </c>
+      <c r="O150" s="192">
+        <v>29.67</v>
+      </c>
+      <c r="P150" s="192">
+        <v>29.67</v>
+      </c>
+      <c r="Q150" s="192">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="12:17" ht="16">
-      <c r="L151" s="172">
-        <v>42192</v>
-      </c>
-      <c r="M151" s="171">
-        <v>52.83</v>
-      </c>
-      <c r="N151" s="171">
-        <v>52.83</v>
-      </c>
-      <c r="O151" s="171">
-        <v>52.83</v>
-      </c>
-      <c r="P151" s="171">
-        <v>52.83</v>
-      </c>
-      <c r="Q151" s="171">
+    <row r="151" spans="12:17">
+      <c r="L151" s="193">
+        <v>42383</v>
+      </c>
+      <c r="M151" s="192">
+        <v>31.14</v>
+      </c>
+      <c r="N151" s="192">
+        <v>31.14</v>
+      </c>
+      <c r="O151" s="192">
+        <v>31.14</v>
+      </c>
+      <c r="P151" s="192">
+        <v>31.14</v>
+      </c>
+      <c r="Q151" s="192">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="12:17" ht="16">
-      <c r="L152" s="172">
-        <v>42191</v>
-      </c>
-      <c r="M152" s="171">
-        <v>52.66</v>
-      </c>
-      <c r="N152" s="171">
-        <v>52.66</v>
-      </c>
-      <c r="O152" s="171">
-        <v>52.66</v>
-      </c>
-      <c r="P152" s="171">
-        <v>52.66</v>
-      </c>
-      <c r="Q152" s="171">
+    <row r="152" spans="12:17">
+      <c r="L152" s="193">
+        <v>42382</v>
+      </c>
+      <c r="M152" s="192">
+        <v>30.45</v>
+      </c>
+      <c r="N152" s="192">
+        <v>30.45</v>
+      </c>
+      <c r="O152" s="192">
+        <v>30.45</v>
+      </c>
+      <c r="P152" s="192">
+        <v>30.45</v>
+      </c>
+      <c r="Q152" s="192">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="12:17" ht="16">
-      <c r="L153" s="172">
-        <v>42188</v>
-      </c>
-      <c r="M153" s="171">
-        <v>55.49</v>
-      </c>
-      <c r="N153" s="171">
-        <v>55.49</v>
-      </c>
-      <c r="O153" s="171">
-        <v>55.49</v>
-      </c>
-      <c r="P153" s="171">
-        <v>55.49</v>
-      </c>
-      <c r="Q153" s="171">
+    <row r="153" spans="12:17">
+      <c r="L153" s="193">
+        <v>42381</v>
+      </c>
+      <c r="M153" s="192">
+        <v>30.54</v>
+      </c>
+      <c r="N153" s="192">
+        <v>30.54</v>
+      </c>
+      <c r="O153" s="192">
+        <v>30.54</v>
+      </c>
+      <c r="P153" s="192">
+        <v>30.54</v>
+      </c>
+      <c r="Q153" s="192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="12:17">
+      <c r="L154" s="193">
+        <v>42380</v>
+      </c>
+      <c r="M154" s="192">
+        <v>31.27</v>
+      </c>
+      <c r="N154" s="192">
+        <v>31.27</v>
+      </c>
+      <c r="O154" s="192">
+        <v>31.27</v>
+      </c>
+      <c r="P154" s="192">
+        <v>31.27</v>
+      </c>
+      <c r="Q154" s="192">
         <v>0</v>
       </c>
     </row>
@@ -6211,28 +6252,28 @@
       <c r="G1" s="164"/>
     </row>
     <row r="2" spans="2:9" s="163" customFormat="1" ht="15" customHeight="1">
-      <c r="B2" s="179" t="s">
+      <c r="B2" s="177" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="181"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="179"/>
       <c r="F2" s="164"/>
       <c r="G2" s="164"/>
     </row>
     <row r="3" spans="2:9" s="163" customFormat="1" ht="15">
-      <c r="B3" s="182"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="184"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="182"/>
       <c r="F3" s="164"/>
       <c r="G3" s="164"/>
     </row>
     <row r="4" spans="2:9" s="163" customFormat="1" ht="15">
-      <c r="B4" s="191"/>
-      <c r="C4" s="192"/>
-      <c r="D4" s="192"/>
-      <c r="E4" s="193"/>
+      <c r="B4" s="189"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="191"/>
       <c r="F4" s="164"/>
       <c r="G4" s="164"/>
     </row>
@@ -6284,13 +6325,13 @@
         <v>91</v>
       </c>
       <c r="E9" s="168">
-        <v>1.0980000000000001</v>
+        <v>1.0965</v>
       </c>
       <c r="F9" s="167" t="s">
         <v>92</v>
       </c>
       <c r="G9" s="169">
-        <v>42221</v>
+        <v>42412</v>
       </c>
       <c r="H9" s="170" t="s">
         <v>93</v>

--- a/carriers_source_analyses/crude_oil.carrier.xlsx
+++ b/carriers_source_analyses/crude_oil.carrier.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
@@ -18,7 +18,6 @@
   <externalReferences>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="dollar_data">Exchange_rates!$E$9:$H$9</definedName>
@@ -59,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="110">
   <si>
     <t>Source</t>
   </si>
@@ -341,9 +340,6 @@
     <t>This sheet summarizes the Fuel Chain Emissions attributes formatted in the way they are used by the Energy Transition Model. These FCE are only specified for carriers and at the moment only for NL.</t>
   </si>
   <si>
-    <t>N.B. These FCE attributes have to be exported to ETSource manually as this is not automated yet.</t>
-  </si>
-  <si>
     <t>This sheet contains currency exchange rates. These are automatically updated from exchange rate files in the same folder. This only works if you open this `&lt;carrier name&gt;.xlsx` workbook using the `carrier_manager.xlsm` document.</t>
   </si>
   <si>
@@ -408,6 +404,34 @@
   </si>
   <si>
     <t>kg_per_liter</t>
+  </si>
+  <si>
+    <t>from crude_oil</t>
+  </si>
+  <si>
+    <r>
+      <t>start_va</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ue</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -424,12 +448,33 @@
     <numFmt numFmtId="170" formatCode="0.00000000000"/>
     <numFmt numFmtId="171" formatCode="0.0000000000000000"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1047,671 +1092,678 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="343">
+  <cellStyleXfs count="345">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="20" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="26" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="29" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="6" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="24" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="27" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="343">
+  <cellStyles count="345">
     <cellStyle name="Excel Built-in Normal" xfId="338"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1965,6 +2017,8 @@
     <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="341" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2065,6 +2119,10 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2073,14 +2131,14 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2119,6 +2177,67 @@
                   <a:cs typeface="Lucida Grande"/>
                 </a:rPr>
                 <a:t>Update carrier attributes on ETSource</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>165100</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>3949700</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3075" name="export_fce" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3075"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Lucida Grande"/>
+                  <a:ea typeface="Lucida Grande"/>
+                  <a:cs typeface="Lucida Grande"/>
+                </a:rPr>
+                <a:t>Update FCE attributes on ETSource (next sheet)</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -2340,29 +2459,10 @@
     <sheetNames>
       <sheetName val="Cover sheet"/>
       <sheetName val="Dashboard"/>
-      <sheetName val="carrier_manager.xlsm"/>
     </sheetNames>
     <definedNames>
       <definedName name="update_attributes"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover sheet"/>
-      <sheetName val="Dashboard"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="update_attributes"/>
+      <definedName name="update_fce"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -2768,13 +2868,13 @@
         <v>15</v>
       </c>
       <c r="C9" s="89"/>
-      <c r="D9" s="158"/>
+      <c r="D9" s="156"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="7"/>
       <c r="B10" s="90"/>
       <c r="C10" s="91"/>
-      <c r="D10" s="159"/>
+      <c r="D10" s="157"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="7"/>
@@ -2784,7 +2884,7 @@
       <c r="C11" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="159"/>
+      <c r="D11" s="157"/>
     </row>
     <row r="12" spans="1:4" ht="16" thickBot="1">
       <c r="A12" s="7"/>
@@ -2792,7 +2892,7 @@
       <c r="C12" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="159"/>
+      <c r="D12" s="157"/>
     </row>
     <row r="13" spans="1:4" ht="16" thickBot="1">
       <c r="A13" s="7"/>
@@ -2800,7 +2900,7 @@
       <c r="C13" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="159"/>
+      <c r="D13" s="157"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="7"/>
@@ -2808,13 +2908,13 @@
       <c r="C14" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="159"/>
+      <c r="D14" s="157"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="7"/>
       <c r="B15" s="90"/>
       <c r="C15" s="91"/>
-      <c r="D15" s="159"/>
+      <c r="D15" s="157"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="7"/>
@@ -2824,7 +2924,7 @@
       <c r="C16" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="159"/>
+      <c r="D16" s="157"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="7"/>
@@ -2832,7 +2932,7 @@
       <c r="C17" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="159"/>
+      <c r="D17" s="157"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="7"/>
@@ -2840,7 +2940,7 @@
       <c r="C18" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="159"/>
+      <c r="D18" s="157"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="7"/>
@@ -2848,7 +2948,7 @@
       <c r="C19" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="159"/>
+      <c r="D19" s="157"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="7"/>
@@ -2856,7 +2956,7 @@
       <c r="C20" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="159"/>
+      <c r="D20" s="157"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="7"/>
@@ -2864,7 +2964,7 @@
       <c r="C21" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="159"/>
+      <c r="D21" s="157"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="7"/>
@@ -2872,19 +2972,19 @@
       <c r="C22" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="159"/>
+      <c r="D22" s="157"/>
     </row>
     <row r="23" spans="1:4">
       <c r="B23" s="98"/>
       <c r="C23" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="159"/>
+      <c r="D23" s="157"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="B24" s="160"/>
-      <c r="C24" s="161"/>
-      <c r="D24" s="162"/>
+      <c r="B24" s="158"/>
+      <c r="C24" s="159"/>
+      <c r="D24" s="160"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2928,28 +3028,28 @@
       <c r="G1" s="36"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="180" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="179"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="182"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="180"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="182"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="185"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="183"/>
-      <c r="C4" s="184"/>
-      <c r="D4" s="184"/>
-      <c r="E4" s="185"/>
+      <c r="B4" s="186"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="188"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
@@ -3001,7 +3101,7 @@
     </row>
     <row r="9" spans="2:10" s="45" customFormat="1" ht="19" thickBot="1">
       <c r="B9" s="25"/>
-      <c r="C9" s="157" t="s">
+      <c r="C9" s="155" t="s">
         <v>83</v>
       </c>
       <c r="D9" s="33"/>
@@ -3042,15 +3142,15 @@
       <c r="D11" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="175">
+      <c r="E11" s="173">
         <f>'Research data'!G7</f>
         <v>5.0606873263783344E-3</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="122"/>
       <c r="H11" s="32"/>
-      <c r="I11" s="170" t="s">
-        <v>106</v>
+      <c r="I11" s="168" t="s">
+        <v>105</v>
       </c>
       <c r="J11" s="46"/>
     </row>
@@ -3076,8 +3176,8 @@
     </row>
     <row r="13" spans="2:10" s="45" customFormat="1" ht="19" thickBot="1">
       <c r="B13" s="25"/>
-      <c r="C13" s="176" t="s">
-        <v>108</v>
+      <c r="C13" s="174" t="s">
+        <v>107</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>78</v>
@@ -3139,18 +3239,41 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="3073" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[3]!update_attributes">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_attributes">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>165100</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>3949700</xdr:colOff>
                     <xdr:row>2</xdr:row>
+                    <xdr:rowOff>25400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+          <mc:Fallback/>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3075" r:id="rId4" name="export_fce">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_fce">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>165100</xdr:colOff>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
+                    <xdr:row>4</xdr:row>
                     <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3176,9 +3299,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:J17"/>
+  <dimension ref="B1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -3202,30 +3327,28 @@
       <c r="G1" s="36"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="180" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="179"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="182"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="180"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="182"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="185"/>
       <c r="F3" s="36"/>
       <c r="G3" s="154"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="186" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="187"/>
-      <c r="D4" s="187"/>
-      <c r="E4" s="188"/>
+      <c r="B4" s="189"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="191"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
@@ -3288,72 +3411,63 @@
       <c r="I9" s="36"/>
       <c r="J9" s="108"/>
     </row>
-    <row r="10" spans="2:10" ht="16" thickBot="1">
+    <row r="10" spans="2:10">
       <c r="B10" s="41"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
       <c r="J10" s="108"/>
     </row>
     <row r="11" spans="2:10" ht="16" thickBot="1">
       <c r="B11" s="41"/>
-      <c r="C11" s="155" t="s">
+      <c r="C11" s="177" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="108"/>
+    </row>
+    <row r="12" spans="2:10" ht="16" thickBot="1">
+      <c r="B12" s="41"/>
+      <c r="C12" s="178" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D12" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="142">
+      <c r="E12" s="142">
         <f>'Research data'!G13</f>
         <v>0</v>
-      </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="122" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="123" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" s="108"/>
-    </row>
-    <row r="12" spans="2:10" ht="16" thickBot="1">
-      <c r="B12" s="41"/>
-      <c r="C12" s="156" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="142">
-        <f>'Research data'!G14</f>
-        <v>4.8300000000000001E-3</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="122" t="s">
         <v>49</v>
       </c>
       <c r="H12" s="37"/>
-      <c r="I12" s="35" t="s">
+      <c r="I12" s="123" t="s">
         <v>51</v>
       </c>
       <c r="J12" s="108"/>
     </row>
     <row r="13" spans="2:10" ht="16" thickBot="1">
       <c r="B13" s="41"/>
-      <c r="C13" s="156" t="s">
-        <v>47</v>
+      <c r="C13" s="178" t="s">
+        <v>44</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>48</v>
       </c>
       <c r="E13" s="142">
-        <f>'Research data'!G15</f>
-        <v>0</v>
+        <f>'Research data'!G14</f>
+        <v>4.8300000000000001E-3</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="122" t="s">
@@ -3367,37 +3481,37 @@
     </row>
     <row r="14" spans="2:10" ht="16" thickBot="1">
       <c r="B14" s="41"/>
-      <c r="C14" s="156" t="s">
-        <v>46</v>
+      <c r="C14" s="178" t="s">
+        <v>47</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>48</v>
       </c>
       <c r="E14" s="142">
-        <f>'Research data'!G16</f>
-        <v>8.8000000000000003E-4</v>
+        <f>'Research data'!G15</f>
+        <v>0</v>
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="122" t="s">
         <v>49</v>
       </c>
       <c r="H14" s="37"/>
-      <c r="I14" s="87" t="s">
+      <c r="I14" s="35" t="s">
         <v>51</v>
       </c>
       <c r="J14" s="108"/>
     </row>
     <row r="15" spans="2:10" ht="16" thickBot="1">
       <c r="B15" s="41"/>
-      <c r="C15" s="156" t="s">
-        <v>40</v>
+      <c r="C15" s="178" t="s">
+        <v>46</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>48</v>
       </c>
       <c r="E15" s="142">
-        <f>'Research data'!G17</f>
-        <v>7.5499999999999998E-2</v>
+        <f>'Research data'!G16</f>
+        <v>8.8000000000000003E-4</v>
       </c>
       <c r="F15" s="37"/>
       <c r="G15" s="122" t="s">
@@ -3411,36 +3525,77 @@
     </row>
     <row r="16" spans="2:10" ht="16" thickBot="1">
       <c r="B16" s="41"/>
-      <c r="C16" s="156" t="s">
-        <v>45</v>
+      <c r="C16" s="178" t="s">
+        <v>40</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>48</v>
       </c>
       <c r="E16" s="142">
-        <f>'Research data'!G18</f>
-        <v>0</v>
+        <f>'Research data'!G17</f>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="F16" s="37"/>
       <c r="G16" s="122" t="s">
         <v>49</v>
       </c>
       <c r="H16" s="37"/>
-      <c r="I16" s="114" t="s">
+      <c r="I16" s="87" t="s">
         <v>51</v>
       </c>
       <c r="J16" s="108"/>
     </row>
-    <row r="17" spans="2:10" ht="20" customHeight="1" thickBot="1">
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="44"/>
+    <row r="17" spans="2:10" ht="16" thickBot="1">
+      <c r="B17" s="41"/>
+      <c r="C17" s="178" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="142">
+        <f>'Research data'!G18</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="37"/>
+      <c r="G17" s="122" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="37"/>
+      <c r="I17" s="114" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" s="108"/>
+    </row>
+    <row r="18" spans="2:10" ht="16" thickBot="1">
+      <c r="B18" s="41"/>
+      <c r="C18" s="179" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="142">
+        <v>1</v>
+      </c>
+      <c r="F18" s="37"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="114" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" s="108"/>
+    </row>
+    <row r="19" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B19" s="42"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3448,6 +3603,7 @@
     <mergeCell ref="B4:E4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3527,7 +3683,7 @@
       </c>
       <c r="L3" s="65"/>
       <c r="M3" s="65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N3" s="65"/>
       <c r="O3" s="1" t="s">
@@ -3608,7 +3764,7 @@
       <c r="F7" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="174">
+      <c r="G7" s="172">
         <f>M7</f>
         <v>5.0606873263783344E-3</v>
       </c>
@@ -3617,7 +3773,7 @@
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
-      <c r="M7" s="173">
+      <c r="M7" s="171">
         <f>Notes!G137</f>
         <v>5.0606873263783344E-3</v>
       </c>
@@ -3657,7 +3813,7 @@
     <row r="9" spans="2:15" s="150" customFormat="1" ht="16" thickBot="1">
       <c r="B9" s="146"/>
       <c r="C9" s="147" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D9" s="147"/>
       <c r="E9" s="147"/>
@@ -4161,22 +4317,22 @@
       </c>
       <c r="D13" s="62"/>
       <c r="E13" s="136" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F13" s="136"/>
       <c r="G13" s="62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H13" s="66"/>
       <c r="I13" s="66">
         <v>2015</v>
       </c>
-      <c r="J13" s="172">
+      <c r="J13" s="170">
         <v>42221</v>
       </c>
       <c r="K13" s="64"/>
       <c r="L13" s="138" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="2:12">
@@ -5606,7 +5762,7 @@
     <row r="126" spans="1:25" customFormat="1" ht="17">
       <c r="B126" s="117"/>
       <c r="C126" s="138" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D126" s="129"/>
       <c r="E126" s="129"/>
@@ -5660,27 +5816,27 @@
     <row r="128" spans="1:25" customFormat="1" ht="16"/>
     <row r="129" spans="6:17" customFormat="1" ht="16">
       <c r="F129" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="130" spans="6:17" customFormat="1" ht="16">
-      <c r="L130" s="192" t="s">
-        <v>89</v>
-      </c>
-      <c r="M130" s="192" t="s">
+      <c r="L130" s="175" t="s">
+        <v>88</v>
+      </c>
+      <c r="M130" s="175" t="s">
+        <v>93</v>
+      </c>
+      <c r="N130" s="175" t="s">
         <v>94</v>
       </c>
-      <c r="N130" s="192" t="s">
+      <c r="O130" s="175" t="s">
         <v>95</v>
       </c>
-      <c r="O130" s="192" t="s">
+      <c r="P130" s="175" t="s">
         <v>96</v>
       </c>
-      <c r="P130" s="192" t="s">
+      <c r="Q130" s="175" t="s">
         <v>97</v>
-      </c>
-      <c r="Q130" s="192" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="131" spans="6:17">
@@ -5688,28 +5844,28 @@
         <f>AVERAGE(P131:P153)</f>
         <v>30.383913043478252</v>
       </c>
-      <c r="H131" s="163" t="s">
-        <v>102</v>
-      </c>
-      <c r="I131" s="163" t="s">
+      <c r="H131" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="L131" s="193">
+      <c r="I131" s="161" t="s">
+        <v>100</v>
+      </c>
+      <c r="L131" s="176">
         <v>42411</v>
       </c>
-      <c r="M131" s="192">
+      <c r="M131" s="175">
         <v>26.79</v>
       </c>
-      <c r="N131" s="192">
+      <c r="N131" s="175">
         <v>26.79</v>
       </c>
-      <c r="O131" s="192">
+      <c r="O131" s="175">
         <v>26.79</v>
       </c>
-      <c r="P131" s="192">
+      <c r="P131" s="175">
         <v>26.79</v>
       </c>
-      <c r="Q131" s="192">
+      <c r="Q131" s="175">
         <v>0</v>
       </c>
     </row>
@@ -5717,25 +5873,25 @@
       <c r="G132" s="116">
         <v>158.98729499999999</v>
       </c>
-      <c r="H132" s="163" t="s">
-        <v>103</v>
-      </c>
-      <c r="L132" s="193">
+      <c r="H132" s="161" t="s">
+        <v>102</v>
+      </c>
+      <c r="L132" s="176">
         <v>42410</v>
       </c>
-      <c r="M132" s="192">
+      <c r="M132" s="175">
         <v>27.61</v>
       </c>
-      <c r="N132" s="192">
+      <c r="N132" s="175">
         <v>27.61</v>
       </c>
-      <c r="O132" s="192">
+      <c r="O132" s="175">
         <v>27.61</v>
       </c>
-      <c r="P132" s="192">
+      <c r="P132" s="175">
         <v>27.61</v>
       </c>
-      <c r="Q132" s="192">
+      <c r="Q132" s="175">
         <v>0</v>
       </c>
     </row>
@@ -5744,25 +5900,25 @@
         <f>G131/litres_per_barrel</f>
         <v>0.19110906342219516</v>
       </c>
-      <c r="H133" s="163" t="s">
-        <v>104</v>
-      </c>
-      <c r="L133" s="193">
+      <c r="H133" s="161" t="s">
+        <v>103</v>
+      </c>
+      <c r="L133" s="176">
         <v>42409</v>
       </c>
-      <c r="M133" s="192">
+      <c r="M133" s="175">
         <v>28.25</v>
       </c>
-      <c r="N133" s="192">
+      <c r="N133" s="175">
         <v>28.25</v>
       </c>
-      <c r="O133" s="192">
+      <c r="O133" s="175">
         <v>28.25</v>
       </c>
-      <c r="P133" s="192">
+      <c r="P133" s="175">
         <v>28.25</v>
       </c>
-      <c r="Q133" s="192">
+      <c r="Q133" s="175">
         <v>0</v>
       </c>
     </row>
@@ -5771,25 +5927,25 @@
         <f>dollar_per_euro</f>
         <v>1.0965</v>
       </c>
-      <c r="H134" s="163" t="s">
-        <v>91</v>
-      </c>
-      <c r="L134" s="193">
+      <c r="H134" s="161" t="s">
+        <v>90</v>
+      </c>
+      <c r="L134" s="176">
         <v>42408</v>
       </c>
-      <c r="M134" s="192">
+      <c r="M134" s="175">
         <v>29.97</v>
       </c>
-      <c r="N134" s="192">
+      <c r="N134" s="175">
         <v>29.97</v>
       </c>
-      <c r="O134" s="192">
+      <c r="O134" s="175">
         <v>29.97</v>
       </c>
-      <c r="P134" s="192">
+      <c r="P134" s="175">
         <v>29.97</v>
       </c>
-      <c r="Q134" s="192">
+      <c r="Q134" s="175">
         <v>0</v>
       </c>
     </row>
@@ -5798,25 +5954,25 @@
         <f>G133/G134</f>
         <v>0.17429007152046982</v>
       </c>
-      <c r="H135" s="163" t="s">
-        <v>105</v>
-      </c>
-      <c r="L135" s="193">
+      <c r="H135" s="161" t="s">
+        <v>104</v>
+      </c>
+      <c r="L135" s="176">
         <v>42405</v>
       </c>
-      <c r="M135" s="192">
+      <c r="M135" s="175">
         <v>30.84</v>
       </c>
-      <c r="N135" s="192">
+      <c r="N135" s="175">
         <v>30.84</v>
       </c>
-      <c r="O135" s="192">
+      <c r="O135" s="175">
         <v>30.84</v>
       </c>
-      <c r="P135" s="192">
+      <c r="P135" s="175">
         <v>30.84</v>
       </c>
-      <c r="Q135" s="192">
+      <c r="Q135" s="175">
         <v>0</v>
       </c>
     </row>
@@ -5825,392 +5981,392 @@
         <f>F11</f>
         <v>34.44</v>
       </c>
-      <c r="H136" s="163" t="s">
+      <c r="H136" s="161" t="s">
         <v>64</v>
       </c>
-      <c r="L136" s="193">
+      <c r="L136" s="176">
         <v>42404</v>
       </c>
-      <c r="M136" s="192">
+      <c r="M136" s="175">
         <v>31.63</v>
       </c>
-      <c r="N136" s="192">
+      <c r="N136" s="175">
         <v>31.63</v>
       </c>
-      <c r="O136" s="192">
+      <c r="O136" s="175">
         <v>31.63</v>
       </c>
-      <c r="P136" s="192">
+      <c r="P136" s="175">
         <v>31.63</v>
       </c>
-      <c r="Q136" s="192">
+      <c r="Q136" s="175">
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="6:17">
-      <c r="G137" s="171">
+      <c r="G137" s="169">
         <f>G135/G136</f>
         <v>5.0606873263783344E-3</v>
       </c>
-      <c r="H137" s="163" t="s">
+      <c r="H137" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="L137" s="193">
+      <c r="L137" s="176">
         <v>42403</v>
       </c>
-      <c r="M137" s="192">
+      <c r="M137" s="175">
         <v>32.25</v>
       </c>
-      <c r="N137" s="192">
+      <c r="N137" s="175">
         <v>32.25</v>
       </c>
-      <c r="O137" s="192">
+      <c r="O137" s="175">
         <v>32.25</v>
       </c>
-      <c r="P137" s="192">
+      <c r="P137" s="175">
         <v>32.25</v>
       </c>
-      <c r="Q137" s="192">
+      <c r="Q137" s="175">
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="6:17">
-      <c r="L138" s="193">
+      <c r="L138" s="176">
         <v>42402</v>
       </c>
-      <c r="M138" s="192">
+      <c r="M138" s="175">
         <v>29.96</v>
       </c>
-      <c r="N138" s="192">
+      <c r="N138" s="175">
         <v>29.96</v>
       </c>
-      <c r="O138" s="192">
+      <c r="O138" s="175">
         <v>29.96</v>
       </c>
-      <c r="P138" s="192">
+      <c r="P138" s="175">
         <v>29.96</v>
       </c>
-      <c r="Q138" s="192">
+      <c r="Q138" s="175">
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="6:17">
-      <c r="L139" s="193">
+      <c r="L139" s="176">
         <v>42401</v>
       </c>
-      <c r="M139" s="192">
+      <c r="M139" s="175">
         <v>31.46</v>
       </c>
-      <c r="N139" s="192">
+      <c r="N139" s="175">
         <v>31.46</v>
       </c>
-      <c r="O139" s="192">
+      <c r="O139" s="175">
         <v>31.46</v>
       </c>
-      <c r="P139" s="192">
+      <c r="P139" s="175">
         <v>31.46</v>
       </c>
-      <c r="Q139" s="192">
+      <c r="Q139" s="175">
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="6:17">
-      <c r="L140" s="193">
+      <c r="L140" s="176">
         <v>42398</v>
       </c>
-      <c r="M140" s="192">
+      <c r="M140" s="175">
         <v>33.61</v>
       </c>
-      <c r="N140" s="192">
+      <c r="N140" s="175">
         <v>33.61</v>
       </c>
-      <c r="O140" s="192">
+      <c r="O140" s="175">
         <v>33.61</v>
       </c>
-      <c r="P140" s="192">
+      <c r="P140" s="175">
         <v>33.61</v>
       </c>
-      <c r="Q140" s="192">
+      <c r="Q140" s="175">
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="6:17">
-      <c r="L141" s="193">
+      <c r="L141" s="176">
         <v>42397</v>
       </c>
-      <c r="M141" s="192">
+      <c r="M141" s="175">
         <v>33.39</v>
       </c>
-      <c r="N141" s="192">
+      <c r="N141" s="175">
         <v>33.39</v>
       </c>
-      <c r="O141" s="192">
+      <c r="O141" s="175">
         <v>33.39</v>
       </c>
-      <c r="P141" s="192">
+      <c r="P141" s="175">
         <v>33.39</v>
       </c>
-      <c r="Q141" s="192">
+      <c r="Q141" s="175">
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="6:17">
-      <c r="L142" s="193">
+      <c r="L142" s="176">
         <v>42396</v>
       </c>
-      <c r="M142" s="192">
+      <c r="M142" s="175">
         <v>31.9</v>
       </c>
-      <c r="N142" s="192">
+      <c r="N142" s="175">
         <v>31.9</v>
       </c>
-      <c r="O142" s="192">
+      <c r="O142" s="175">
         <v>31.9</v>
       </c>
-      <c r="P142" s="192">
+      <c r="P142" s="175">
         <v>31.9</v>
       </c>
-      <c r="Q142" s="192">
+      <c r="Q142" s="175">
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="6:17">
-      <c r="L143" s="193">
+      <c r="L143" s="176">
         <v>42395</v>
       </c>
-      <c r="M143" s="192">
+      <c r="M143" s="175">
         <v>31.2</v>
       </c>
-      <c r="N143" s="192">
+      <c r="N143" s="175">
         <v>31.2</v>
       </c>
-      <c r="O143" s="192">
+      <c r="O143" s="175">
         <v>31.2</v>
       </c>
-      <c r="P143" s="192">
+      <c r="P143" s="175">
         <v>31.2</v>
       </c>
-      <c r="Q143" s="192">
+      <c r="Q143" s="175">
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="6:17">
-      <c r="L144" s="193">
+      <c r="L144" s="176">
         <v>42394</v>
       </c>
-      <c r="M144" s="192">
+      <c r="M144" s="175">
         <v>30.14</v>
       </c>
-      <c r="N144" s="192">
+      <c r="N144" s="175">
         <v>30.14</v>
       </c>
-      <c r="O144" s="192">
+      <c r="O144" s="175">
         <v>30.14</v>
       </c>
-      <c r="P144" s="192">
+      <c r="P144" s="175">
         <v>30.14</v>
       </c>
-      <c r="Q144" s="192">
+      <c r="Q144" s="175">
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="12:17">
-      <c r="L145" s="193">
+      <c r="L145" s="176">
         <v>42391</v>
       </c>
-      <c r="M145" s="192">
+      <c r="M145" s="175">
         <v>31.99</v>
       </c>
-      <c r="N145" s="192">
+      <c r="N145" s="175">
         <v>31.99</v>
       </c>
-      <c r="O145" s="192">
+      <c r="O145" s="175">
         <v>31.99</v>
       </c>
-      <c r="P145" s="192">
+      <c r="P145" s="175">
         <v>31.99</v>
       </c>
-      <c r="Q145" s="192">
+      <c r="Q145" s="175">
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="12:17">
-      <c r="L146" s="193">
+      <c r="L146" s="176">
         <v>42390</v>
       </c>
-      <c r="M146" s="192">
+      <c r="M146" s="175">
         <v>29.68</v>
       </c>
-      <c r="N146" s="192">
+      <c r="N146" s="175">
         <v>29.68</v>
       </c>
-      <c r="O146" s="192">
+      <c r="O146" s="175">
         <v>29.68</v>
       </c>
-      <c r="P146" s="192">
+      <c r="P146" s="175">
         <v>29.68</v>
       </c>
-      <c r="Q146" s="192">
+      <c r="Q146" s="175">
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="12:17">
-      <c r="L147" s="193">
+      <c r="L147" s="176">
         <v>42389</v>
       </c>
-      <c r="M147" s="192">
+      <c r="M147" s="175">
         <v>29.05</v>
       </c>
-      <c r="N147" s="192">
+      <c r="N147" s="175">
         <v>29.05</v>
       </c>
-      <c r="O147" s="192">
+      <c r="O147" s="175">
         <v>29.05</v>
       </c>
-      <c r="P147" s="192">
+      <c r="P147" s="175">
         <v>29.05</v>
       </c>
-      <c r="Q147" s="192">
+      <c r="Q147" s="175">
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="12:17">
-      <c r="L148" s="193">
+      <c r="L148" s="176">
         <v>42388</v>
       </c>
-      <c r="M148" s="192">
+      <c r="M148" s="175">
         <v>28.4</v>
       </c>
-      <c r="N148" s="192">
+      <c r="N148" s="175">
         <v>28.4</v>
       </c>
-      <c r="O148" s="192">
+      <c r="O148" s="175">
         <v>28.4</v>
       </c>
-      <c r="P148" s="192">
+      <c r="P148" s="175">
         <v>28.4</v>
       </c>
-      <c r="Q148" s="192">
+      <c r="Q148" s="175">
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="12:17">
-      <c r="L149" s="193">
+      <c r="L149" s="176">
         <v>42387</v>
       </c>
-      <c r="M149" s="192">
+      <c r="M149" s="175">
         <v>28.91</v>
       </c>
-      <c r="N149" s="192">
+      <c r="N149" s="175">
         <v>28.91</v>
       </c>
-      <c r="O149" s="192">
+      <c r="O149" s="175">
         <v>28.91</v>
       </c>
-      <c r="P149" s="192">
+      <c r="P149" s="175">
         <v>28.91</v>
       </c>
-      <c r="Q149" s="192">
+      <c r="Q149" s="175">
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="12:17">
-      <c r="L150" s="193">
+      <c r="L150" s="176">
         <v>42384</v>
       </c>
-      <c r="M150" s="192">
+      <c r="M150" s="175">
         <v>29.67</v>
       </c>
-      <c r="N150" s="192">
+      <c r="N150" s="175">
         <v>29.67</v>
       </c>
-      <c r="O150" s="192">
+      <c r="O150" s="175">
         <v>29.67</v>
       </c>
-      <c r="P150" s="192">
+      <c r="P150" s="175">
         <v>29.67</v>
       </c>
-      <c r="Q150" s="192">
+      <c r="Q150" s="175">
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="12:17">
-      <c r="L151" s="193">
+      <c r="L151" s="176">
         <v>42383</v>
       </c>
-      <c r="M151" s="192">
+      <c r="M151" s="175">
         <v>31.14</v>
       </c>
-      <c r="N151" s="192">
+      <c r="N151" s="175">
         <v>31.14</v>
       </c>
-      <c r="O151" s="192">
+      <c r="O151" s="175">
         <v>31.14</v>
       </c>
-      <c r="P151" s="192">
+      <c r="P151" s="175">
         <v>31.14</v>
       </c>
-      <c r="Q151" s="192">
+      <c r="Q151" s="175">
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="12:17">
-      <c r="L152" s="193">
+      <c r="L152" s="176">
         <v>42382</v>
       </c>
-      <c r="M152" s="192">
+      <c r="M152" s="175">
         <v>30.45</v>
       </c>
-      <c r="N152" s="192">
+      <c r="N152" s="175">
         <v>30.45</v>
       </c>
-      <c r="O152" s="192">
+      <c r="O152" s="175">
         <v>30.45</v>
       </c>
-      <c r="P152" s="192">
+      <c r="P152" s="175">
         <v>30.45</v>
       </c>
-      <c r="Q152" s="192">
+      <c r="Q152" s="175">
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="12:17">
-      <c r="L153" s="193">
+      <c r="L153" s="176">
         <v>42381</v>
       </c>
-      <c r="M153" s="192">
+      <c r="M153" s="175">
         <v>30.54</v>
       </c>
-      <c r="N153" s="192">
+      <c r="N153" s="175">
         <v>30.54</v>
       </c>
-      <c r="O153" s="192">
+      <c r="O153" s="175">
         <v>30.54</v>
       </c>
-      <c r="P153" s="192">
+      <c r="P153" s="175">
         <v>30.54</v>
       </c>
-      <c r="Q153" s="192">
+      <c r="Q153" s="175">
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="12:17">
-      <c r="L154" s="193">
+      <c r="L154" s="176">
         <v>42380</v>
       </c>
-      <c r="M154" s="192">
+      <c r="M154" s="175">
         <v>31.27</v>
       </c>
-      <c r="N154" s="192">
+      <c r="N154" s="175">
         <v>31.27</v>
       </c>
-      <c r="O154" s="192">
+      <c r="O154" s="175">
         <v>31.27</v>
       </c>
-      <c r="P154" s="192">
+      <c r="P154" s="175">
         <v>31.27</v>
       </c>
-      <c r="Q154" s="192">
+      <c r="Q154" s="175">
         <v>0</v>
       </c>
     </row>
@@ -6245,55 +6401,55 @@
     <col min="9" max="9" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="163" customFormat="1" ht="15">
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-    </row>
-    <row r="2" spans="2:9" s="163" customFormat="1" ht="15" customHeight="1">
-      <c r="B2" s="177" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-    </row>
-    <row r="3" spans="2:9" s="163" customFormat="1" ht="15">
-      <c r="B3" s="180"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-    </row>
-    <row r="4" spans="2:9" s="163" customFormat="1" ht="15">
-      <c r="B4" s="189"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="190"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="164"/>
-      <c r="G4" s="164"/>
-    </row>
-    <row r="5" spans="2:9" s="163" customFormat="1" thickBot="1">
-      <c r="D5" s="164"/>
-    </row>
-    <row r="6" spans="2:9" s="163" customFormat="1" ht="15">
-      <c r="B6" s="165"/>
+    <row r="1" spans="2:9" s="161" customFormat="1" ht="15">
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+    </row>
+    <row r="2" spans="2:9" s="161" customFormat="1" ht="15" customHeight="1">
+      <c r="B2" s="180" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+    </row>
+    <row r="3" spans="2:9" s="161" customFormat="1" ht="15">
+      <c r="B3" s="183"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+    </row>
+    <row r="4" spans="2:9" s="161" customFormat="1" ht="15">
+      <c r="B4" s="192"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="162"/>
+      <c r="G4" s="162"/>
+    </row>
+    <row r="5" spans="2:9" s="161" customFormat="1" thickBot="1">
+      <c r="D5" s="162"/>
+    </row>
+    <row r="6" spans="2:9" s="161" customFormat="1" ht="15">
+      <c r="B6" s="163"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
-      <c r="I6" s="166"/>
+      <c r="I6" s="164"/>
     </row>
     <row r="7" spans="2:9" s="45" customFormat="1" ht="18">
       <c r="B7" s="103"/>
       <c r="C7" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" s="104" t="s">
         <v>5</v>
@@ -6305,7 +6461,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H7" s="21" t="s">
         <v>0</v>
@@ -6318,23 +6474,23 @@
     </row>
     <row r="9" spans="2:9" s="45" customFormat="1" ht="19" thickBot="1">
       <c r="B9" s="25"/>
-      <c r="C9" s="167" t="s">
+      <c r="C9" s="165" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="E9" s="166">
+        <v>1.0965</v>
+      </c>
+      <c r="F9" s="165" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="168">
-        <v>1.0965</v>
-      </c>
-      <c r="F9" s="167" t="s">
+      <c r="G9" s="167">
+        <v>42412</v>
+      </c>
+      <c r="H9" s="168" t="s">
         <v>92</v>
-      </c>
-      <c r="G9" s="169">
-        <v>42412</v>
-      </c>
-      <c r="H9" s="170" t="s">
-        <v>93</v>
       </c>
       <c r="I9" s="46"/>
     </row>

--- a/carriers_source_analyses/crude_oil.carrier.xlsx
+++ b/carriers_source_analyses/crude_oil.carrier.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/carriers_source_analyses/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -48,8 +53,11 @@
     <definedName name="WP_to_MWp" localSheetId="6">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -332,9 +340,6 @@
   </si>
   <si>
     <t>Carrier (global properties)</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers.</t>
   </si>
   <si>
     <t>This sheet summarizes the Fuel Chain Emissions attributes formatted in the way they are used by the Energy Transition Model. These FCE are only specified for carriers and at the moment only for NL.</t>
@@ -433,6 +438,11 @@
       <t>ue</t>
     </r>
   </si>
+  <si>
+    <t>This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers. 
+- The carrier analysis can be imported on ETSource by running the following rake task: rake import:carrier CARRIER="carrier name" (eg rake import:carrier CARRIER=crude_oil) 
+- The fce analysis can be imported on ETSource by running the following rake task: rake import:fce DATASET="dataset" CARRIER="carrier name" (eg rake import:fce DATASET=nl CARRIER=bio_ethanol)</t>
+  </si>
 </sst>
 </file>
 
@@ -448,7 +458,7 @@
     <numFmt numFmtId="170" formatCode="0.00000000000"/>
     <numFmt numFmtId="171" formatCode="0.0000000000000000"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -683,11 +693,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -772,7 +777,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1035,37 +1040,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -1434,7 +1408,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1694,7 +1668,7 @@
     <xf numFmtId="166" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="9" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1735,22 +1709,13 @@
     <xf numFmtId="0" fontId="27" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1759,7 +1724,16 @@
     <xf numFmtId="0" fontId="27" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2112,145 +2086,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3073" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3073"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update carrier attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3075" name="export_fce" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3075"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update FCE attributes on ETSource (next sheet)</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2341,7 +2185,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2454,11 +2298,12 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover sheet"/>
       <sheetName val="Dashboard"/>
+      <sheetName val="carrier_manager"/>
     </sheetNames>
     <definedNames>
       <definedName name="update_attributes"/>
@@ -2467,6 +2312,7 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2799,33 +2645,33 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="44.125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="2.125" style="23" customWidth="1"/>
-    <col min="5" max="16384" width="10.625" style="23"/>
+    <col min="1" max="1" width="3.42578125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" style="23" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="29" customFormat="1">
+    <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
     </row>
-    <row r="2" spans="1:4" ht="20">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="30" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="30"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>80</v>
@@ -2834,7 +2680,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
         <v>14</v>
@@ -2843,7 +2689,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="12" t="s">
         <v>9</v>
@@ -2852,17 +2698,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="88" t="s">
         <v>15</v>
@@ -2870,13 +2716,13 @@
       <c r="C9" s="89"/>
       <c r="D9" s="156"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="90"/>
       <c r="C10" s="91"/>
       <c r="D10" s="157"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="90" t="s">
         <v>16</v>
@@ -2886,7 +2732,7 @@
       </c>
       <c r="D11" s="157"/>
     </row>
-    <row r="12" spans="1:4" ht="16" thickBot="1">
+    <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="90"/>
       <c r="C12" s="20" t="s">
@@ -2894,7 +2740,7 @@
       </c>
       <c r="D12" s="157"/>
     </row>
-    <row r="13" spans="1:4" ht="16" thickBot="1">
+    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="90"/>
       <c r="C13" s="93" t="s">
@@ -2902,7 +2748,7 @@
       </c>
       <c r="D13" s="157"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="90"/>
       <c r="C14" s="91" t="s">
@@ -2910,13 +2756,13 @@
       </c>
       <c r="D14" s="157"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="90"/>
       <c r="C15" s="91"/>
       <c r="D15" s="157"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="90" t="s">
         <v>21</v>
@@ -2926,7 +2772,7 @@
       </c>
       <c r="D16" s="157"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="90"/>
       <c r="C17" s="95" t="s">
@@ -2934,7 +2780,7 @@
       </c>
       <c r="D17" s="157"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="90"/>
       <c r="C18" s="96" t="s">
@@ -2942,7 +2788,7 @@
       </c>
       <c r="D18" s="157"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="90"/>
       <c r="C19" s="97" t="s">
@@ -2950,7 +2796,7 @@
       </c>
       <c r="D19" s="157"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="98"/>
       <c r="C20" s="99" t="s">
@@ -2958,7 +2804,7 @@
       </c>
       <c r="D20" s="157"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="98"/>
       <c r="C21" s="100" t="s">
@@ -2966,7 +2812,7 @@
       </c>
       <c r="D21" s="157"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="98"/>
       <c r="C22" s="101" t="s">
@@ -2974,14 +2820,14 @@
       </c>
       <c r="D22" s="157"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="98"/>
       <c r="C23" s="102" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="157"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="158"/>
       <c r="C24" s="159"/>
       <c r="D24" s="160"/>
@@ -2989,74 +2835,71 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="38" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="38" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="38" customWidth="1"/>
     <col min="3" max="3" width="46" style="38" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="38" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="38" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="38" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="38" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="38" customWidth="1"/>
     <col min="7" max="7" width="45" style="38" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="38" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="38" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="38" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="38"/>
+    <col min="8" max="8" width="5.140625" style="38" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="38" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="38" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
       <c r="F1" s="36"/>
       <c r="G1" s="36"/>
     </row>
-    <row r="2" spans="2:10" ht="15" customHeight="1">
+    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="180" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="C2" s="181"/>
       <c r="D2" s="181"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="192"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="183"/>
       <c r="C3" s="184"/>
       <c r="D3" s="184"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="186"/>
-      <c r="C4" s="187"/>
-      <c r="D4" s="187"/>
-      <c r="E4" s="188"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-    </row>
-    <row r="5" spans="2:10" ht="16" thickBot="1">
+      <c r="E3" s="184"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="193"/>
+    </row>
+    <row r="4" spans="2:10" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="189"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="190"/>
+      <c r="G4" s="194"/>
+    </row>
+    <row r="5" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="36"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="39"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -3067,7 +2910,7 @@
       <c r="I6" s="22"/>
       <c r="J6" s="40"/>
     </row>
-    <row r="7" spans="2:10" s="45" customFormat="1" ht="18">
+    <row r="7" spans="2:10" s="45" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="103"/>
       <c r="C7" s="21" t="s">
         <v>13</v>
@@ -3088,7 +2931,7 @@
       </c>
       <c r="J7" s="107"/>
     </row>
-    <row r="8" spans="2:10" s="45" customFormat="1" ht="18">
+    <row r="8" spans="2:10" s="45" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="25"/>
       <c r="C8" s="20"/>
       <c r="D8" s="33"/>
@@ -3099,7 +2942,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="46"/>
     </row>
-    <row r="9" spans="2:10" s="45" customFormat="1" ht="19" thickBot="1">
+    <row r="9" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="25"/>
       <c r="C9" s="155" t="s">
         <v>83</v>
@@ -3112,7 +2955,7 @@
       <c r="I9" s="20"/>
       <c r="J9" s="46"/>
     </row>
-    <row r="10" spans="2:10" s="45" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="25"/>
       <c r="C10" s="113" t="s">
         <v>38</v>
@@ -3134,7 +2977,7 @@
       </c>
       <c r="J10" s="46"/>
     </row>
-    <row r="11" spans="2:10" s="45" customFormat="1" ht="19" thickBot="1">
+    <row r="11" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="25"/>
       <c r="C11" s="122" t="s">
         <v>39</v>
@@ -3150,11 +2993,11 @@
       <c r="G11" s="122"/>
       <c r="H11" s="32"/>
       <c r="I11" s="168" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J11" s="46"/>
     </row>
-    <row r="12" spans="2:10" s="45" customFormat="1" ht="19" thickBot="1">
+    <row r="12" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="25"/>
       <c r="C12" s="122" t="s">
         <v>82</v>
@@ -3174,10 +3017,10 @@
       </c>
       <c r="J12" s="46"/>
     </row>
-    <row r="13" spans="2:10" s="45" customFormat="1" ht="19" thickBot="1">
+    <row r="13" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="25"/>
       <c r="C13" s="174" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>78</v>
@@ -3194,7 +3037,7 @@
       </c>
       <c r="J13" s="46"/>
     </row>
-    <row r="14" spans="2:10" s="45" customFormat="1" ht="19" thickBot="1">
+    <row r="14" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="25"/>
       <c r="C14" s="37" t="s">
         <v>40</v>
@@ -3214,7 +3057,7 @@
       </c>
       <c r="J14" s="46"/>
     </row>
-    <row r="15" spans="2:10" ht="20" customHeight="1" thickBot="1">
+    <row r="15" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="43"/>
@@ -3227,70 +3070,10 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:E4"/>
+    <mergeCell ref="B2:G4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="3073" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_attributes">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>1</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="3075" r:id="rId4" name="export_fce">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_fce">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3305,30 +3088,30 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="38" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="38" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="38" customWidth="1"/>
     <col min="3" max="3" width="46" style="38" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="38" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="38" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="38" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="38" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="38" customWidth="1"/>
     <col min="7" max="7" width="45" style="38" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="38" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="38" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="38" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="38"/>
+    <col min="8" max="8" width="5.140625" style="38" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="38" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="38" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
       <c r="F1" s="36"/>
       <c r="G1" s="36"/>
     </row>
-    <row r="2" spans="2:10" ht="15" customHeight="1">
+    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="180" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" s="181"/>
       <c r="D2" s="181"/>
@@ -3336,7 +3119,7 @@
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="183"/>
       <c r="C3" s="184"/>
       <c r="D3" s="184"/>
@@ -3344,18 +3127,18 @@
       <c r="F3" s="36"/>
       <c r="G3" s="154"/>
     </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="189"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="190"/>
-      <c r="E4" s="191"/>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="186"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="188"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
-    <row r="5" spans="2:10" ht="16" thickBot="1">
+    <row r="5" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="36"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="39"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -3366,7 +3149,7 @@
       <c r="I6" s="22"/>
       <c r="J6" s="40"/>
     </row>
-    <row r="7" spans="2:10" s="45" customFormat="1" ht="18">
+    <row r="7" spans="2:10" s="45" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="103"/>
       <c r="C7" s="21" t="s">
         <v>13</v>
@@ -3387,7 +3170,7 @@
       </c>
       <c r="J7" s="107"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="41"/>
       <c r="C8" s="81"/>
       <c r="D8" s="105"/>
@@ -3398,7 +3181,7 @@
       <c r="I8" s="36"/>
       <c r="J8" s="108"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="41"/>
       <c r="C9" s="20" t="s">
         <v>37</v>
@@ -3411,7 +3194,7 @@
       <c r="I9" s="36"/>
       <c r="J9" s="108"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="41"/>
       <c r="C10" s="20"/>
       <c r="D10" s="105"/>
@@ -3422,10 +3205,10 @@
       <c r="I10" s="36"/>
       <c r="J10" s="108"/>
     </row>
-    <row r="11" spans="2:10" ht="16" thickBot="1">
+    <row r="11" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="41"/>
       <c r="C11" s="177" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D11" s="122"/>
       <c r="E11" s="122"/>
@@ -3435,7 +3218,7 @@
       <c r="I11" s="122"/>
       <c r="J11" s="108"/>
     </row>
-    <row r="12" spans="2:10" ht="16" thickBot="1">
+    <row r="12" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="41"/>
       <c r="C12" s="178" t="s">
         <v>43</v>
@@ -3457,7 +3240,7 @@
       </c>
       <c r="J12" s="108"/>
     </row>
-    <row r="13" spans="2:10" ht="16" thickBot="1">
+    <row r="13" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="41"/>
       <c r="C13" s="178" t="s">
         <v>44</v>
@@ -3479,7 +3262,7 @@
       </c>
       <c r="J13" s="108"/>
     </row>
-    <row r="14" spans="2:10" ht="16" thickBot="1">
+    <row r="14" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="41"/>
       <c r="C14" s="178" t="s">
         <v>47</v>
@@ -3501,7 +3284,7 @@
       </c>
       <c r="J14" s="108"/>
     </row>
-    <row r="15" spans="2:10" ht="16" thickBot="1">
+    <row r="15" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="41"/>
       <c r="C15" s="178" t="s">
         <v>46</v>
@@ -3523,7 +3306,7 @@
       </c>
       <c r="J15" s="108"/>
     </row>
-    <row r="16" spans="2:10" ht="16" thickBot="1">
+    <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="41"/>
       <c r="C16" s="178" t="s">
         <v>40</v>
@@ -3545,7 +3328,7 @@
       </c>
       <c r="J16" s="108"/>
     </row>
-    <row r="17" spans="2:10" ht="16" thickBot="1">
+    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="41"/>
       <c r="C17" s="178" t="s">
         <v>45</v>
@@ -3567,10 +3350,10 @@
       </c>
       <c r="J17" s="108"/>
     </row>
-    <row r="18" spans="2:10" ht="16" thickBot="1">
+    <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="41"/>
       <c r="C18" s="179" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>1</v>
@@ -3586,7 +3369,7 @@
       </c>
       <c r="J18" s="108"/>
     </row>
-    <row r="19" spans="2:10" ht="20" customHeight="1" thickBot="1">
+    <row r="19" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="42"/>
       <c r="C19" s="43"/>
       <c r="D19" s="43"/>
@@ -3604,11 +3387,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3623,28 +3401,27 @@
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="67" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="67" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="67" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="67" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="67" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="67" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="67" customWidth="1"/>
-    <col min="8" max="8" width="4.75" style="67" customWidth="1"/>
-    <col min="9" max="9" width="9.875" style="68" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="67" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="67" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="67" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="67" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="67" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="67" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="67" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="68" customWidth="1"/>
     <col min="10" max="10" width="3" style="68" customWidth="1"/>
-    <col min="11" max="11" width="8.5" style="68" customWidth="1"/>
-    <col min="12" max="12" width="2.75" style="68" customWidth="1"/>
-    <col min="13" max="13" width="9.625" style="68" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.75" style="68" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="68" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" style="68" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" style="68" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="68" customWidth="1"/>
     <col min="15" max="15" width="60" style="67" customWidth="1"/>
-    <col min="16" max="16384" width="10.625" style="67"/>
+    <col min="16" max="16384" width="10.7109375" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="16" thickBot="1"/>
-    <row r="2" spans="2:15">
+    <row r="1" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="69"/>
       <c r="C2" s="70"/>
       <c r="D2" s="70"/>
@@ -3660,7 +3437,7 @@
       <c r="N2" s="71"/>
       <c r="O2" s="72"/>
     </row>
-    <row r="3" spans="2:15" s="26" customFormat="1">
+    <row r="3" spans="2:15" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="25"/>
       <c r="C3" s="112" t="s">
         <v>30</v>
@@ -3683,14 +3460,14 @@
       </c>
       <c r="L3" s="65"/>
       <c r="M3" s="65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N3" s="65"/>
       <c r="O3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="73"/>
       <c r="C4" s="74"/>
       <c r="D4" s="74"/>
@@ -3706,7 +3483,7 @@
       <c r="N4" s="111"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="2:15" ht="16" thickBot="1">
+    <row r="5" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="73"/>
       <c r="C5" s="20" t="s">
         <v>55</v>
@@ -3724,7 +3501,7 @@
       <c r="N5" s="16"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="2:15" ht="16" thickBot="1">
+    <row r="6" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="73"/>
       <c r="C6" s="125" t="s">
         <v>38</v>
@@ -3750,7 +3527,7 @@
       <c r="N6" s="16"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="2:15" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="7" spans="2:15" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="126" t="s">
         <v>39</v>
@@ -3780,7 +3557,7 @@
       <c r="N7" s="16"/>
       <c r="O7" s="133"/>
     </row>
-    <row r="8" spans="2:15" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="8" spans="2:15" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="126" t="s">
         <v>82</v>
@@ -3810,10 +3587,10 @@
       <c r="N8" s="16"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="2:15" s="150" customFormat="1" ht="16" thickBot="1">
+    <row r="9" spans="2:15" s="150" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="146"/>
       <c r="C9" s="147" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D9" s="147"/>
       <c r="E9" s="147"/>
@@ -3836,7 +3613,7 @@
       <c r="N9" s="16"/>
       <c r="O9" s="145"/>
     </row>
-    <row r="10" spans="2:15" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="10" spans="2:15" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="127" t="s">
         <v>40</v>
@@ -3866,7 +3643,7 @@
       <c r="N10" s="16"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="73"/>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
@@ -3882,7 +3659,7 @@
       <c r="N11" s="16"/>
       <c r="O11" s="133"/>
     </row>
-    <row r="12" spans="2:15" ht="16" thickBot="1">
+    <row r="12" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="73"/>
       <c r="C12" s="20" t="s">
         <v>37</v>
@@ -3900,7 +3677,7 @@
       <c r="N12" s="16"/>
       <c r="O12" s="133"/>
     </row>
-    <row r="13" spans="2:15" ht="16" thickBot="1">
+    <row r="13" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="73"/>
       <c r="C13" s="128" t="s">
         <v>43</v>
@@ -3928,7 +3705,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="16" thickBot="1">
+    <row r="14" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="73"/>
       <c r="C14" s="128" t="s">
         <v>44</v>
@@ -3956,7 +3733,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="16" thickBot="1">
+    <row r="15" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="73"/>
       <c r="C15" s="128" t="s">
         <v>47</v>
@@ -3984,7 +3761,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="16" thickBot="1">
+    <row r="16" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="73"/>
       <c r="C16" s="128" t="s">
         <v>46</v>
@@ -4012,7 +3789,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="16" thickBot="1">
+    <row r="17" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="73"/>
       <c r="C17" s="128" t="s">
         <v>40</v>
@@ -4040,7 +3817,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="16" thickBot="1">
+    <row r="18" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="73"/>
       <c r="C18" s="128" t="s">
         <v>45</v>
@@ -4068,7 +3845,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="16" thickBot="1">
+    <row r="19" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="84"/>
       <c r="C19" s="85"/>
       <c r="D19" s="85"/>
@@ -4084,32 +3861,27 @@
       <c r="N19" s="85"/>
       <c r="O19" s="86"/>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M20" s="18"/>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M21" s="18"/>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M22" s="18"/>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M23" s="18"/>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M24" s="18"/>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="O25" s="133"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4124,23 +3896,23 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="49" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="49" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="49" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="49" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="49" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="49" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="49" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="49" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="49" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="49" customWidth="1"/>
     <col min="6" max="6" width="5" style="49" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="49" customWidth="1"/>
-    <col min="8" max="10" width="12.125" style="49" customWidth="1"/>
-    <col min="11" max="11" width="33.125" style="50" customWidth="1"/>
-    <col min="12" max="12" width="87.25" style="49" customWidth="1"/>
-    <col min="13" max="16384" width="33.125" style="49"/>
+    <col min="7" max="7" width="10.28515625" style="49" customWidth="1"/>
+    <col min="8" max="10" width="12.140625" style="49" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" style="50" customWidth="1"/>
+    <col min="12" max="12" width="87.28515625" style="49" customWidth="1"/>
+    <col min="13" max="16384" width="33.140625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="16" thickBot="1"/>
-    <row r="2" spans="2:12">
+    <row r="1" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="51"/>
       <c r="C2" s="52"/>
       <c r="D2" s="52"/>
@@ -4153,7 +3925,7 @@
       <c r="K2" s="53"/>
       <c r="L2" s="52"/>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="54"/>
       <c r="C3" s="55" t="s">
         <v>11</v>
@@ -4168,7 +3940,7 @@
       <c r="K3" s="56"/>
       <c r="L3" s="57"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="54"/>
       <c r="C4" s="57"/>
       <c r="D4" s="57"/>
@@ -4181,7 +3953,7 @@
       <c r="K4" s="58"/>
       <c r="L4" s="57"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="59"/>
       <c r="C5" s="60" t="s">
         <v>13</v>
@@ -4210,7 +3982,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="54"/>
       <c r="C6" s="55"/>
       <c r="D6" s="55"/>
@@ -4223,7 +3995,7 @@
       <c r="K6" s="56"/>
       <c r="L6" s="55"/>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="54"/>
       <c r="C7" s="151" t="s">
         <v>82</v>
@@ -4250,7 +4022,7 @@
       </c>
       <c r="L7" s="63"/>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="54"/>
       <c r="C8" s="152" t="s">
         <v>77</v>
@@ -4258,7 +4030,7 @@
       <c r="E8" s="137"/>
       <c r="F8" s="137"/>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="54"/>
       <c r="C9" s="153" t="s">
         <v>40</v>
@@ -4266,13 +4038,13 @@
       <c r="E9" s="137"/>
       <c r="F9" s="137"/>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="54"/>
       <c r="C10" s="121"/>
       <c r="E10" s="137"/>
       <c r="F10" s="137"/>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="54"/>
       <c r="C11" s="62" t="s">
         <v>68</v>
@@ -4297,7 +4069,7 @@
       </c>
       <c r="L11" s="63"/>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="54"/>
       <c r="C12" s="62"/>
       <c r="D12" s="62"/>
@@ -4310,18 +4082,18 @@
       <c r="K12" s="64"/>
       <c r="L12" s="63"/>
     </row>
-    <row r="13" spans="2:12" ht="17">
+    <row r="13" spans="2:12" ht="21" x14ac:dyDescent="0.25">
       <c r="B13" s="54"/>
       <c r="C13" s="62" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="62"/>
       <c r="E13" s="136" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F13" s="136"/>
       <c r="G13" s="62" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H13" s="66"/>
       <c r="I13" s="66">
@@ -4332,10 +4104,10 @@
       </c>
       <c r="K13" s="64"/>
       <c r="L13" s="138" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="54"/>
       <c r="E14" s="137"/>
       <c r="F14" s="137"/>
@@ -4343,11 +4115,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4359,20 +4126,20 @@
       <selection activeCell="L130" sqref="L130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="116" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="116" customWidth="1"/>
     <col min="2" max="2" width="5" style="116" customWidth="1"/>
     <col min="3" max="5" width="7" style="116"/>
-    <col min="6" max="6" width="10.875" style="116" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="116" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="116" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="116" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="7" style="116"/>
     <col min="12" max="12" width="10" style="116" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="7" style="116"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="16" thickBot="1"/>
-    <row r="2" spans="2:25" s="26" customFormat="1">
+    <row r="1" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="119"/>
       <c r="C2" s="120" t="s">
         <v>25</v>
@@ -4400,7 +4167,7 @@
       <c r="T2" s="120"/>
       <c r="U2" s="120"/>
     </row>
-    <row r="3" spans="2:25">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B3" s="117"/>
       <c r="C3" s="118"/>
       <c r="D3" s="118"/>
@@ -4422,7 +4189,7 @@
       <c r="T3" s="118"/>
       <c r="U3" s="118"/>
     </row>
-    <row r="4" spans="2:25" customFormat="1" ht="16">
+    <row r="4" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="117"/>
       <c r="C4" s="129" t="s">
         <v>57</v>
@@ -4450,7 +4217,7 @@
       <c r="X4" s="129"/>
       <c r="Y4" s="129"/>
     </row>
-    <row r="5" spans="2:25" customFormat="1" ht="16">
+    <row r="5" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="117"/>
       <c r="C5" s="129"/>
       <c r="D5" s="129"/>
@@ -4476,7 +4243,7 @@
       <c r="X5" s="129"/>
       <c r="Y5" s="129"/>
     </row>
-    <row r="6" spans="2:25" customFormat="1" ht="16">
+    <row r="6" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="117"/>
       <c r="C6" s="129"/>
       <c r="D6" s="129"/>
@@ -4502,7 +4269,7 @@
       <c r="X6" s="129"/>
       <c r="Y6" s="129"/>
     </row>
-    <row r="7" spans="2:25" customFormat="1" ht="16">
+    <row r="7" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="117"/>
       <c r="C7" s="129"/>
       <c r="D7" s="129"/>
@@ -4528,7 +4295,7 @@
       <c r="X7" s="129"/>
       <c r="Y7" s="129"/>
     </row>
-    <row r="8" spans="2:25" customFormat="1" ht="16">
+    <row r="8" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="117"/>
       <c r="C8" s="129"/>
       <c r="D8" s="129">
@@ -4564,7 +4331,7 @@
       <c r="X8" s="129"/>
       <c r="Y8" s="129"/>
     </row>
-    <row r="9" spans="2:25" customFormat="1" ht="16">
+    <row r="9" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="117"/>
       <c r="C9" s="129"/>
       <c r="D9" s="129"/>
@@ -4595,7 +4362,7 @@
       <c r="X9" s="129"/>
       <c r="Y9" s="129"/>
     </row>
-    <row r="10" spans="2:25" customFormat="1" ht="16">
+    <row r="10" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="117"/>
       <c r="C10" s="129"/>
       <c r="D10" s="129"/>
@@ -4627,7 +4394,7 @@
       <c r="X10" s="129"/>
       <c r="Y10" s="129"/>
     </row>
-    <row r="11" spans="2:25" customFormat="1" ht="16">
+    <row r="11" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="117"/>
       <c r="C11" s="129"/>
       <c r="D11" s="129"/>
@@ -4659,7 +4426,7 @@
       <c r="X11" s="129"/>
       <c r="Y11" s="129"/>
     </row>
-    <row r="12" spans="2:25" customFormat="1" ht="16">
+    <row r="12" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="117"/>
       <c r="C12" s="129"/>
       <c r="D12" s="129"/>
@@ -4691,7 +4458,7 @@
       <c r="X12" s="129"/>
       <c r="Y12" s="129"/>
     </row>
-    <row r="13" spans="2:25" customFormat="1" ht="16">
+    <row r="13" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="117"/>
       <c r="C13" s="129"/>
       <c r="D13" s="129"/>
@@ -4717,7 +4484,7 @@
       <c r="X13" s="129"/>
       <c r="Y13" s="129"/>
     </row>
-    <row r="14" spans="2:25" customFormat="1" ht="16">
+    <row r="14" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="117"/>
       <c r="C14" s="129"/>
       <c r="D14" s="129"/>
@@ -4743,7 +4510,7 @@
       <c r="X14" s="129"/>
       <c r="Y14" s="129"/>
     </row>
-    <row r="15" spans="2:25" customFormat="1" ht="16">
+    <row r="15" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="117"/>
       <c r="C15" s="129"/>
       <c r="D15" s="129"/>
@@ -4769,7 +4536,7 @@
       <c r="X15" s="129"/>
       <c r="Y15" s="129"/>
     </row>
-    <row r="16" spans="2:25" customFormat="1" ht="16">
+    <row r="16" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="117"/>
       <c r="C16" s="129"/>
       <c r="D16" s="129"/>
@@ -4795,7 +4562,7 @@
       <c r="X16" s="129"/>
       <c r="Y16" s="129"/>
     </row>
-    <row r="17" spans="2:25" customFormat="1" ht="16">
+    <row r="17" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="117"/>
       <c r="C17" s="129"/>
       <c r="D17" s="129"/>
@@ -4821,7 +4588,7 @@
       <c r="X17" s="129"/>
       <c r="Y17" s="129"/>
     </row>
-    <row r="18" spans="2:25" customFormat="1" ht="16">
+    <row r="18" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="117"/>
       <c r="C18" s="129"/>
       <c r="D18" s="129"/>
@@ -4847,7 +4614,7 @@
       <c r="X18" s="129"/>
       <c r="Y18" s="129"/>
     </row>
-    <row r="19" spans="2:25" customFormat="1" ht="16">
+    <row r="19" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="117"/>
       <c r="C19" s="129"/>
       <c r="D19" s="129"/>
@@ -4873,7 +4640,7 @@
       <c r="X19" s="129"/>
       <c r="Y19" s="129"/>
     </row>
-    <row r="20" spans="2:25" customFormat="1" ht="16">
+    <row r="20" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="117"/>
       <c r="C20" s="129"/>
       <c r="D20" s="129"/>
@@ -4899,7 +4666,7 @@
       <c r="X20" s="129"/>
       <c r="Y20" s="129"/>
     </row>
-    <row r="21" spans="2:25" customFormat="1" ht="16">
+    <row r="21" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="117"/>
       <c r="C21" s="129"/>
       <c r="D21" s="129"/>
@@ -4925,7 +4692,7 @@
       <c r="X21" s="129"/>
       <c r="Y21" s="129"/>
     </row>
-    <row r="22" spans="2:25" customFormat="1" ht="16">
+    <row r="22" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="117"/>
       <c r="C22" s="129"/>
       <c r="D22" s="129"/>
@@ -4951,7 +4718,7 @@
       <c r="X22" s="129"/>
       <c r="Y22" s="129"/>
     </row>
-    <row r="23" spans="2:25" customFormat="1" ht="16">
+    <row r="23" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="117"/>
       <c r="C23" s="129"/>
       <c r="D23" s="129"/>
@@ -4977,7 +4744,7 @@
       <c r="X23" s="129"/>
       <c r="Y23" s="129"/>
     </row>
-    <row r="24" spans="2:25" customFormat="1" ht="16">
+    <row r="24" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="117"/>
       <c r="C24" s="129"/>
       <c r="D24" s="129"/>
@@ -5003,7 +4770,7 @@
       <c r="X24" s="129"/>
       <c r="Y24" s="129"/>
     </row>
-    <row r="25" spans="2:25" customFormat="1" ht="16">
+    <row r="25" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="117"/>
       <c r="C25" s="129"/>
       <c r="D25" s="129"/>
@@ -5029,7 +4796,7 @@
       <c r="X25" s="129"/>
       <c r="Y25" s="129"/>
     </row>
-    <row r="26" spans="2:25" customFormat="1" ht="16">
+    <row r="26" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="117"/>
       <c r="C26" s="129"/>
       <c r="D26" s="129"/>
@@ -5055,7 +4822,7 @@
       <c r="X26" s="129"/>
       <c r="Y26" s="129"/>
     </row>
-    <row r="27" spans="2:25" customFormat="1" ht="16">
+    <row r="27" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="117"/>
       <c r="C27" s="129"/>
       <c r="D27" s="129"/>
@@ -5081,7 +4848,7 @@
       <c r="X27" s="129"/>
       <c r="Y27" s="129"/>
     </row>
-    <row r="28" spans="2:25" customFormat="1" ht="16">
+    <row r="28" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="117"/>
       <c r="C28" s="129"/>
       <c r="D28" s="129"/>
@@ -5107,106 +4874,106 @@
       <c r="X28" s="129"/>
       <c r="Y28" s="129"/>
     </row>
-    <row r="29" spans="2:25" customFormat="1" ht="16">
+    <row r="29" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="117"/>
     </row>
-    <row r="30" spans="2:25" customFormat="1" ht="16">
+    <row r="30" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="117"/>
     </row>
-    <row r="31" spans="2:25" customFormat="1" ht="16">
+    <row r="31" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="117"/>
     </row>
-    <row r="32" spans="2:25" customFormat="1" ht="16">
+    <row r="32" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="117"/>
     </row>
-    <row r="33" spans="2:2" customFormat="1" ht="16">
+    <row r="33" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="117"/>
     </row>
-    <row r="34" spans="2:2" customFormat="1" ht="16">
+    <row r="34" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="117"/>
     </row>
-    <row r="35" spans="2:2" customFormat="1" ht="16">
+    <row r="35" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="117"/>
     </row>
-    <row r="36" spans="2:2" customFormat="1" ht="16">
+    <row r="36" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="117"/>
     </row>
-    <row r="37" spans="2:2" customFormat="1" ht="16">
+    <row r="37" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="117"/>
     </row>
-    <row r="38" spans="2:2" customFormat="1" ht="16">
+    <row r="38" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="117"/>
     </row>
-    <row r="39" spans="2:2" customFormat="1" ht="16">
+    <row r="39" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="117"/>
     </row>
-    <row r="40" spans="2:2" customFormat="1" ht="16">
+    <row r="40" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="117"/>
     </row>
-    <row r="41" spans="2:2" customFormat="1" ht="16">
+    <row r="41" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="117"/>
     </row>
-    <row r="42" spans="2:2" customFormat="1" ht="16">
+    <row r="42" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="117"/>
     </row>
-    <row r="43" spans="2:2" customFormat="1" ht="16">
+    <row r="43" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="117"/>
     </row>
-    <row r="44" spans="2:2" customFormat="1" ht="16">
+    <row r="44" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="117"/>
     </row>
-    <row r="45" spans="2:2" customFormat="1" ht="16">
+    <row r="45" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="117"/>
     </row>
-    <row r="46" spans="2:2" customFormat="1" ht="16">
+    <row r="46" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="117"/>
     </row>
-    <row r="47" spans="2:2" customFormat="1" ht="16">
+    <row r="47" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="117"/>
     </row>
-    <row r="48" spans="2:2" customFormat="1" ht="16">
+    <row r="48" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="117"/>
     </row>
-    <row r="49" spans="1:25" customFormat="1" ht="16">
+    <row r="49" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="117"/>
     </row>
-    <row r="50" spans="1:25" customFormat="1" ht="16">
+    <row r="50" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="117"/>
     </row>
-    <row r="51" spans="1:25" customFormat="1" ht="16">
+    <row r="51" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="117"/>
     </row>
-    <row r="52" spans="1:25" customFormat="1" ht="16">
+    <row r="52" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="117"/>
     </row>
-    <row r="53" spans="1:25" customFormat="1" ht="16">
+    <row r="53" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="117"/>
     </row>
-    <row r="54" spans="1:25" customFormat="1" ht="16">
+    <row r="54" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="117"/>
     </row>
-    <row r="55" spans="1:25" customFormat="1" ht="16">
+    <row r="55" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="117"/>
     </row>
-    <row r="56" spans="1:25" customFormat="1" ht="16">
+    <row r="56" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="117"/>
     </row>
-    <row r="57" spans="1:25" customFormat="1" ht="16">
+    <row r="57" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="117"/>
     </row>
-    <row r="58" spans="1:25" customFormat="1" ht="16">
+    <row r="58" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="117"/>
     </row>
-    <row r="59" spans="1:25" customFormat="1" ht="16">
+    <row r="59" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="117"/>
     </row>
-    <row r="60" spans="1:25" customFormat="1" ht="16">
+    <row r="60" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="117"/>
     </row>
-    <row r="61" spans="1:25" customFormat="1" ht="17" thickBot="1">
+    <row r="61" spans="1:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B61" s="117"/>
     </row>
-    <row r="62" spans="1:25" s="26" customFormat="1" ht="16">
+    <row r="62" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62"/>
       <c r="B62" s="119"/>
       <c r="C62" s="120" t="s">
@@ -5235,7 +5002,7 @@
       <c r="T62" s="120"/>
       <c r="U62" s="120"/>
     </row>
-    <row r="63" spans="1:25" customFormat="1" ht="16">
+    <row r="63" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="117"/>
       <c r="C63" s="132"/>
       <c r="D63" s="129"/>
@@ -5261,7 +5028,7 @@
       <c r="X63" s="129"/>
       <c r="Y63" s="129"/>
     </row>
-    <row r="64" spans="1:25" customFormat="1" ht="17">
+    <row r="64" spans="1:25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="B64" s="117"/>
       <c r="C64" s="138" t="s">
         <v>67</v>
@@ -5289,7 +5056,7 @@
       <c r="X64" s="129"/>
       <c r="Y64" s="129"/>
     </row>
-    <row r="65" spans="2:25" customFormat="1" ht="16">
+    <row r="65" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="117"/>
       <c r="C65" s="129"/>
       <c r="D65" s="129"/>
@@ -5315,7 +5082,7 @@
       <c r="X65" s="129"/>
       <c r="Y65" s="129"/>
     </row>
-    <row r="66" spans="2:25" customFormat="1" ht="16">
+    <row r="66" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="117"/>
       <c r="C66" s="129"/>
       <c r="D66" s="129"/>
@@ -5341,17 +5108,17 @@
       <c r="X66" s="129"/>
       <c r="Y66" s="129"/>
     </row>
-    <row r="68" spans="2:25">
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="D68" s="116">
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="2:25">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E73" s="139" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="74" spans="2:25">
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E74" s="129" t="s">
         <v>43</v>
       </c>
@@ -5368,7 +5135,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="75" spans="2:25">
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E75" s="129" t="s">
         <v>44</v>
       </c>
@@ -5383,7 +5150,7 @@
       <c r="J75" s="129"/>
       <c r="K75" s="129"/>
     </row>
-    <row r="76" spans="2:25">
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E76" s="129" t="s">
         <v>47</v>
       </c>
@@ -5398,7 +5165,7 @@
       <c r="J76" s="129"/>
       <c r="K76" s="129"/>
     </row>
-    <row r="77" spans="2:25">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="D77" s="129"/>
       <c r="E77" s="129" t="s">
         <v>46</v>
@@ -5414,7 +5181,7 @@
       <c r="J77" s="129"/>
       <c r="K77" s="129"/>
     </row>
-    <row r="78" spans="2:25">
+    <row r="78" spans="2:25" x14ac:dyDescent="0.2">
       <c r="D78" s="129"/>
       <c r="E78" s="129" t="s">
         <v>40</v>
@@ -5430,7 +5197,7 @@
       <c r="J78" s="129"/>
       <c r="K78" s="129"/>
     </row>
-    <row r="79" spans="2:25">
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="D79" s="129"/>
       <c r="E79" s="129" t="s">
         <v>45</v>
@@ -5448,7 +5215,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:25">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="D80" s="129"/>
       <c r="E80" s="129"/>
       <c r="F80" s="129"/>
@@ -5457,7 +5224,7 @@
       <c r="I80" s="129"/>
       <c r="J80" s="129"/>
     </row>
-    <row r="81" spans="4:11">
+    <row r="81" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D81" s="129"/>
       <c r="E81" s="129"/>
       <c r="F81" s="129"/>
@@ -5466,7 +5233,7 @@
       <c r="I81" s="129"/>
       <c r="J81" s="129"/>
     </row>
-    <row r="82" spans="4:11">
+    <row r="82" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D82" s="129"/>
       <c r="E82" s="129" t="s">
         <v>43</v>
@@ -5485,7 +5252,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="83" spans="4:11">
+    <row r="83" spans="4:11" x14ac:dyDescent="0.2">
       <c r="E83" s="129" t="s">
         <v>44</v>
       </c>
@@ -5501,7 +5268,7 @@
       <c r="J83" s="129"/>
       <c r="K83" s="129"/>
     </row>
-    <row r="84" spans="4:11">
+    <row r="84" spans="4:11" x14ac:dyDescent="0.2">
       <c r="E84" s="129" t="s">
         <v>47</v>
       </c>
@@ -5517,7 +5284,7 @@
       <c r="J84" s="129"/>
       <c r="K84" s="129"/>
     </row>
-    <row r="85" spans="4:11">
+    <row r="85" spans="4:11" x14ac:dyDescent="0.2">
       <c r="E85" s="129" t="s">
         <v>46</v>
       </c>
@@ -5533,7 +5300,7 @@
       <c r="J85" s="129"/>
       <c r="K85" s="129"/>
     </row>
-    <row r="86" spans="4:11">
+    <row r="86" spans="4:11" x14ac:dyDescent="0.2">
       <c r="E86" s="129" t="s">
         <v>40</v>
       </c>
@@ -5549,7 +5316,7 @@
       <c r="J86" s="129"/>
       <c r="K86" s="129"/>
     </row>
-    <row r="87" spans="4:11">
+    <row r="87" spans="4:11" x14ac:dyDescent="0.2">
       <c r="E87" s="129" t="s">
         <v>45</v>
       </c>
@@ -5567,7 +5334,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="90" spans="4:11">
+    <row r="90" spans="4:11" x14ac:dyDescent="0.2">
       <c r="E90" s="140"/>
       <c r="F90" s="141"/>
       <c r="G90" s="141"/>
@@ -5576,7 +5343,7 @@
       <c r="J90" s="141"/>
       <c r="K90" s="141"/>
     </row>
-    <row r="91" spans="4:11">
+    <row r="91" spans="4:11" x14ac:dyDescent="0.2">
       <c r="E91" s="129"/>
       <c r="F91" s="129"/>
       <c r="G91" s="129"/>
@@ -5585,7 +5352,7 @@
       <c r="J91" s="129"/>
       <c r="K91" s="129"/>
     </row>
-    <row r="92" spans="4:11">
+    <row r="92" spans="4:11" x14ac:dyDescent="0.2">
       <c r="E92" s="129"/>
       <c r="F92" s="129"/>
       <c r="G92" s="129"/>
@@ -5594,7 +5361,7 @@
       <c r="J92" s="129"/>
       <c r="K92" s="129"/>
     </row>
-    <row r="93" spans="4:11">
+    <row r="93" spans="4:11" x14ac:dyDescent="0.2">
       <c r="E93" s="129"/>
       <c r="F93" s="129"/>
       <c r="G93" s="129"/>
@@ -5603,7 +5370,7 @@
       <c r="J93" s="129"/>
       <c r="K93" s="129"/>
     </row>
-    <row r="94" spans="4:11">
+    <row r="94" spans="4:11" x14ac:dyDescent="0.2">
       <c r="E94" s="129"/>
       <c r="F94" s="129"/>
       <c r="G94" s="129"/>
@@ -5612,7 +5379,7 @@
       <c r="J94" s="129"/>
       <c r="K94" s="129"/>
     </row>
-    <row r="95" spans="4:11">
+    <row r="95" spans="4:11" x14ac:dyDescent="0.2">
       <c r="E95" s="129"/>
       <c r="F95" s="129"/>
       <c r="G95" s="129"/>
@@ -5621,7 +5388,7 @@
       <c r="J95" s="129"/>
       <c r="K95" s="129"/>
     </row>
-    <row r="96" spans="4:11">
+    <row r="96" spans="4:11" x14ac:dyDescent="0.2">
       <c r="E96" s="129"/>
       <c r="F96" s="129"/>
       <c r="G96" s="129"/>
@@ -5630,7 +5397,7 @@
       <c r="J96" s="129"/>
       <c r="K96" s="129"/>
     </row>
-    <row r="97" spans="5:11">
+    <row r="97" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E97" s="129"/>
       <c r="F97" s="129"/>
       <c r="G97" s="129"/>
@@ -5639,7 +5406,7 @@
       <c r="J97" s="129"/>
       <c r="K97" s="141"/>
     </row>
-    <row r="98" spans="5:11">
+    <row r="98" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E98" s="129"/>
       <c r="F98" s="129"/>
       <c r="G98" s="129"/>
@@ -5648,7 +5415,7 @@
       <c r="J98" s="129"/>
       <c r="K98" s="141"/>
     </row>
-    <row r="99" spans="5:11">
+    <row r="99" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E99" s="129"/>
       <c r="F99" s="129"/>
       <c r="G99" s="129"/>
@@ -5657,7 +5424,7 @@
       <c r="J99" s="129"/>
       <c r="K99" s="129"/>
     </row>
-    <row r="100" spans="5:11">
+    <row r="100" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E100" s="129"/>
       <c r="F100" s="129"/>
       <c r="G100" s="129"/>
@@ -5666,7 +5433,7 @@
       <c r="J100" s="129"/>
       <c r="K100" s="129"/>
     </row>
-    <row r="101" spans="5:11">
+    <row r="101" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E101" s="129"/>
       <c r="F101" s="129"/>
       <c r="G101" s="129"/>
@@ -5675,7 +5442,7 @@
       <c r="J101" s="129"/>
       <c r="K101" s="129"/>
     </row>
-    <row r="102" spans="5:11">
+    <row r="102" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E102" s="129"/>
       <c r="F102" s="129"/>
       <c r="G102" s="129"/>
@@ -5684,7 +5451,7 @@
       <c r="J102" s="129"/>
       <c r="K102" s="129"/>
     </row>
-    <row r="103" spans="5:11">
+    <row r="103" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E103" s="129"/>
       <c r="F103" s="129"/>
       <c r="G103" s="129"/>
@@ -5693,7 +5460,7 @@
       <c r="J103" s="129"/>
       <c r="K103" s="129"/>
     </row>
-    <row r="104" spans="5:11">
+    <row r="104" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E104" s="129"/>
       <c r="F104" s="129"/>
       <c r="G104" s="129"/>
@@ -5702,9 +5469,9 @@
       <c r="J104" s="129"/>
       <c r="K104" s="129"/>
     </row>
-    <row r="122" spans="1:25" customFormat="1" ht="16"/>
-    <row r="123" spans="1:25" customFormat="1" ht="17" thickBot="1"/>
-    <row r="124" spans="1:25" s="26" customFormat="1" ht="16">
+    <row r="122" spans="1:25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="123" spans="1:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124"/>
       <c r="B124" s="119"/>
       <c r="C124" s="120" t="s">
@@ -5733,7 +5500,7 @@
       <c r="T124" s="120"/>
       <c r="U124" s="120"/>
     </row>
-    <row r="125" spans="1:25" customFormat="1" ht="16">
+    <row r="125" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B125" s="117"/>
       <c r="C125" s="132"/>
       <c r="D125" s="129"/>
@@ -5759,10 +5526,10 @@
       <c r="X125" s="129"/>
       <c r="Y125" s="129"/>
     </row>
-    <row r="126" spans="1:25" customFormat="1" ht="17">
+    <row r="126" spans="1:25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="B126" s="117"/>
       <c r="C126" s="138" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D126" s="129"/>
       <c r="E126" s="129"/>
@@ -5787,7 +5554,7 @@
       <c r="X126" s="129"/>
       <c r="Y126" s="129"/>
     </row>
-    <row r="127" spans="1:25" customFormat="1" ht="16">
+    <row r="127" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B127" s="117"/>
       <c r="C127" s="129"/>
       <c r="D127" s="129"/>
@@ -5813,42 +5580,42 @@
       <c r="X127" s="129"/>
       <c r="Y127" s="129"/>
     </row>
-    <row r="128" spans="1:25" customFormat="1" ht="16"/>
-    <row r="129" spans="6:17" customFormat="1" ht="16">
+    <row r="128" spans="1:25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="129" spans="6:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F129" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="130" spans="6:17" customFormat="1" ht="16">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="130" spans="6:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="L130" s="175" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M130" s="175" t="s">
+        <v>92</v>
+      </c>
+      <c r="N130" s="175" t="s">
         <v>93</v>
       </c>
-      <c r="N130" s="175" t="s">
+      <c r="O130" s="175" t="s">
         <v>94</v>
       </c>
-      <c r="O130" s="175" t="s">
+      <c r="P130" s="175" t="s">
         <v>95</v>
       </c>
-      <c r="P130" s="175" t="s">
+      <c r="Q130" s="175" t="s">
         <v>96</v>
       </c>
-      <c r="Q130" s="175" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="131" spans="6:17">
+    </row>
+    <row r="131" spans="6:17" x14ac:dyDescent="0.2">
       <c r="G131" s="116">
         <f>AVERAGE(P131:P153)</f>
         <v>30.383913043478252</v>
       </c>
       <c r="H131" s="161" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I131" s="161" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L131" s="176">
         <v>42411</v>
@@ -5869,12 +5636,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="6:17">
+    <row r="132" spans="6:17" x14ac:dyDescent="0.2">
       <c r="G132" s="116">
         <v>158.98729499999999</v>
       </c>
       <c r="H132" s="161" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L132" s="176">
         <v>42410</v>
@@ -5895,13 +5662,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="6:17">
+    <row r="133" spans="6:17" x14ac:dyDescent="0.2">
       <c r="G133" s="116">
         <f>G131/litres_per_barrel</f>
         <v>0.19110906342219516</v>
       </c>
       <c r="H133" s="161" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L133" s="176">
         <v>42409</v>
@@ -5922,13 +5689,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="6:17">
+    <row r="134" spans="6:17" x14ac:dyDescent="0.2">
       <c r="G134" s="116">
         <f>dollar_per_euro</f>
         <v>1.0965</v>
       </c>
       <c r="H134" s="161" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L134" s="176">
         <v>42408</v>
@@ -5949,13 +5716,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="6:17">
+    <row r="135" spans="6:17" x14ac:dyDescent="0.2">
       <c r="G135" s="116">
         <f>G133/G134</f>
         <v>0.17429007152046982</v>
       </c>
       <c r="H135" s="161" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L135" s="176">
         <v>42405</v>
@@ -5976,7 +5743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="6:17">
+    <row r="136" spans="6:17" x14ac:dyDescent="0.2">
       <c r="G136" s="116">
         <f>F11</f>
         <v>34.44</v>
@@ -6003,7 +5770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="6:17">
+    <row r="137" spans="6:17" x14ac:dyDescent="0.2">
       <c r="G137" s="169">
         <f>G135/G136</f>
         <v>5.0606873263783344E-3</v>
@@ -6030,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="6:17">
+    <row r="138" spans="6:17" x14ac:dyDescent="0.2">
       <c r="L138" s="176">
         <v>42402</v>
       </c>
@@ -6050,7 +5817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="6:17">
+    <row r="139" spans="6:17" x14ac:dyDescent="0.2">
       <c r="L139" s="176">
         <v>42401</v>
       </c>
@@ -6070,7 +5837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="6:17">
+    <row r="140" spans="6:17" x14ac:dyDescent="0.2">
       <c r="L140" s="176">
         <v>42398</v>
       </c>
@@ -6090,7 +5857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="6:17">
+    <row r="141" spans="6:17" x14ac:dyDescent="0.2">
       <c r="L141" s="176">
         <v>42397</v>
       </c>
@@ -6110,7 +5877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="6:17">
+    <row r="142" spans="6:17" x14ac:dyDescent="0.2">
       <c r="L142" s="176">
         <v>42396</v>
       </c>
@@ -6130,7 +5897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="6:17">
+    <row r="143" spans="6:17" x14ac:dyDescent="0.2">
       <c r="L143" s="176">
         <v>42395</v>
       </c>
@@ -6150,7 +5917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="6:17">
+    <row r="144" spans="6:17" x14ac:dyDescent="0.2">
       <c r="L144" s="176">
         <v>42394</v>
       </c>
@@ -6170,7 +5937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="12:17">
+    <row r="145" spans="12:17" x14ac:dyDescent="0.2">
       <c r="L145" s="176">
         <v>42391</v>
       </c>
@@ -6190,7 +5957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="12:17">
+    <row r="146" spans="12:17" x14ac:dyDescent="0.2">
       <c r="L146" s="176">
         <v>42390</v>
       </c>
@@ -6210,7 +5977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="12:17">
+    <row r="147" spans="12:17" x14ac:dyDescent="0.2">
       <c r="L147" s="176">
         <v>42389</v>
       </c>
@@ -6230,7 +5997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="12:17">
+    <row r="148" spans="12:17" x14ac:dyDescent="0.2">
       <c r="L148" s="176">
         <v>42388</v>
       </c>
@@ -6250,7 +6017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="12:17">
+    <row r="149" spans="12:17" x14ac:dyDescent="0.2">
       <c r="L149" s="176">
         <v>42387</v>
       </c>
@@ -6270,7 +6037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="12:17">
+    <row r="150" spans="12:17" x14ac:dyDescent="0.2">
       <c r="L150" s="176">
         <v>42384</v>
       </c>
@@ -6290,7 +6057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="12:17">
+    <row r="151" spans="12:17" x14ac:dyDescent="0.2">
       <c r="L151" s="176">
         <v>42383</v>
       </c>
@@ -6310,7 +6077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="12:17">
+    <row r="152" spans="12:17" x14ac:dyDescent="0.2">
       <c r="L152" s="176">
         <v>42382</v>
       </c>
@@ -6330,7 +6097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="12:17">
+    <row r="153" spans="12:17" x14ac:dyDescent="0.2">
       <c r="L153" s="176">
         <v>42381</v>
       </c>
@@ -6350,7 +6117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="12:17">
+    <row r="154" spans="12:17" x14ac:dyDescent="0.2">
       <c r="L154" s="176">
         <v>42380</v>
       </c>
@@ -6374,11 +6141,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6390,26 +6152,26 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="3.25" customWidth="1"/>
+    <col min="1" max="2" width="3.28515625" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="4" max="4" width="12.75" customWidth="1"/>
-    <col min="5" max="5" width="17.375" customWidth="1"/>
-    <col min="6" max="7" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="7" width="17.7109375" customWidth="1"/>
     <col min="8" max="8" width="55" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.625" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="161" customFormat="1" ht="15">
+    <row r="1" spans="2:9" s="161" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D1" s="162"/>
       <c r="E1" s="162"/>
       <c r="F1" s="162"/>
       <c r="G1" s="162"/>
     </row>
-    <row r="2" spans="2:9" s="161" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="2:9" s="161" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="180" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="181"/>
       <c r="D2" s="181"/>
@@ -6417,7 +6179,7 @@
       <c r="F2" s="162"/>
       <c r="G2" s="162"/>
     </row>
-    <row r="3" spans="2:9" s="161" customFormat="1" ht="15">
+    <row r="3" spans="2:9" s="161" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="183"/>
       <c r="C3" s="184"/>
       <c r="D3" s="184"/>
@@ -6425,18 +6187,18 @@
       <c r="F3" s="162"/>
       <c r="G3" s="162"/>
     </row>
-    <row r="4" spans="2:9" s="161" customFormat="1" ht="15">
-      <c r="B4" s="192"/>
-      <c r="C4" s="193"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="194"/>
+    <row r="4" spans="2:9" s="161" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="189"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="191"/>
       <c r="F4" s="162"/>
       <c r="G4" s="162"/>
     </row>
-    <row r="5" spans="2:9" s="161" customFormat="1" thickBot="1">
+    <row r="5" spans="2:9" s="161" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="162"/>
     </row>
-    <row r="6" spans="2:9" s="161" customFormat="1" ht="15">
+    <row r="6" spans="2:9" s="161" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="163"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -6446,10 +6208,10 @@
       <c r="H6" s="22"/>
       <c r="I6" s="164"/>
     </row>
-    <row r="7" spans="2:9" s="45" customFormat="1" ht="18">
+    <row r="7" spans="2:9" s="45" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="103"/>
       <c r="C7" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D7" s="104" t="s">
         <v>5</v>
@@ -6461,36 +6223,36 @@
         <v>4</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H7" s="21" t="s">
         <v>0</v>
       </c>
       <c r="I7" s="107"/>
     </row>
-    <row r="8" spans="2:9" ht="19" thickBot="1">
+    <row r="8" spans="2:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="25"/>
       <c r="I8" s="46"/>
     </row>
-    <row r="9" spans="2:9" s="45" customFormat="1" ht="19" thickBot="1">
+    <row r="9" spans="2:9" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="25"/>
       <c r="C9" s="165" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>89</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>90</v>
       </c>
       <c r="E9" s="166">
         <v>1.0965</v>
       </c>
       <c r="F9" s="165" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G9" s="167">
         <v>42412</v>
       </c>
       <c r="H9" s="168" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I9" s="46"/>
     </row>
@@ -6500,10 +6262,5 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/carriers_source_analyses/crude_oil.carrier.xlsx
+++ b/carriers_source_analyses/crude_oil.carrier.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/carriers_source_analyses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/carriers_source_analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -22,7 +22,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="dollar_data">Exchange_rates!$E$9:$H$9</definedName>
@@ -363,9 +362,6 @@
     <t>Running Month Average</t>
   </si>
   <si>
-    <t>http://www.ecb.europa.eu/stats/exchange/eurofxref/html/eurofxref-graph-usd.en.html</t>
-  </si>
-  <si>
     <t>Open Price</t>
   </si>
   <si>
@@ -443,6 +439,9 @@
 - The carrier analysis can be imported on ETSource by running the following rake task: rake import:carrier CARRIER="carrier name" (eg rake import:carrier CARRIER=crude_oil) 
 - The fce analysis can be imported on ETSource by running the following rake task: rake import:fce DATASET="dataset" CARRIER="carrier name" (eg rake import:fce DATASET=nl CARRIER=bio_ethanol)</t>
   </si>
+  <si>
+    <t>https://www.ecb.europa.eu/stats/policy_and_exchange_rates/euro_reference_exchange_rates/html/eurofxref-graph-usd.en.html</t>
+  </si>
 </sst>
 </file>
 
@@ -458,12 +457,19 @@
     <numFmt numFmtId="170" formatCode="0.00000000000"/>
     <numFmt numFmtId="171" formatCode="0.0000000000000000"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1068,672 +1074,675 @@
   </borders>
   <cellStyleXfs count="345">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="21" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="166" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="30" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="29" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="9" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="10" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="27" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="28" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2297,27 +2306,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover sheet"/>
-      <sheetName val="Dashboard"/>
-      <sheetName val="carrier_manager"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="update_attributes"/>
-      <definedName name="update_fce"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2647,11 +2635,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="31" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="2.140625" style="23" customWidth="1"/>
-    <col min="5" max="16384" width="10.7109375" style="23"/>
+    <col min="1" max="1" width="3.5" style="31" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="2.1640625" style="23" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -2845,23 +2833,23 @@
   </sheetPr>
   <dimension ref="B1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="38" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="38" customWidth="1"/>
     <col min="3" max="3" width="46" style="38" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="38" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="38" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="38" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" style="38" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="38" customWidth="1"/>
     <col min="7" max="7" width="45" style="38" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="38" customWidth="1"/>
-    <col min="9" max="9" width="51.42578125" style="38" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="38" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="38"/>
+    <col min="8" max="8" width="5.1640625" style="38" customWidth="1"/>
+    <col min="9" max="9" width="51.5" style="38" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="38" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.2">
@@ -2871,22 +2859,22 @@
       <c r="G1" s="36"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="180" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="192"/>
+      <c r="B2" s="183" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="185"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="183"/>
-      <c r="C3" s="184"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="184"/>
-      <c r="F3" s="184"/>
-      <c r="G3" s="193"/>
+      <c r="B3" s="186"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="188"/>
     </row>
     <row r="4" spans="2:10" ht="76" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="189"/>
@@ -2894,7 +2882,7 @@
       <c r="D4" s="190"/>
       <c r="E4" s="190"/>
       <c r="F4" s="190"/>
-      <c r="G4" s="194"/>
+      <c r="G4" s="191"/>
     </row>
     <row r="5" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="36"/>
@@ -2985,15 +2973,15 @@
       <c r="D11" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="173">
+      <c r="E11" s="171">
         <f>'Research data'!G7</f>
-        <v>5.0606873263783344E-3</v>
+        <v>7.0428439420318909E-3</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="122"/>
       <c r="H11" s="32"/>
-      <c r="I11" s="168" t="s">
-        <v>104</v>
+      <c r="I11" s="166" t="s">
+        <v>103</v>
       </c>
       <c r="J11" s="46"/>
     </row>
@@ -3019,8 +3007,8 @@
     </row>
     <row r="13" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="25"/>
-      <c r="C13" s="174" t="s">
-        <v>106</v>
+      <c r="C13" s="172" t="s">
+        <v>105</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>78</v>
@@ -3090,17 +3078,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="38" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="38" customWidth="1"/>
     <col min="3" max="3" width="46" style="38" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="38" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="38" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="38" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="38" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="38" customWidth="1"/>
     <col min="7" max="7" width="45" style="38" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="38" customWidth="1"/>
-    <col min="9" max="9" width="51.42578125" style="38" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="38" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="38"/>
+    <col min="8" max="8" width="5.1640625" style="38" customWidth="1"/>
+    <col min="9" max="9" width="51.5" style="38" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="38" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.2">
@@ -3110,28 +3098,28 @@
       <c r="G1" s="36"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="180" t="s">
+      <c r="B2" s="183" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="182"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="192"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="183"/>
-      <c r="C3" s="184"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="185"/>
+      <c r="B3" s="186"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="193"/>
       <c r="F3" s="36"/>
       <c r="G3" s="154"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="186"/>
-      <c r="C4" s="187"/>
-      <c r="D4" s="187"/>
-      <c r="E4" s="188"/>
+      <c r="B4" s="194"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="196"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
@@ -3207,8 +3195,8 @@
     </row>
     <row r="11" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="41"/>
-      <c r="C11" s="177" t="s">
-        <v>107</v>
+      <c r="C11" s="175" t="s">
+        <v>106</v>
       </c>
       <c r="D11" s="122"/>
       <c r="E11" s="122"/>
@@ -3220,7 +3208,7 @@
     </row>
     <row r="12" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="41"/>
-      <c r="C12" s="178" t="s">
+      <c r="C12" s="176" t="s">
         <v>43</v>
       </c>
       <c r="D12" s="24" t="s">
@@ -3242,7 +3230,7 @@
     </row>
     <row r="13" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="41"/>
-      <c r="C13" s="178" t="s">
+      <c r="C13" s="176" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="24" t="s">
@@ -3264,7 +3252,7 @@
     </row>
     <row r="14" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="41"/>
-      <c r="C14" s="178" t="s">
+      <c r="C14" s="176" t="s">
         <v>47</v>
       </c>
       <c r="D14" s="24" t="s">
@@ -3286,7 +3274,7 @@
     </row>
     <row r="15" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="41"/>
-      <c r="C15" s="178" t="s">
+      <c r="C15" s="176" t="s">
         <v>46</v>
       </c>
       <c r="D15" s="24" t="s">
@@ -3308,7 +3296,7 @@
     </row>
     <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="41"/>
-      <c r="C16" s="178" t="s">
+      <c r="C16" s="176" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="24" t="s">
@@ -3330,7 +3318,7 @@
     </row>
     <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="41"/>
-      <c r="C17" s="178" t="s">
+      <c r="C17" s="176" t="s">
         <v>45</v>
       </c>
       <c r="D17" s="24" t="s">
@@ -3352,8 +3340,8 @@
     </row>
     <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="41"/>
-      <c r="C18" s="179" t="s">
-        <v>108</v>
+      <c r="C18" s="177" t="s">
+        <v>107</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>1</v>
@@ -3398,26 +3386,26 @@
   <dimension ref="B1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="67" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="67" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="67" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="67" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="67" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="67" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="67" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="68" customWidth="1"/>
+    <col min="1" max="2" width="3.5" style="67" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="67" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="67" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="67" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="67" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="67" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="67" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" style="68" customWidth="1"/>
     <col min="10" max="10" width="3" style="68" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" style="68" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" style="68" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" style="68" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="68" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="68" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" style="68" customWidth="1"/>
+    <col min="13" max="13" width="9.5" style="68" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.6640625" style="68" customWidth="1"/>
     <col min="15" max="15" width="60" style="67" customWidth="1"/>
-    <col min="16" max="16384" width="10.7109375" style="67"/>
+    <col min="16" max="16384" width="10.83203125" style="67"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -3460,7 +3448,7 @@
       </c>
       <c r="L3" s="65"/>
       <c r="M3" s="65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N3" s="65"/>
       <c r="O3" s="1" t="s">
@@ -3541,18 +3529,18 @@
       <c r="F7" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="172">
+      <c r="G7" s="170">
         <f>M7</f>
-        <v>5.0606873263783344E-3</v>
+        <v>7.0428439420318909E-3</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
-      <c r="M7" s="171">
+      <c r="M7" s="169">
         <f>Notes!G137</f>
-        <v>5.0606873263783344E-3</v>
+        <v>7.0428439420318909E-3</v>
       </c>
       <c r="N7" s="16"/>
       <c r="O7" s="133"/>
@@ -3590,7 +3578,7 @@
     <row r="9" spans="2:15" s="150" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="146"/>
       <c r="C9" s="147" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D9" s="147"/>
       <c r="E9" s="147"/>
@@ -3892,23 +3880,23 @@
   </sheetPr>
   <dimension ref="B1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="49" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="49" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="49" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="49" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="49" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="49" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="49" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="49" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="49" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="49" customWidth="1"/>
     <col min="6" max="6" width="5" style="49" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="49" customWidth="1"/>
-    <col min="8" max="10" width="12.140625" style="49" customWidth="1"/>
-    <col min="11" max="11" width="33.140625" style="50" customWidth="1"/>
-    <col min="12" max="12" width="87.28515625" style="49" customWidth="1"/>
-    <col min="13" max="16384" width="33.140625" style="49"/>
+    <col min="7" max="7" width="10.33203125" style="49" customWidth="1"/>
+    <col min="8" max="10" width="12.1640625" style="49" customWidth="1"/>
+    <col min="11" max="11" width="33.1640625" style="50" customWidth="1"/>
+    <col min="12" max="12" width="87.33203125" style="49" customWidth="1"/>
+    <col min="13" max="16384" width="33.1640625" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -4089,22 +4077,22 @@
       </c>
       <c r="D13" s="62"/>
       <c r="E13" s="136" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F13" s="136"/>
       <c r="G13" s="62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H13" s="66"/>
       <c r="I13" s="66">
-        <v>2015</v>
-      </c>
-      <c r="J13" s="170">
-        <v>42221</v>
+        <v>2017</v>
+      </c>
+      <c r="J13" s="168">
+        <v>43069</v>
       </c>
       <c r="K13" s="64"/>
       <c r="L13" s="138" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
@@ -4122,19 +4110,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y154"/>
   <sheetViews>
-    <sheetView topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="L130" sqref="L130"/>
+    <sheetView topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="G134" sqref="G134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="116" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="116" customWidth="1"/>
     <col min="2" max="2" width="5" style="116" customWidth="1"/>
     <col min="3" max="5" width="7" style="116"/>
-    <col min="6" max="6" width="10.85546875" style="116" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="116" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="116" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="116" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="7" style="116"/>
-    <col min="12" max="12" width="10" style="116" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" style="116" customWidth="1"/>
     <col min="13" max="16384" width="7" style="116"/>
   </cols>
   <sheetData>
@@ -5529,7 +5517,7 @@
     <row r="126" spans="1:25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="B126" s="117"/>
       <c r="C126" s="138" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D126" s="129"/>
       <c r="E126" s="129"/>
@@ -5583,56 +5571,56 @@
     <row r="128" spans="1:25" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="129" spans="6:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F129" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="130" spans="6:17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="L130" s="175" t="s">
+      <c r="L130" s="173" t="s">
         <v>87</v>
       </c>
-      <c r="M130" s="175" t="s">
+      <c r="M130" s="173" t="s">
+        <v>91</v>
+      </c>
+      <c r="N130" s="173" t="s">
         <v>92</v>
       </c>
-      <c r="N130" s="175" t="s">
+      <c r="O130" s="173" t="s">
         <v>93</v>
       </c>
-      <c r="O130" s="175" t="s">
+      <c r="P130" s="173" t="s">
         <v>94</v>
       </c>
-      <c r="P130" s="175" t="s">
+      <c r="Q130" s="173" t="s">
         <v>95</v>
-      </c>
-      <c r="Q130" s="175" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="131" spans="6:17" x14ac:dyDescent="0.2">
       <c r="G131" s="116">
-        <f>AVERAGE(P131:P153)</f>
-        <v>30.383913043478252</v>
+        <f>AVERAGE(P131:P152)</f>
+        <v>45.192272727272723</v>
       </c>
       <c r="H131" s="161" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I131" s="161" t="s">
-        <v>99</v>
-      </c>
-      <c r="L131" s="176">
-        <v>42411</v>
-      </c>
-      <c r="M131" s="175">
-        <v>26.79</v>
-      </c>
-      <c r="N131" s="175">
-        <v>26.79</v>
-      </c>
-      <c r="O131" s="175">
-        <v>26.79</v>
-      </c>
-      <c r="P131" s="175">
-        <v>26.79</v>
-      </c>
-      <c r="Q131" s="175">
+        <v>98</v>
+      </c>
+      <c r="L131" s="182">
+        <v>42916</v>
+      </c>
+      <c r="M131">
+        <v>46.16</v>
+      </c>
+      <c r="N131">
+        <v>46.16</v>
+      </c>
+      <c r="O131">
+        <v>46.16</v>
+      </c>
+      <c r="P131">
+        <v>46.16</v>
+      </c>
+      <c r="Q131">
         <v>0</v>
       </c>
     </row>
@@ -5641,105 +5629,105 @@
         <v>158.98729499999999</v>
       </c>
       <c r="H132" s="161" t="s">
-        <v>101</v>
-      </c>
-      <c r="L132" s="176">
-        <v>42410</v>
-      </c>
-      <c r="M132" s="175">
-        <v>27.61</v>
-      </c>
-      <c r="N132" s="175">
-        <v>27.61</v>
-      </c>
-      <c r="O132" s="175">
-        <v>27.61</v>
-      </c>
-      <c r="P132" s="175">
-        <v>27.61</v>
-      </c>
-      <c r="Q132" s="175">
+        <v>100</v>
+      </c>
+      <c r="L132" s="182">
+        <v>42915</v>
+      </c>
+      <c r="M132">
+        <v>44.75</v>
+      </c>
+      <c r="N132">
+        <v>44.75</v>
+      </c>
+      <c r="O132">
+        <v>44.75</v>
+      </c>
+      <c r="P132">
+        <v>44.75</v>
+      </c>
+      <c r="Q132">
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="6:17" x14ac:dyDescent="0.2">
       <c r="G133" s="116">
         <f>G131/litres_per_barrel</f>
-        <v>0.19110906342219516</v>
+        <v>0.28425084361157743</v>
       </c>
       <c r="H133" s="161" t="s">
-        <v>102</v>
-      </c>
-      <c r="L133" s="176">
-        <v>42409</v>
-      </c>
-      <c r="M133" s="175">
-        <v>28.25</v>
-      </c>
-      <c r="N133" s="175">
-        <v>28.25</v>
-      </c>
-      <c r="O133" s="175">
-        <v>28.25</v>
-      </c>
-      <c r="P133" s="175">
-        <v>28.25</v>
-      </c>
-      <c r="Q133" s="175">
+        <v>101</v>
+      </c>
+      <c r="L133" s="182">
+        <v>42914</v>
+      </c>
+      <c r="M133">
+        <v>44.71</v>
+      </c>
+      <c r="N133">
+        <v>44.71</v>
+      </c>
+      <c r="O133">
+        <v>44.71</v>
+      </c>
+      <c r="P133">
+        <v>44.71</v>
+      </c>
+      <c r="Q133">
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="6:17" x14ac:dyDescent="0.2">
       <c r="G134" s="116">
         <f>dollar_per_euro</f>
-        <v>1.0965</v>
+        <v>1.1718999999999999</v>
       </c>
       <c r="H134" s="161" t="s">
         <v>89</v>
       </c>
-      <c r="L134" s="176">
-        <v>42408</v>
-      </c>
-      <c r="M134" s="175">
-        <v>29.97</v>
-      </c>
-      <c r="N134" s="175">
-        <v>29.97</v>
-      </c>
-      <c r="O134" s="175">
-        <v>29.97</v>
-      </c>
-      <c r="P134" s="175">
-        <v>29.97</v>
-      </c>
-      <c r="Q134" s="175">
+      <c r="L134" s="182">
+        <v>42913</v>
+      </c>
+      <c r="M134">
+        <v>44.27</v>
+      </c>
+      <c r="N134">
+        <v>44.27</v>
+      </c>
+      <c r="O134">
+        <v>44.27</v>
+      </c>
+      <c r="P134">
+        <v>44.27</v>
+      </c>
+      <c r="Q134">
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="6:17" x14ac:dyDescent="0.2">
       <c r="G135" s="116">
         <f>G133/G134</f>
-        <v>0.17429007152046982</v>
+        <v>0.24255554536357832</v>
       </c>
       <c r="H135" s="161" t="s">
-        <v>103</v>
-      </c>
-      <c r="L135" s="176">
-        <v>42405</v>
-      </c>
-      <c r="M135" s="175">
-        <v>30.84</v>
-      </c>
-      <c r="N135" s="175">
-        <v>30.84</v>
-      </c>
-      <c r="O135" s="175">
-        <v>30.84</v>
-      </c>
-      <c r="P135" s="175">
-        <v>30.84</v>
-      </c>
-      <c r="Q135" s="175">
+        <v>102</v>
+      </c>
+      <c r="L135" s="182">
+        <v>42912</v>
+      </c>
+      <c r="M135">
+        <v>43.44</v>
+      </c>
+      <c r="N135">
+        <v>43.44</v>
+      </c>
+      <c r="O135">
+        <v>43.44</v>
+      </c>
+      <c r="P135">
+        <v>43.44</v>
+      </c>
+      <c r="Q135">
         <v>0</v>
       </c>
     </row>
@@ -5751,391 +5739,367 @@
       <c r="H136" s="161" t="s">
         <v>64</v>
       </c>
-      <c r="L136" s="176">
-        <v>42404</v>
-      </c>
-      <c r="M136" s="175">
-        <v>31.63</v>
-      </c>
-      <c r="N136" s="175">
-        <v>31.63</v>
-      </c>
-      <c r="O136" s="175">
-        <v>31.63</v>
-      </c>
-      <c r="P136" s="175">
-        <v>31.63</v>
-      </c>
-      <c r="Q136" s="175">
+      <c r="L136" s="182">
+        <v>42909</v>
+      </c>
+      <c r="M136">
+        <v>43.01</v>
+      </c>
+      <c r="N136">
+        <v>43.01</v>
+      </c>
+      <c r="O136">
+        <v>43.01</v>
+      </c>
+      <c r="P136">
+        <v>43.01</v>
+      </c>
+      <c r="Q136">
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="G137" s="169">
+      <c r="G137" s="167">
         <f>G135/G136</f>
-        <v>5.0606873263783344E-3</v>
+        <v>7.0428439420318909E-3</v>
       </c>
       <c r="H137" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="L137" s="176">
-        <v>42403</v>
-      </c>
-      <c r="M137" s="175">
-        <v>32.25</v>
-      </c>
-      <c r="N137" s="175">
-        <v>32.25</v>
-      </c>
-      <c r="O137" s="175">
-        <v>32.25</v>
-      </c>
-      <c r="P137" s="175">
-        <v>32.25</v>
-      </c>
-      <c r="Q137" s="175">
+      <c r="L137" s="182">
+        <v>42908</v>
+      </c>
+      <c r="M137">
+        <v>42.74</v>
+      </c>
+      <c r="N137">
+        <v>42.74</v>
+      </c>
+      <c r="O137">
+        <v>42.74</v>
+      </c>
+      <c r="P137">
+        <v>42.74</v>
+      </c>
+      <c r="Q137">
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="L138" s="176">
-        <v>42402</v>
-      </c>
-      <c r="M138" s="175">
-        <v>29.96</v>
-      </c>
-      <c r="N138" s="175">
-        <v>29.96</v>
-      </c>
-      <c r="O138" s="175">
-        <v>29.96</v>
-      </c>
-      <c r="P138" s="175">
-        <v>29.96</v>
-      </c>
-      <c r="Q138" s="175">
+      <c r="L138" s="182">
+        <v>42907</v>
+      </c>
+      <c r="M138">
+        <v>42.53</v>
+      </c>
+      <c r="N138">
+        <v>42.53</v>
+      </c>
+      <c r="O138">
+        <v>42.53</v>
+      </c>
+      <c r="P138">
+        <v>42.53</v>
+      </c>
+      <c r="Q138">
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="L139" s="176">
-        <v>42401</v>
-      </c>
-      <c r="M139" s="175">
-        <v>31.46</v>
-      </c>
-      <c r="N139" s="175">
-        <v>31.46</v>
-      </c>
-      <c r="O139" s="175">
-        <v>31.46</v>
-      </c>
-      <c r="P139" s="175">
-        <v>31.46</v>
-      </c>
-      <c r="Q139" s="175">
+      <c r="L139" s="182">
+        <v>42906</v>
+      </c>
+      <c r="M139">
+        <v>43.45</v>
+      </c>
+      <c r="N139">
+        <v>43.45</v>
+      </c>
+      <c r="O139">
+        <v>43.45</v>
+      </c>
+      <c r="P139">
+        <v>43.45</v>
+      </c>
+      <c r="Q139">
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="L140" s="176">
-        <v>42398</v>
-      </c>
-      <c r="M140" s="175">
-        <v>33.61</v>
-      </c>
-      <c r="N140" s="175">
-        <v>33.61</v>
-      </c>
-      <c r="O140" s="175">
-        <v>33.61</v>
-      </c>
-      <c r="P140" s="175">
-        <v>33.61</v>
-      </c>
-      <c r="Q140" s="175">
+      <c r="L140" s="182">
+        <v>42905</v>
+      </c>
+      <c r="M140">
+        <v>44.13</v>
+      </c>
+      <c r="N140">
+        <v>44.13</v>
+      </c>
+      <c r="O140">
+        <v>44.13</v>
+      </c>
+      <c r="P140">
+        <v>44.13</v>
+      </c>
+      <c r="Q140">
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="L141" s="176">
-        <v>42397</v>
-      </c>
-      <c r="M141" s="175">
-        <v>33.39</v>
-      </c>
-      <c r="N141" s="175">
-        <v>33.39</v>
-      </c>
-      <c r="O141" s="175">
-        <v>33.39</v>
-      </c>
-      <c r="P141" s="175">
-        <v>33.39</v>
-      </c>
-      <c r="Q141" s="175">
+      <c r="L141" s="182">
+        <v>42902</v>
+      </c>
+      <c r="M141">
+        <v>44.72</v>
+      </c>
+      <c r="N141">
+        <v>44.72</v>
+      </c>
+      <c r="O141">
+        <v>44.72</v>
+      </c>
+      <c r="P141">
+        <v>44.72</v>
+      </c>
+      <c r="Q141">
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="L142" s="176">
-        <v>42396</v>
-      </c>
-      <c r="M142" s="175">
-        <v>31.9</v>
-      </c>
-      <c r="N142" s="175">
-        <v>31.9</v>
-      </c>
-      <c r="O142" s="175">
-        <v>31.9</v>
-      </c>
-      <c r="P142" s="175">
-        <v>31.9</v>
-      </c>
-      <c r="Q142" s="175">
+      <c r="L142" s="182">
+        <v>42901</v>
+      </c>
+      <c r="M142">
+        <v>44.37</v>
+      </c>
+      <c r="N142">
+        <v>44.37</v>
+      </c>
+      <c r="O142">
+        <v>44.37</v>
+      </c>
+      <c r="P142">
+        <v>44.37</v>
+      </c>
+      <c r="Q142">
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="L143" s="176">
-        <v>42395</v>
-      </c>
-      <c r="M143" s="175">
-        <v>31.2</v>
-      </c>
-      <c r="N143" s="175">
-        <v>31.2</v>
-      </c>
-      <c r="O143" s="175">
-        <v>31.2</v>
-      </c>
-      <c r="P143" s="175">
-        <v>31.2</v>
-      </c>
-      <c r="Q143" s="175">
+      <c r="L143" s="182">
+        <v>42900</v>
+      </c>
+      <c r="M143">
+        <v>44.77</v>
+      </c>
+      <c r="N143">
+        <v>44.77</v>
+      </c>
+      <c r="O143">
+        <v>44.77</v>
+      </c>
+      <c r="P143">
+        <v>44.77</v>
+      </c>
+      <c r="Q143">
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="L144" s="176">
-        <v>42394</v>
-      </c>
-      <c r="M144" s="175">
-        <v>30.14</v>
-      </c>
-      <c r="N144" s="175">
-        <v>30.14</v>
-      </c>
-      <c r="O144" s="175">
-        <v>30.14</v>
-      </c>
-      <c r="P144" s="175">
-        <v>30.14</v>
-      </c>
-      <c r="Q144" s="175">
+      <c r="L144" s="182">
+        <v>42899</v>
+      </c>
+      <c r="M144">
+        <v>46.49</v>
+      </c>
+      <c r="N144">
+        <v>46.49</v>
+      </c>
+      <c r="O144">
+        <v>46.49</v>
+      </c>
+      <c r="P144">
+        <v>46.49</v>
+      </c>
+      <c r="Q144">
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="12:17" x14ac:dyDescent="0.2">
-      <c r="L145" s="176">
-        <v>42391</v>
-      </c>
-      <c r="M145" s="175">
-        <v>31.99</v>
-      </c>
-      <c r="N145" s="175">
-        <v>31.99</v>
-      </c>
-      <c r="O145" s="175">
-        <v>31.99</v>
-      </c>
-      <c r="P145" s="175">
-        <v>31.99</v>
-      </c>
-      <c r="Q145" s="175">
+      <c r="L145" s="182">
+        <v>42898</v>
+      </c>
+      <c r="M145">
+        <v>46.11</v>
+      </c>
+      <c r="N145">
+        <v>46.11</v>
+      </c>
+      <c r="O145">
+        <v>46.11</v>
+      </c>
+      <c r="P145">
+        <v>46.11</v>
+      </c>
+      <c r="Q145">
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="12:17" x14ac:dyDescent="0.2">
-      <c r="L146" s="176">
-        <v>42390</v>
-      </c>
-      <c r="M146" s="175">
-        <v>29.68</v>
-      </c>
-      <c r="N146" s="175">
-        <v>29.68</v>
-      </c>
-      <c r="O146" s="175">
-        <v>29.68</v>
-      </c>
-      <c r="P146" s="175">
-        <v>29.68</v>
-      </c>
-      <c r="Q146" s="175">
+      <c r="L146" s="182">
+        <v>42895</v>
+      </c>
+      <c r="M146">
+        <v>45.87</v>
+      </c>
+      <c r="N146">
+        <v>45.87</v>
+      </c>
+      <c r="O146">
+        <v>45.87</v>
+      </c>
+      <c r="P146">
+        <v>45.87</v>
+      </c>
+      <c r="Q146">
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="12:17" x14ac:dyDescent="0.2">
-      <c r="L147" s="176">
-        <v>42389</v>
-      </c>
-      <c r="M147" s="175">
-        <v>29.05</v>
-      </c>
-      <c r="N147" s="175">
-        <v>29.05</v>
-      </c>
-      <c r="O147" s="175">
-        <v>29.05</v>
-      </c>
-      <c r="P147" s="175">
-        <v>29.05</v>
-      </c>
-      <c r="Q147" s="175">
+      <c r="L147" s="182">
+        <v>42894</v>
+      </c>
+      <c r="M147">
+        <v>45.63</v>
+      </c>
+      <c r="N147">
+        <v>45.63</v>
+      </c>
+      <c r="O147">
+        <v>45.63</v>
+      </c>
+      <c r="P147">
+        <v>45.63</v>
+      </c>
+      <c r="Q147">
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="12:17" x14ac:dyDescent="0.2">
-      <c r="L148" s="176">
-        <v>42388</v>
-      </c>
-      <c r="M148" s="175">
-        <v>28.4</v>
-      </c>
-      <c r="N148" s="175">
-        <v>28.4</v>
-      </c>
-      <c r="O148" s="175">
-        <v>28.4</v>
-      </c>
-      <c r="P148" s="175">
-        <v>28.4</v>
-      </c>
-      <c r="Q148" s="175">
+      <c r="L148" s="182">
+        <v>42893</v>
+      </c>
+      <c r="M148">
+        <v>45.78</v>
+      </c>
+      <c r="N148">
+        <v>45.78</v>
+      </c>
+      <c r="O148">
+        <v>45.78</v>
+      </c>
+      <c r="P148">
+        <v>45.78</v>
+      </c>
+      <c r="Q148">
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="12:17" x14ac:dyDescent="0.2">
-      <c r="L149" s="176">
-        <v>42387</v>
-      </c>
-      <c r="M149" s="175">
-        <v>28.91</v>
-      </c>
-      <c r="N149" s="175">
-        <v>28.91</v>
-      </c>
-      <c r="O149" s="175">
-        <v>28.91</v>
-      </c>
-      <c r="P149" s="175">
-        <v>28.91</v>
-      </c>
-      <c r="Q149" s="175">
+      <c r="L149" s="182">
+        <v>42892</v>
+      </c>
+      <c r="M149">
+        <v>48.16</v>
+      </c>
+      <c r="N149">
+        <v>48.16</v>
+      </c>
+      <c r="O149">
+        <v>48.16</v>
+      </c>
+      <c r="P149">
+        <v>48.16</v>
+      </c>
+      <c r="Q149">
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="12:17" x14ac:dyDescent="0.2">
-      <c r="L150" s="176">
-        <v>42384</v>
-      </c>
-      <c r="M150" s="175">
-        <v>29.67</v>
-      </c>
-      <c r="N150" s="175">
-        <v>29.67</v>
-      </c>
-      <c r="O150" s="175">
-        <v>29.67</v>
-      </c>
-      <c r="P150" s="175">
-        <v>29.67</v>
-      </c>
-      <c r="Q150" s="175">
+      <c r="L150" s="182">
+        <v>42891</v>
+      </c>
+      <c r="M150">
+        <v>47.39</v>
+      </c>
+      <c r="N150">
+        <v>47.39</v>
+      </c>
+      <c r="O150">
+        <v>47.39</v>
+      </c>
+      <c r="P150">
+        <v>47.39</v>
+      </c>
+      <c r="Q150">
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="12:17" x14ac:dyDescent="0.2">
-      <c r="L151" s="176">
-        <v>42383</v>
-      </c>
-      <c r="M151" s="175">
-        <v>31.14</v>
-      </c>
-      <c r="N151" s="175">
-        <v>31.14</v>
-      </c>
-      <c r="O151" s="175">
-        <v>31.14</v>
-      </c>
-      <c r="P151" s="175">
-        <v>31.14</v>
-      </c>
-      <c r="Q151" s="175">
+      <c r="L151" s="182">
+        <v>42888</v>
+      </c>
+      <c r="M151">
+        <v>47.68</v>
+      </c>
+      <c r="N151">
+        <v>47.68</v>
+      </c>
+      <c r="O151">
+        <v>47.68</v>
+      </c>
+      <c r="P151">
+        <v>47.68</v>
+      </c>
+      <c r="Q151">
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="12:17" x14ac:dyDescent="0.2">
-      <c r="L152" s="176">
-        <v>42382</v>
-      </c>
-      <c r="M152" s="175">
-        <v>30.45</v>
-      </c>
-      <c r="N152" s="175">
-        <v>30.45</v>
-      </c>
-      <c r="O152" s="175">
-        <v>30.45</v>
-      </c>
-      <c r="P152" s="175">
-        <v>30.45</v>
-      </c>
-      <c r="Q152" s="175">
+      <c r="L152" s="182">
+        <v>42887</v>
+      </c>
+      <c r="M152">
+        <v>48.07</v>
+      </c>
+      <c r="N152">
+        <v>48.07</v>
+      </c>
+      <c r="O152">
+        <v>48.07</v>
+      </c>
+      <c r="P152">
+        <v>48.07</v>
+      </c>
+      <c r="Q152">
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="12:17" x14ac:dyDescent="0.2">
-      <c r="L153" s="176">
-        <v>42381</v>
-      </c>
-      <c r="M153" s="175">
-        <v>30.54</v>
-      </c>
-      <c r="N153" s="175">
-        <v>30.54</v>
-      </c>
-      <c r="O153" s="175">
-        <v>30.54</v>
-      </c>
-      <c r="P153" s="175">
-        <v>30.54</v>
-      </c>
-      <c r="Q153" s="175">
-        <v>0</v>
-      </c>
+      <c r="L153" s="174"/>
+      <c r="M153" s="173"/>
+      <c r="N153" s="173"/>
+      <c r="O153" s="173"/>
+      <c r="P153" s="173"/>
+      <c r="Q153" s="173"/>
     </row>
     <row r="154" spans="12:17" x14ac:dyDescent="0.2">
-      <c r="L154" s="176">
-        <v>42380</v>
-      </c>
-      <c r="M154" s="175">
-        <v>31.27</v>
-      </c>
-      <c r="N154" s="175">
-        <v>31.27</v>
-      </c>
-      <c r="O154" s="175">
-        <v>31.27</v>
-      </c>
-      <c r="P154" s="175">
-        <v>31.27</v>
-      </c>
-      <c r="Q154" s="175">
-        <v>0</v>
-      </c>
+      <c r="L154" s="174"/>
+      <c r="M154" s="173"/>
+      <c r="N154" s="173"/>
+      <c r="O154" s="173"/>
+      <c r="P154" s="173"/>
+      <c r="Q154" s="173"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6154,13 +6118,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="3.28515625" customWidth="1"/>
+    <col min="1" max="2" width="3.33203125" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="7" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="7" width="17.6640625" customWidth="1"/>
     <col min="8" max="8" width="55" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" customWidth="1"/>
+    <col min="9" max="9" width="4.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" s="161" customFormat="1" x14ac:dyDescent="0.2">
@@ -6170,20 +6134,20 @@
       <c r="G1" s="162"/>
     </row>
     <row r="2" spans="2:9" s="161" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="180" t="s">
+      <c r="B2" s="183" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="182"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="192"/>
       <c r="F2" s="162"/>
       <c r="G2" s="162"/>
     </row>
     <row r="3" spans="2:9" s="161" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="183"/>
-      <c r="C3" s="184"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="185"/>
+      <c r="B3" s="186"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="193"/>
       <c r="F3" s="162"/>
       <c r="G3" s="162"/>
     </row>
@@ -6191,7 +6155,7 @@
       <c r="B4" s="189"/>
       <c r="C4" s="190"/>
       <c r="D4" s="190"/>
-      <c r="E4" s="191"/>
+      <c r="E4" s="197"/>
       <c r="F4" s="162"/>
       <c r="G4" s="162"/>
     </row>
@@ -6242,17 +6206,17 @@
       <c r="D9" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="166">
-        <v>1.0965</v>
-      </c>
-      <c r="F9" s="165" t="s">
+      <c r="E9" s="178">
+        <v>1.1718999999999999</v>
+      </c>
+      <c r="F9" s="179" t="s">
         <v>90</v>
       </c>
-      <c r="G9" s="167">
-        <v>42412</v>
-      </c>
-      <c r="H9" s="168" t="s">
-        <v>91</v>
+      <c r="G9" s="180">
+        <v>43068</v>
+      </c>
+      <c r="H9" s="181" t="s">
+        <v>109</v>
       </c>
       <c r="I9" s="46"/>
     </row>

--- a/carriers_source_analyses/crude_oil.carrier.xlsx
+++ b/carriers_source_analyses/crude_oil.carrier.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/carriers_source_analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0E9910-A1C5-CE4A-9803-D167611CD42D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="4"/>
+    <workbookView xWindow="9960" yWindow="3720" windowWidth="33800" windowHeight="22320" tabRatio="762" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -52,10 +53,16 @@
     <definedName name="WP_to_MWp" localSheetId="6">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -65,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="113">
   <si>
     <t>Source</t>
   </si>
@@ -442,11 +449,20 @@
   <si>
     <t>https://www.ecb.europa.eu/stats/policy_and_exchange_rates/euro_reference_exchange_rates/html/eurofxref-graph-usd.en.html</t>
   </si>
+  <si>
+    <t>RVO</t>
+  </si>
+  <si>
+    <t>https://www.rvo.nl/file/nederlandse-lijst-van-energiedragers-en-standaard-co2-emissiefactoren-2017pdf</t>
+  </si>
+  <si>
+    <t>source: RVO (see below)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -457,7 +473,7 @@
     <numFmt numFmtId="170" formatCode="0.00000000000"/>
     <numFmt numFmtId="171" formatCode="0.0000000000000000"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -609,6 +625,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -616,6 +633,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -623,6 +641,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -630,6 +649,7 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -637,17 +657,20 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -661,11 +684,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -689,6 +714,7 @@
       <sz val="16"/>
       <color rgb="FF474747"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1747,7 +1773,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="345">
-    <cellStyle name="Excel Built-in Normal" xfId="338"/>
+    <cellStyle name="Excel Built-in Normal" xfId="338" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2099,6 +2125,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2120,7 +2149,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 1"/>
+        <xdr:cNvPr id="7" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2167,7 +2202,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 29"/>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2182,6 +2223,50 @@
         <a:xfrm>
           <a:off x="8585200" y="92062300"/>
           <a:ext cx="13144500" cy="10477500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>235234</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7412D594-60BE-7744-9AE0-9F532C164B84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8686800" y="8585200"/>
+          <a:ext cx="10738134" cy="3492500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2627,13 +2712,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.5" style="31" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="23" customWidth="1"/>
@@ -2642,24 +2727,24 @@
     <col min="5" max="16384" width="10.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="29" customFormat="1">
       <c r="A1" s="27"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
     </row>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="21">
       <c r="A2" s="7"/>
       <c r="B2" s="30" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="30"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="7"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>80</v>
@@ -2668,7 +2753,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
         <v>14</v>
@@ -2677,7 +2762,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="7"/>
       <c r="B6" s="12" t="s">
         <v>9</v>
@@ -2686,17 +2771,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="7"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="7"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="7"/>
       <c r="B9" s="88" t="s">
         <v>15</v>
@@ -2704,13 +2789,13 @@
       <c r="C9" s="89"/>
       <c r="D9" s="156"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="7"/>
       <c r="B10" s="90"/>
       <c r="C10" s="91"/>
       <c r="D10" s="157"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="7"/>
       <c r="B11" s="90" t="s">
         <v>16</v>
@@ -2720,7 +2805,7 @@
       </c>
       <c r="D11" s="157"/>
     </row>
-    <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="17" thickBot="1">
       <c r="A12" s="7"/>
       <c r="B12" s="90"/>
       <c r="C12" s="20" t="s">
@@ -2728,7 +2813,7 @@
       </c>
       <c r="D12" s="157"/>
     </row>
-    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="17" thickBot="1">
       <c r="A13" s="7"/>
       <c r="B13" s="90"/>
       <c r="C13" s="93" t="s">
@@ -2736,7 +2821,7 @@
       </c>
       <c r="D13" s="157"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="7"/>
       <c r="B14" s="90"/>
       <c r="C14" s="91" t="s">
@@ -2744,13 +2829,13 @@
       </c>
       <c r="D14" s="157"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="7"/>
       <c r="B15" s="90"/>
       <c r="C15" s="91"/>
       <c r="D15" s="157"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="7"/>
       <c r="B16" s="90" t="s">
         <v>21</v>
@@ -2760,7 +2845,7 @@
       </c>
       <c r="D16" s="157"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="7"/>
       <c r="B17" s="90"/>
       <c r="C17" s="95" t="s">
@@ -2768,7 +2853,7 @@
       </c>
       <c r="D17" s="157"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="7"/>
       <c r="B18" s="90"/>
       <c r="C18" s="96" t="s">
@@ -2776,7 +2861,7 @@
       </c>
       <c r="D18" s="157"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="7"/>
       <c r="B19" s="90"/>
       <c r="C19" s="97" t="s">
@@ -2784,7 +2869,7 @@
       </c>
       <c r="D19" s="157"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="7"/>
       <c r="B20" s="98"/>
       <c r="C20" s="99" t="s">
@@ -2792,7 +2877,7 @@
       </c>
       <c r="D20" s="157"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="7"/>
       <c r="B21" s="98"/>
       <c r="C21" s="100" t="s">
@@ -2800,7 +2885,7 @@
       </c>
       <c r="D21" s="157"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="7"/>
       <c r="B22" s="98"/>
       <c r="C22" s="101" t="s">
@@ -2808,14 +2893,14 @@
       </c>
       <c r="D22" s="157"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="B23" s="98"/>
       <c r="C23" s="102" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="157"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="B24" s="158"/>
       <c r="C24" s="159"/>
       <c r="D24" s="160"/>
@@ -2827,8 +2912,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:J15"/>
@@ -2837,7 +2922,7 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="38" customWidth="1"/>
     <col min="2" max="2" width="3.6640625" style="38" customWidth="1"/>
@@ -2852,13 +2937,13 @@
     <col min="11" max="16384" width="10.83203125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10">
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
       <c r="F1" s="36"/>
       <c r="G1" s="36"/>
     </row>
-    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" ht="15" customHeight="1">
       <c r="B2" s="183" t="s">
         <v>108</v>
       </c>
@@ -2868,7 +2953,7 @@
       <c r="F2" s="184"/>
       <c r="G2" s="185"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10">
       <c r="B3" s="186"/>
       <c r="C3" s="187"/>
       <c r="D3" s="187"/>
@@ -2876,7 +2961,7 @@
       <c r="F3" s="187"/>
       <c r="G3" s="188"/>
     </row>
-    <row r="4" spans="2:10" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" ht="76" customHeight="1">
       <c r="B4" s="189"/>
       <c r="C4" s="190"/>
       <c r="D4" s="190"/>
@@ -2884,10 +2969,10 @@
       <c r="F4" s="190"/>
       <c r="G4" s="191"/>
     </row>
-    <row r="5" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="17" thickBot="1">
       <c r="D5" s="36"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="B6" s="39"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -2898,7 +2983,7 @@
       <c r="I6" s="22"/>
       <c r="J6" s="40"/>
     </row>
-    <row r="7" spans="2:10" s="45" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" s="45" customFormat="1" ht="19">
       <c r="B7" s="103"/>
       <c r="C7" s="21" t="s">
         <v>13</v>
@@ -2919,7 +3004,7 @@
       </c>
       <c r="J7" s="107"/>
     </row>
-    <row r="8" spans="2:10" s="45" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" s="45" customFormat="1" ht="19">
       <c r="B8" s="25"/>
       <c r="C8" s="20"/>
       <c r="D8" s="33"/>
@@ -2930,7 +3015,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="46"/>
     </row>
-    <row r="9" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1">
       <c r="B9" s="25"/>
       <c r="C9" s="155" t="s">
         <v>83</v>
@@ -2943,7 +3028,7 @@
       <c r="I9" s="20"/>
       <c r="J9" s="46"/>
     </row>
-    <row r="10" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1">
       <c r="B10" s="25"/>
       <c r="C10" s="113" t="s">
         <v>38</v>
@@ -2965,7 +3050,7 @@
       </c>
       <c r="J10" s="46"/>
     </row>
-    <row r="11" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1">
       <c r="B11" s="25"/>
       <c r="C11" s="122" t="s">
         <v>39</v>
@@ -2985,7 +3070,7 @@
       </c>
       <c r="J11" s="46"/>
     </row>
-    <row r="12" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1">
       <c r="B12" s="25"/>
       <c r="C12" s="122" t="s">
         <v>82</v>
@@ -3005,7 +3090,7 @@
       </c>
       <c r="J12" s="46"/>
     </row>
-    <row r="13" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1">
       <c r="B13" s="25"/>
       <c r="C13" s="172" t="s">
         <v>105</v>
@@ -3025,7 +3110,7 @@
       </c>
       <c r="J13" s="46"/>
     </row>
-    <row r="14" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1">
       <c r="B14" s="25"/>
       <c r="C14" s="37" t="s">
         <v>40</v>
@@ -3035,7 +3120,7 @@
       </c>
       <c r="E14" s="115">
         <f>'Research data'!G10</f>
-        <v>7.5499999999999998E-2</v>
+        <v>7.3300000000000004E-2</v>
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="122"/>
@@ -3045,7 +3130,7 @@
       </c>
       <c r="J14" s="46"/>
     </row>
-    <row r="15" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="20" customHeight="1" thickBot="1">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="43"/>
@@ -3066,8 +3151,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:J19"/>
@@ -3076,7 +3161,7 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="38" customWidth="1"/>
     <col min="2" max="2" width="3.6640625" style="38" customWidth="1"/>
@@ -3091,13 +3176,13 @@
     <col min="11" max="16384" width="10.83203125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10">
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
       <c r="F1" s="36"/>
       <c r="G1" s="36"/>
     </row>
-    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" ht="15" customHeight="1">
       <c r="B2" s="183" t="s">
         <v>84</v>
       </c>
@@ -3107,7 +3192,7 @@
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10">
       <c r="B3" s="186"/>
       <c r="C3" s="187"/>
       <c r="D3" s="187"/>
@@ -3115,7 +3200,7 @@
       <c r="F3" s="36"/>
       <c r="G3" s="154"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="B4" s="194"/>
       <c r="C4" s="195"/>
       <c r="D4" s="195"/>
@@ -3123,10 +3208,10 @@
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
-    <row r="5" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="17" thickBot="1">
       <c r="D5" s="36"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="B6" s="39"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -3137,7 +3222,7 @@
       <c r="I6" s="22"/>
       <c r="J6" s="40"/>
     </row>
-    <row r="7" spans="2:10" s="45" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" s="45" customFormat="1" ht="19">
       <c r="B7" s="103"/>
       <c r="C7" s="21" t="s">
         <v>13</v>
@@ -3158,7 +3243,7 @@
       </c>
       <c r="J7" s="107"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10">
       <c r="B8" s="41"/>
       <c r="C8" s="81"/>
       <c r="D8" s="105"/>
@@ -3169,7 +3254,7 @@
       <c r="I8" s="36"/>
       <c r="J8" s="108"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10">
       <c r="B9" s="41"/>
       <c r="C9" s="20" t="s">
         <v>37</v>
@@ -3182,7 +3267,7 @@
       <c r="I9" s="36"/>
       <c r="J9" s="108"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10">
       <c r="B10" s="41"/>
       <c r="C10" s="20"/>
       <c r="D10" s="105"/>
@@ -3193,7 +3278,7 @@
       <c r="I10" s="36"/>
       <c r="J10" s="108"/>
     </row>
-    <row r="11" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="17" thickBot="1">
       <c r="B11" s="41"/>
       <c r="C11" s="175" t="s">
         <v>106</v>
@@ -3206,7 +3291,7 @@
       <c r="I11" s="122"/>
       <c r="J11" s="108"/>
     </row>
-    <row r="12" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="17" thickBot="1">
       <c r="B12" s="41"/>
       <c r="C12" s="176" t="s">
         <v>43</v>
@@ -3228,7 +3313,7 @@
       </c>
       <c r="J12" s="108"/>
     </row>
-    <row r="13" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="17" thickBot="1">
       <c r="B13" s="41"/>
       <c r="C13" s="176" t="s">
         <v>44</v>
@@ -3250,7 +3335,7 @@
       </c>
       <c r="J13" s="108"/>
     </row>
-    <row r="14" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="17" thickBot="1">
       <c r="B14" s="41"/>
       <c r="C14" s="176" t="s">
         <v>47</v>
@@ -3272,7 +3357,7 @@
       </c>
       <c r="J14" s="108"/>
     </row>
-    <row r="15" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="17" thickBot="1">
       <c r="B15" s="41"/>
       <c r="C15" s="176" t="s">
         <v>46</v>
@@ -3294,7 +3379,7 @@
       </c>
       <c r="J15" s="108"/>
     </row>
-    <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" ht="17" thickBot="1">
       <c r="B16" s="41"/>
       <c r="C16" s="176" t="s">
         <v>40</v>
@@ -3316,7 +3401,7 @@
       </c>
       <c r="J16" s="108"/>
     </row>
-    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" ht="17" thickBot="1">
       <c r="B17" s="41"/>
       <c r="C17" s="176" t="s">
         <v>45</v>
@@ -3338,7 +3423,7 @@
       </c>
       <c r="J17" s="108"/>
     </row>
-    <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" ht="17" thickBot="1">
       <c r="B18" s="41"/>
       <c r="C18" s="177" t="s">
         <v>107</v>
@@ -3357,7 +3442,7 @@
       </c>
       <c r="J18" s="108"/>
     </row>
-    <row r="19" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" ht="20" customHeight="1" thickBot="1">
       <c r="B19" s="42"/>
       <c r="C19" s="43"/>
       <c r="D19" s="43"/>
@@ -3379,8 +3464,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B1:O25"/>
@@ -3389,7 +3474,7 @@
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="3.5" style="67" customWidth="1"/>
     <col min="3" max="3" width="35.83203125" style="67" customWidth="1"/>
@@ -3408,8 +3493,8 @@
     <col min="16" max="16384" width="10.83203125" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:15" ht="17" thickBot="1"/>
+    <row r="2" spans="2:15">
       <c r="B2" s="69"/>
       <c r="C2" s="70"/>
       <c r="D2" s="70"/>
@@ -3425,7 +3510,7 @@
       <c r="N2" s="71"/>
       <c r="O2" s="72"/>
     </row>
-    <row r="3" spans="2:15" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:15" s="26" customFormat="1">
       <c r="B3" s="25"/>
       <c r="C3" s="112" t="s">
         <v>30</v>
@@ -3455,7 +3540,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:15">
       <c r="B4" s="73"/>
       <c r="C4" s="74"/>
       <c r="D4" s="74"/>
@@ -3471,7 +3556,7 @@
       <c r="N4" s="111"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" ht="17" thickBot="1">
       <c r="B5" s="73"/>
       <c r="C5" s="20" t="s">
         <v>55</v>
@@ -3489,7 +3574,7 @@
       <c r="N5" s="16"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" ht="17" thickBot="1">
       <c r="B6" s="73"/>
       <c r="C6" s="125" t="s">
         <v>38</v>
@@ -3515,7 +3600,7 @@
       <c r="N6" s="16"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="2:15" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" s="6" customFormat="1" ht="17" thickBot="1">
       <c r="B7" s="5"/>
       <c r="C7" s="126" t="s">
         <v>39</v>
@@ -3545,7 +3630,7 @@
       <c r="N7" s="16"/>
       <c r="O7" s="133"/>
     </row>
-    <row r="8" spans="2:15" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" s="6" customFormat="1" ht="17" thickBot="1">
       <c r="B8" s="5"/>
       <c r="C8" s="126" t="s">
         <v>82</v>
@@ -3575,7 +3660,7 @@
       <c r="N8" s="16"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="2:15" s="150" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" s="150" customFormat="1" ht="17" thickBot="1">
       <c r="B9" s="146"/>
       <c r="C9" s="147" t="s">
         <v>105</v>
@@ -3601,7 +3686,7 @@
       <c r="N9" s="16"/>
       <c r="O9" s="145"/>
     </row>
-    <row r="10" spans="2:15" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" s="6" customFormat="1" ht="17" thickBot="1">
       <c r="B10" s="5"/>
       <c r="C10" s="127" t="s">
         <v>40</v>
@@ -3617,12 +3702,12 @@
       </c>
       <c r="G10" s="115">
         <f>I10</f>
-        <v>7.5499999999999998E-2</v>
+        <v>7.3300000000000004E-2</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="115">
         <f>Notes!F12</f>
-        <v>7.5499999999999998E-2</v>
+        <v>7.3300000000000004E-2</v>
       </c>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
@@ -3631,7 +3716,7 @@
       <c r="N10" s="16"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15">
       <c r="B11" s="73"/>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
@@ -3647,7 +3732,7 @@
       <c r="N11" s="16"/>
       <c r="O11" s="133"/>
     </row>
-    <row r="12" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" ht="17" thickBot="1">
       <c r="B12" s="73"/>
       <c r="C12" s="20" t="s">
         <v>37</v>
@@ -3665,7 +3750,7 @@
       <c r="N12" s="16"/>
       <c r="O12" s="133"/>
     </row>
-    <row r="13" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" ht="17" thickBot="1">
       <c r="B13" s="73"/>
       <c r="C13" s="128" t="s">
         <v>43</v>
@@ -3693,7 +3778,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" ht="17" thickBot="1">
       <c r="B14" s="73"/>
       <c r="C14" s="128" t="s">
         <v>44</v>
@@ -3721,7 +3806,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" ht="17" thickBot="1">
       <c r="B15" s="73"/>
       <c r="C15" s="128" t="s">
         <v>47</v>
@@ -3749,7 +3834,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" ht="17" thickBot="1">
       <c r="B16" s="73"/>
       <c r="C16" s="128" t="s">
         <v>46</v>
@@ -3777,7 +3862,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" ht="17" thickBot="1">
       <c r="B17" s="73"/>
       <c r="C17" s="128" t="s">
         <v>40</v>
@@ -3805,7 +3890,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" ht="17" thickBot="1">
       <c r="B18" s="73"/>
       <c r="C18" s="128" t="s">
         <v>45</v>
@@ -3833,7 +3918,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" ht="17" thickBot="1">
       <c r="B19" s="84"/>
       <c r="C19" s="85"/>
       <c r="D19" s="85"/>
@@ -3849,22 +3934,22 @@
       <c r="N19" s="85"/>
       <c r="O19" s="86"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15">
       <c r="M20" s="18"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15">
       <c r="M21" s="18"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15">
       <c r="M22" s="18"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15">
       <c r="M23" s="18"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15">
       <c r="M24" s="18"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15">
       <c r="O25" s="133"/>
     </row>
   </sheetData>
@@ -3874,17 +3959,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:L14"/>
+  <dimension ref="B1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="49" customWidth="1"/>
     <col min="2" max="2" width="3.5" style="49" customWidth="1"/>
@@ -3899,8 +3984,8 @@
     <col min="13" max="16384" width="33.1640625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" ht="17" thickBot="1"/>
+    <row r="2" spans="2:13">
       <c r="B2" s="51"/>
       <c r="C2" s="52"/>
       <c r="D2" s="52"/>
@@ -3913,7 +3998,7 @@
       <c r="K2" s="53"/>
       <c r="L2" s="52"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13">
       <c r="B3" s="54"/>
       <c r="C3" s="55" t="s">
         <v>11</v>
@@ -3928,7 +4013,7 @@
       <c r="K3" s="56"/>
       <c r="L3" s="57"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13">
       <c r="B4" s="54"/>
       <c r="C4" s="57"/>
       <c r="D4" s="57"/>
@@ -3941,7 +4026,7 @@
       <c r="K4" s="58"/>
       <c r="L4" s="57"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13">
       <c r="B5" s="59"/>
       <c r="C5" s="60" t="s">
         <v>13</v>
@@ -3970,7 +4055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13">
       <c r="B6" s="54"/>
       <c r="C6" s="55"/>
       <c r="D6" s="55"/>
@@ -3983,7 +4068,7 @@
       <c r="K6" s="56"/>
       <c r="L6" s="55"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13">
       <c r="B7" s="54"/>
       <c r="C7" s="151" t="s">
         <v>82</v>
@@ -4010,7 +4095,7 @@
       </c>
       <c r="L7" s="63"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13">
       <c r="B8" s="54"/>
       <c r="C8" s="152" t="s">
         <v>77</v>
@@ -4018,7 +4103,7 @@
       <c r="E8" s="137"/>
       <c r="F8" s="137"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13">
       <c r="B9" s="54"/>
       <c r="C9" s="153" t="s">
         <v>40</v>
@@ -4026,13 +4111,13 @@
       <c r="E9" s="137"/>
       <c r="F9" s="137"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13">
       <c r="B10" s="54"/>
       <c r="C10" s="121"/>
       <c r="E10" s="137"/>
       <c r="F10" s="137"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13">
       <c r="B11" s="54"/>
       <c r="C11" s="62" t="s">
         <v>68</v>
@@ -4057,7 +4142,7 @@
       </c>
       <c r="L11" s="63"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13">
       <c r="B12" s="54"/>
       <c r="C12" s="62"/>
       <c r="D12" s="62"/>
@@ -4070,7 +4155,7 @@
       <c r="K12" s="64"/>
       <c r="L12" s="63"/>
     </row>
-    <row r="13" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="21">
       <c r="B13" s="54"/>
       <c r="C13" s="62" t="s">
         <v>39</v>
@@ -4095,10 +4180,19 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13">
       <c r="B14" s="54"/>
       <c r="E14" s="137"/>
       <c r="F14" s="137"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="C15" s="153" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="M15" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4107,14 +4201,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Y154"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="G134" sqref="G134"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="5.5" style="116" customWidth="1"/>
     <col min="2" max="2" width="5" style="116" customWidth="1"/>
@@ -4126,8 +4220,8 @@
     <col min="13" max="16384" width="7" style="116"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:25" ht="17" thickBot="1"/>
+    <row r="2" spans="2:25" s="26" customFormat="1">
       <c r="B2" s="119"/>
       <c r="C2" s="120" t="s">
         <v>25</v>
@@ -4155,7 +4249,7 @@
       <c r="T2" s="120"/>
       <c r="U2" s="120"/>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:25">
       <c r="B3" s="117"/>
       <c r="C3" s="118"/>
       <c r="D3" s="118"/>
@@ -4177,7 +4271,7 @@
       <c r="T3" s="118"/>
       <c r="U3" s="118"/>
     </row>
-    <row r="4" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:25" customFormat="1">
       <c r="B4" s="117"/>
       <c r="C4" s="129" t="s">
         <v>57</v>
@@ -4205,7 +4299,7 @@
       <c r="X4" s="129"/>
       <c r="Y4" s="129"/>
     </row>
-    <row r="5" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:25" customFormat="1">
       <c r="B5" s="117"/>
       <c r="C5" s="129"/>
       <c r="D5" s="129"/>
@@ -4231,7 +4325,7 @@
       <c r="X5" s="129"/>
       <c r="Y5" s="129"/>
     </row>
-    <row r="6" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:25" customFormat="1">
       <c r="B6" s="117"/>
       <c r="C6" s="129"/>
       <c r="D6" s="129"/>
@@ -4257,7 +4351,7 @@
       <c r="X6" s="129"/>
       <c r="Y6" s="129"/>
     </row>
-    <row r="7" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:25" customFormat="1">
       <c r="B7" s="117"/>
       <c r="C7" s="129"/>
       <c r="D7" s="129"/>
@@ -4283,7 +4377,7 @@
       <c r="X7" s="129"/>
       <c r="Y7" s="129"/>
     </row>
-    <row r="8" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:25" customFormat="1">
       <c r="B8" s="117"/>
       <c r="C8" s="129"/>
       <c r="D8" s="129">
@@ -4319,7 +4413,7 @@
       <c r="X8" s="129"/>
       <c r="Y8" s="129"/>
     </row>
-    <row r="9" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:25" customFormat="1">
       <c r="B9" s="117"/>
       <c r="C9" s="129"/>
       <c r="D9" s="129"/>
@@ -4350,7 +4444,7 @@
       <c r="X9" s="129"/>
       <c r="Y9" s="129"/>
     </row>
-    <row r="10" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:25" customFormat="1">
       <c r="B10" s="117"/>
       <c r="C10" s="129"/>
       <c r="D10" s="129"/>
@@ -4382,7 +4476,7 @@
       <c r="X10" s="129"/>
       <c r="Y10" s="129"/>
     </row>
-    <row r="11" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:25" customFormat="1">
       <c r="B11" s="117"/>
       <c r="C11" s="129"/>
       <c r="D11" s="129"/>
@@ -4414,13 +4508,13 @@
       <c r="X11" s="129"/>
       <c r="Y11" s="129"/>
     </row>
-    <row r="12" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:25" customFormat="1">
       <c r="B12" s="117"/>
       <c r="C12" s="129"/>
       <c r="D12" s="129"/>
       <c r="E12" s="129"/>
       <c r="F12" s="129">
-        <v>7.5499999999999998E-2</v>
+        <v>7.3300000000000004E-2</v>
       </c>
       <c r="G12" s="129" t="s">
         <v>72</v>
@@ -4430,7 +4524,9 @@
       </c>
       <c r="I12" s="129"/>
       <c r="J12" s="129"/>
-      <c r="K12" s="129"/>
+      <c r="K12" s="129" t="s">
+        <v>112</v>
+      </c>
       <c r="L12" s="129"/>
       <c r="M12" s="129"/>
       <c r="N12" s="129"/>
@@ -4446,7 +4542,7 @@
       <c r="X12" s="129"/>
       <c r="Y12" s="129"/>
     </row>
-    <row r="13" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:25" customFormat="1">
       <c r="B13" s="117"/>
       <c r="C13" s="129"/>
       <c r="D13" s="129"/>
@@ -4472,7 +4568,7 @@
       <c r="X13" s="129"/>
       <c r="Y13" s="129"/>
     </row>
-    <row r="14" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:25" customFormat="1">
       <c r="B14" s="117"/>
       <c r="C14" s="129"/>
       <c r="D14" s="129"/>
@@ -4498,7 +4594,7 @@
       <c r="X14" s="129"/>
       <c r="Y14" s="129"/>
     </row>
-    <row r="15" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:25" customFormat="1">
       <c r="B15" s="117"/>
       <c r="C15" s="129"/>
       <c r="D15" s="129"/>
@@ -4524,7 +4620,7 @@
       <c r="X15" s="129"/>
       <c r="Y15" s="129"/>
     </row>
-    <row r="16" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:25" customFormat="1">
       <c r="B16" s="117"/>
       <c r="C16" s="129"/>
       <c r="D16" s="129"/>
@@ -4550,7 +4646,7 @@
       <c r="X16" s="129"/>
       <c r="Y16" s="129"/>
     </row>
-    <row r="17" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:25" customFormat="1">
       <c r="B17" s="117"/>
       <c r="C17" s="129"/>
       <c r="D17" s="129"/>
@@ -4576,7 +4672,7 @@
       <c r="X17" s="129"/>
       <c r="Y17" s="129"/>
     </row>
-    <row r="18" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:25" customFormat="1">
       <c r="B18" s="117"/>
       <c r="C18" s="129"/>
       <c r="D18" s="129"/>
@@ -4602,7 +4698,7 @@
       <c r="X18" s="129"/>
       <c r="Y18" s="129"/>
     </row>
-    <row r="19" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:25" customFormat="1">
       <c r="B19" s="117"/>
       <c r="C19" s="129"/>
       <c r="D19" s="129"/>
@@ -4628,7 +4724,7 @@
       <c r="X19" s="129"/>
       <c r="Y19" s="129"/>
     </row>
-    <row r="20" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:25" customFormat="1">
       <c r="B20" s="117"/>
       <c r="C20" s="129"/>
       <c r="D20" s="129"/>
@@ -4654,7 +4750,7 @@
       <c r="X20" s="129"/>
       <c r="Y20" s="129"/>
     </row>
-    <row r="21" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:25" customFormat="1">
       <c r="B21" s="117"/>
       <c r="C21" s="129"/>
       <c r="D21" s="129"/>
@@ -4680,7 +4776,7 @@
       <c r="X21" s="129"/>
       <c r="Y21" s="129"/>
     </row>
-    <row r="22" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:25" customFormat="1">
       <c r="B22" s="117"/>
       <c r="C22" s="129"/>
       <c r="D22" s="129"/>
@@ -4706,7 +4802,7 @@
       <c r="X22" s="129"/>
       <c r="Y22" s="129"/>
     </row>
-    <row r="23" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:25" customFormat="1">
       <c r="B23" s="117"/>
       <c r="C23" s="129"/>
       <c r="D23" s="129"/>
@@ -4732,7 +4828,7 @@
       <c r="X23" s="129"/>
       <c r="Y23" s="129"/>
     </row>
-    <row r="24" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:25" customFormat="1">
       <c r="B24" s="117"/>
       <c r="C24" s="129"/>
       <c r="D24" s="129"/>
@@ -4758,7 +4854,7 @@
       <c r="X24" s="129"/>
       <c r="Y24" s="129"/>
     </row>
-    <row r="25" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:25" customFormat="1">
       <c r="B25" s="117"/>
       <c r="C25" s="129"/>
       <c r="D25" s="129"/>
@@ -4784,7 +4880,7 @@
       <c r="X25" s="129"/>
       <c r="Y25" s="129"/>
     </row>
-    <row r="26" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:25" customFormat="1">
       <c r="B26" s="117"/>
       <c r="C26" s="129"/>
       <c r="D26" s="129"/>
@@ -4810,7 +4906,7 @@
       <c r="X26" s="129"/>
       <c r="Y26" s="129"/>
     </row>
-    <row r="27" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:25" customFormat="1">
       <c r="B27" s="117"/>
       <c r="C27" s="129"/>
       <c r="D27" s="129"/>
@@ -4836,7 +4932,7 @@
       <c r="X27" s="129"/>
       <c r="Y27" s="129"/>
     </row>
-    <row r="28" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:25" customFormat="1">
       <c r="B28" s="117"/>
       <c r="C28" s="129"/>
       <c r="D28" s="129"/>
@@ -4862,106 +4958,112 @@
       <c r="X28" s="129"/>
       <c r="Y28" s="129"/>
     </row>
-    <row r="29" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:25" customFormat="1">
       <c r="B29" s="117"/>
     </row>
-    <row r="30" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:25" customFormat="1">
       <c r="B30" s="117"/>
     </row>
-    <row r="31" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:25" customFormat="1">
       <c r="B31" s="117"/>
     </row>
-    <row r="32" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:25" customFormat="1">
       <c r="B32" s="117"/>
     </row>
-    <row r="33" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" customFormat="1">
       <c r="B33" s="117"/>
     </row>
-    <row r="34" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" customFormat="1">
       <c r="B34" s="117"/>
     </row>
-    <row r="35" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" customFormat="1">
       <c r="B35" s="117"/>
     </row>
-    <row r="36" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" customFormat="1">
       <c r="B36" s="117"/>
     </row>
-    <row r="37" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" customFormat="1">
       <c r="B37" s="117"/>
     </row>
-    <row r="38" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" customFormat="1">
       <c r="B38" s="117"/>
     </row>
-    <row r="39" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" customFormat="1">
       <c r="B39" s="117"/>
     </row>
-    <row r="40" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" customFormat="1">
       <c r="B40" s="117"/>
     </row>
-    <row r="41" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" customFormat="1">
       <c r="B41" s="117"/>
     </row>
-    <row r="42" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" customFormat="1">
       <c r="B42" s="117"/>
     </row>
-    <row r="43" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" customFormat="1">
       <c r="B43" s="117"/>
     </row>
-    <row r="44" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" customFormat="1">
       <c r="B44" s="117"/>
     </row>
-    <row r="45" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" customFormat="1">
       <c r="B45" s="117"/>
     </row>
-    <row r="46" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2" customFormat="1">
       <c r="B46" s="117"/>
     </row>
-    <row r="47" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2" customFormat="1">
       <c r="B47" s="117"/>
     </row>
-    <row r="48" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2" customFormat="1">
       <c r="B48" s="117"/>
     </row>
-    <row r="49" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" customFormat="1">
       <c r="B49" s="117"/>
     </row>
-    <row r="50" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" customFormat="1">
       <c r="B50" s="117"/>
     </row>
-    <row r="51" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" customFormat="1">
       <c r="B51" s="117"/>
-    </row>
-    <row r="52" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" customFormat="1">
       <c r="B52" s="117"/>
     </row>
-    <row r="53" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" customFormat="1">
       <c r="B53" s="117"/>
-    </row>
-    <row r="54" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" customFormat="1">
       <c r="B54" s="117"/>
     </row>
-    <row r="55" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" customFormat="1">
       <c r="B55" s="117"/>
     </row>
-    <row r="56" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" customFormat="1">
       <c r="B56" s="117"/>
     </row>
-    <row r="57" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" customFormat="1">
       <c r="B57" s="117"/>
     </row>
-    <row r="58" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" customFormat="1">
       <c r="B58" s="117"/>
     </row>
-    <row r="59" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" customFormat="1">
       <c r="B59" s="117"/>
     </row>
-    <row r="60" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" customFormat="1">
       <c r="B60" s="117"/>
     </row>
-    <row r="61" spans="1:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" customFormat="1" ht="17" thickBot="1">
       <c r="B61" s="117"/>
     </row>
-    <row r="62" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" s="26" customFormat="1">
       <c r="A62"/>
       <c r="B62" s="119"/>
       <c r="C62" s="120" t="s">
@@ -4990,7 +5092,7 @@
       <c r="T62" s="120"/>
       <c r="U62" s="120"/>
     </row>
-    <row r="63" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" customFormat="1">
       <c r="B63" s="117"/>
       <c r="C63" s="132"/>
       <c r="D63" s="129"/>
@@ -5016,7 +5118,7 @@
       <c r="X63" s="129"/>
       <c r="Y63" s="129"/>
     </row>
-    <row r="64" spans="1:25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" customFormat="1" ht="21">
       <c r="B64" s="117"/>
       <c r="C64" s="138" t="s">
         <v>67</v>
@@ -5044,7 +5146,7 @@
       <c r="X64" s="129"/>
       <c r="Y64" s="129"/>
     </row>
-    <row r="65" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:25" customFormat="1">
       <c r="B65" s="117"/>
       <c r="C65" s="129"/>
       <c r="D65" s="129"/>
@@ -5070,7 +5172,7 @@
       <c r="X65" s="129"/>
       <c r="Y65" s="129"/>
     </row>
-    <row r="66" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:25" customFormat="1">
       <c r="B66" s="117"/>
       <c r="C66" s="129"/>
       <c r="D66" s="129"/>
@@ -5096,17 +5198,17 @@
       <c r="X66" s="129"/>
       <c r="Y66" s="129"/>
     </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:25">
       <c r="D68" s="116">
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25">
       <c r="E73" s="139" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:25">
       <c r="E74" s="129" t="s">
         <v>43</v>
       </c>
@@ -5123,7 +5225,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:25">
       <c r="E75" s="129" t="s">
         <v>44</v>
       </c>
@@ -5138,7 +5240,7 @@
       <c r="J75" s="129"/>
       <c r="K75" s="129"/>
     </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:25">
       <c r="E76" s="129" t="s">
         <v>47</v>
       </c>
@@ -5153,7 +5255,7 @@
       <c r="J76" s="129"/>
       <c r="K76" s="129"/>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25">
       <c r="D77" s="129"/>
       <c r="E77" s="129" t="s">
         <v>46</v>
@@ -5169,7 +5271,7 @@
       <c r="J77" s="129"/>
       <c r="K77" s="129"/>
     </row>
-    <row r="78" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:25">
       <c r="D78" s="129"/>
       <c r="E78" s="129" t="s">
         <v>40</v>
@@ -5185,7 +5287,7 @@
       <c r="J78" s="129"/>
       <c r="K78" s="129"/>
     </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:25">
       <c r="D79" s="129"/>
       <c r="E79" s="129" t="s">
         <v>45</v>
@@ -5203,7 +5305,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25">
       <c r="D80" s="129"/>
       <c r="E80" s="129"/>
       <c r="F80" s="129"/>
@@ -5212,7 +5314,7 @@
       <c r="I80" s="129"/>
       <c r="J80" s="129"/>
     </row>
-    <row r="81" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:11">
       <c r="D81" s="129"/>
       <c r="E81" s="129"/>
       <c r="F81" s="129"/>
@@ -5221,7 +5323,7 @@
       <c r="I81" s="129"/>
       <c r="J81" s="129"/>
     </row>
-    <row r="82" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:11">
       <c r="D82" s="129"/>
       <c r="E82" s="129" t="s">
         <v>43</v>
@@ -5240,7 +5342,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="83" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:11">
       <c r="E83" s="129" t="s">
         <v>44</v>
       </c>
@@ -5256,7 +5358,7 @@
       <c r="J83" s="129"/>
       <c r="K83" s="129"/>
     </row>
-    <row r="84" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:11">
       <c r="E84" s="129" t="s">
         <v>47</v>
       </c>
@@ -5272,7 +5374,7 @@
       <c r="J84" s="129"/>
       <c r="K84" s="129"/>
     </row>
-    <row r="85" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:11">
       <c r="E85" s="129" t="s">
         <v>46</v>
       </c>
@@ -5288,7 +5390,7 @@
       <c r="J85" s="129"/>
       <c r="K85" s="129"/>
     </row>
-    <row r="86" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:11">
       <c r="E86" s="129" t="s">
         <v>40</v>
       </c>
@@ -5304,7 +5406,7 @@
       <c r="J86" s="129"/>
       <c r="K86" s="129"/>
     </row>
-    <row r="87" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:11">
       <c r="E87" s="129" t="s">
         <v>45</v>
       </c>
@@ -5322,7 +5424,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="90" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:11">
       <c r="E90" s="140"/>
       <c r="F90" s="141"/>
       <c r="G90" s="141"/>
@@ -5331,7 +5433,7 @@
       <c r="J90" s="141"/>
       <c r="K90" s="141"/>
     </row>
-    <row r="91" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:11">
       <c r="E91" s="129"/>
       <c r="F91" s="129"/>
       <c r="G91" s="129"/>
@@ -5340,7 +5442,7 @@
       <c r="J91" s="129"/>
       <c r="K91" s="129"/>
     </row>
-    <row r="92" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:11">
       <c r="E92" s="129"/>
       <c r="F92" s="129"/>
       <c r="G92" s="129"/>
@@ -5349,7 +5451,7 @@
       <c r="J92" s="129"/>
       <c r="K92" s="129"/>
     </row>
-    <row r="93" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:11">
       <c r="E93" s="129"/>
       <c r="F93" s="129"/>
       <c r="G93" s="129"/>
@@ -5358,7 +5460,7 @@
       <c r="J93" s="129"/>
       <c r="K93" s="129"/>
     </row>
-    <row r="94" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:11">
       <c r="E94" s="129"/>
       <c r="F94" s="129"/>
       <c r="G94" s="129"/>
@@ -5367,7 +5469,7 @@
       <c r="J94" s="129"/>
       <c r="K94" s="129"/>
     </row>
-    <row r="95" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:11">
       <c r="E95" s="129"/>
       <c r="F95" s="129"/>
       <c r="G95" s="129"/>
@@ -5376,7 +5478,7 @@
       <c r="J95" s="129"/>
       <c r="K95" s="129"/>
     </row>
-    <row r="96" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:11">
       <c r="E96" s="129"/>
       <c r="F96" s="129"/>
       <c r="G96" s="129"/>
@@ -5385,7 +5487,7 @@
       <c r="J96" s="129"/>
       <c r="K96" s="129"/>
     </row>
-    <row r="97" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="5:11">
       <c r="E97" s="129"/>
       <c r="F97" s="129"/>
       <c r="G97" s="129"/>
@@ -5394,7 +5496,7 @@
       <c r="J97" s="129"/>
       <c r="K97" s="141"/>
     </row>
-    <row r="98" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="5:11">
       <c r="E98" s="129"/>
       <c r="F98" s="129"/>
       <c r="G98" s="129"/>
@@ -5403,7 +5505,7 @@
       <c r="J98" s="129"/>
       <c r="K98" s="141"/>
     </row>
-    <row r="99" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="5:11">
       <c r="E99" s="129"/>
       <c r="F99" s="129"/>
       <c r="G99" s="129"/>
@@ -5412,7 +5514,7 @@
       <c r="J99" s="129"/>
       <c r="K99" s="129"/>
     </row>
-    <row r="100" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="5:11">
       <c r="E100" s="129"/>
       <c r="F100" s="129"/>
       <c r="G100" s="129"/>
@@ -5421,7 +5523,7 @@
       <c r="J100" s="129"/>
       <c r="K100" s="129"/>
     </row>
-    <row r="101" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="5:11">
       <c r="E101" s="129"/>
       <c r="F101" s="129"/>
       <c r="G101" s="129"/>
@@ -5430,7 +5532,7 @@
       <c r="J101" s="129"/>
       <c r="K101" s="129"/>
     </row>
-    <row r="102" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="5:11">
       <c r="E102" s="129"/>
       <c r="F102" s="129"/>
       <c r="G102" s="129"/>
@@ -5439,7 +5541,7 @@
       <c r="J102" s="129"/>
       <c r="K102" s="129"/>
     </row>
-    <row r="103" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="5:11">
       <c r="E103" s="129"/>
       <c r="F103" s="129"/>
       <c r="G103" s="129"/>
@@ -5448,7 +5550,7 @@
       <c r="J103" s="129"/>
       <c r="K103" s="129"/>
     </row>
-    <row r="104" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="5:11">
       <c r="E104" s="129"/>
       <c r="F104" s="129"/>
       <c r="G104" s="129"/>
@@ -5457,9 +5559,9 @@
       <c r="J104" s="129"/>
       <c r="K104" s="129"/>
     </row>
-    <row r="122" spans="1:25" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="123" spans="1:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:25" customFormat="1"/>
+    <row r="123" spans="1:25" customFormat="1" ht="17" thickBot="1"/>
+    <row r="124" spans="1:25" s="26" customFormat="1">
       <c r="A124"/>
       <c r="B124" s="119"/>
       <c r="C124" s="120" t="s">
@@ -5488,7 +5590,7 @@
       <c r="T124" s="120"/>
       <c r="U124" s="120"/>
     </row>
-    <row r="125" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:25" customFormat="1">
       <c r="B125" s="117"/>
       <c r="C125" s="132"/>
       <c r="D125" s="129"/>
@@ -5514,7 +5616,7 @@
       <c r="X125" s="129"/>
       <c r="Y125" s="129"/>
     </row>
-    <row r="126" spans="1:25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" customFormat="1" ht="21">
       <c r="B126" s="117"/>
       <c r="C126" s="138" t="s">
         <v>96</v>
@@ -5542,7 +5644,7 @@
       <c r="X126" s="129"/>
       <c r="Y126" s="129"/>
     </row>
-    <row r="127" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:25" customFormat="1">
       <c r="B127" s="117"/>
       <c r="C127" s="129"/>
       <c r="D127" s="129"/>
@@ -5568,13 +5670,13 @@
       <c r="X127" s="129"/>
       <c r="Y127" s="129"/>
     </row>
-    <row r="128" spans="1:25" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="129" spans="6:17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:25" customFormat="1"/>
+    <row r="129" spans="6:17" customFormat="1">
       <c r="F129" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="130" spans="6:17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="6:17" customFormat="1">
       <c r="L130" s="173" t="s">
         <v>87</v>
       </c>
@@ -5594,7 +5696,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="131" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="131" spans="6:17">
       <c r="G131" s="116">
         <f>AVERAGE(P131:P152)</f>
         <v>45.192272727272723</v>
@@ -5624,7 +5726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="132" spans="6:17">
       <c r="G132" s="116">
         <v>158.98729499999999</v>
       </c>
@@ -5650,7 +5752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="133" spans="6:17">
       <c r="G133" s="116">
         <f>G131/litres_per_barrel</f>
         <v>0.28425084361157743</v>
@@ -5677,7 +5779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="134" spans="6:17">
       <c r="G134" s="116">
         <f>dollar_per_euro</f>
         <v>1.1718999999999999</v>
@@ -5704,7 +5806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="135" spans="6:17">
       <c r="G135" s="116">
         <f>G133/G134</f>
         <v>0.24255554536357832</v>
@@ -5731,7 +5833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="136" spans="6:17">
       <c r="G136" s="116">
         <f>F11</f>
         <v>34.44</v>
@@ -5758,7 +5860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="137" spans="6:17">
       <c r="G137" s="167">
         <f>G135/G136</f>
         <v>7.0428439420318909E-3</v>
@@ -5785,7 +5887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="138" spans="6:17">
       <c r="L138" s="182">
         <v>42907</v>
       </c>
@@ -5805,7 +5907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="139" spans="6:17">
       <c r="L139" s="182">
         <v>42906</v>
       </c>
@@ -5825,7 +5927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="140" spans="6:17">
       <c r="L140" s="182">
         <v>42905</v>
       </c>
@@ -5845,7 +5947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="141" spans="6:17">
       <c r="L141" s="182">
         <v>42902</v>
       </c>
@@ -5865,7 +5967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="142" spans="6:17">
       <c r="L142" s="182">
         <v>42901</v>
       </c>
@@ -5885,7 +5987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="143" spans="6:17">
       <c r="L143" s="182">
         <v>42900</v>
       </c>
@@ -5905,7 +6007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="144" spans="6:17">
       <c r="L144" s="182">
         <v>42899</v>
       </c>
@@ -5925,7 +6027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="12:17" x14ac:dyDescent="0.2">
+    <row r="145" spans="12:17">
       <c r="L145" s="182">
         <v>42898</v>
       </c>
@@ -5945,7 +6047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="12:17" x14ac:dyDescent="0.2">
+    <row r="146" spans="12:17">
       <c r="L146" s="182">
         <v>42895</v>
       </c>
@@ -5965,7 +6067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="12:17" x14ac:dyDescent="0.2">
+    <row r="147" spans="12:17">
       <c r="L147" s="182">
         <v>42894</v>
       </c>
@@ -5985,7 +6087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="12:17" x14ac:dyDescent="0.2">
+    <row r="148" spans="12:17">
       <c r="L148" s="182">
         <v>42893</v>
       </c>
@@ -6005,7 +6107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="12:17" x14ac:dyDescent="0.2">
+    <row r="149" spans="12:17">
       <c r="L149" s="182">
         <v>42892</v>
       </c>
@@ -6025,7 +6127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="12:17" x14ac:dyDescent="0.2">
+    <row r="150" spans="12:17">
       <c r="L150" s="182">
         <v>42891</v>
       </c>
@@ -6045,7 +6147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="12:17" x14ac:dyDescent="0.2">
+    <row r="151" spans="12:17">
       <c r="L151" s="182">
         <v>42888</v>
       </c>
@@ -6065,7 +6167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="12:17" x14ac:dyDescent="0.2">
+    <row r="152" spans="12:17">
       <c r="L152" s="182">
         <v>42887</v>
       </c>
@@ -6085,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="12:17" x14ac:dyDescent="0.2">
+    <row r="153" spans="12:17">
       <c r="L153" s="174"/>
       <c r="M153" s="173"/>
       <c r="N153" s="173"/>
@@ -6093,7 +6195,7 @@
       <c r="P153" s="173"/>
       <c r="Q153" s="173"/>
     </row>
-    <row r="154" spans="12:17" x14ac:dyDescent="0.2">
+    <row r="154" spans="12:17">
       <c r="L154" s="174"/>
       <c r="M154" s="173"/>
       <c r="N154" s="173"/>
@@ -6109,14 +6211,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="3.33203125" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
@@ -6127,13 +6229,13 @@
     <col min="9" max="9" width="4.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="161" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" s="161" customFormat="1">
       <c r="D1" s="162"/>
       <c r="E1" s="162"/>
       <c r="F1" s="162"/>
       <c r="G1" s="162"/>
     </row>
-    <row r="2" spans="2:9" s="161" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" s="161" customFormat="1" ht="15" customHeight="1">
       <c r="B2" s="183" t="s">
         <v>85</v>
       </c>
@@ -6143,7 +6245,7 @@
       <c r="F2" s="162"/>
       <c r="G2" s="162"/>
     </row>
-    <row r="3" spans="2:9" s="161" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" s="161" customFormat="1">
       <c r="B3" s="186"/>
       <c r="C3" s="187"/>
       <c r="D3" s="187"/>
@@ -6151,7 +6253,7 @@
       <c r="F3" s="162"/>
       <c r="G3" s="162"/>
     </row>
-    <row r="4" spans="2:9" s="161" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" s="161" customFormat="1">
       <c r="B4" s="189"/>
       <c r="C4" s="190"/>
       <c r="D4" s="190"/>
@@ -6159,10 +6261,10 @@
       <c r="F4" s="162"/>
       <c r="G4" s="162"/>
     </row>
-    <row r="5" spans="2:9" s="161" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" s="161" customFormat="1" ht="17" thickBot="1">
       <c r="D5" s="162"/>
     </row>
-    <row r="6" spans="2:9" s="161" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" s="161" customFormat="1">
       <c r="B6" s="163"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -6172,7 +6274,7 @@
       <c r="H6" s="22"/>
       <c r="I6" s="164"/>
     </row>
-    <row r="7" spans="2:9" s="45" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" s="45" customFormat="1" ht="19">
       <c r="B7" s="103"/>
       <c r="C7" s="21" t="s">
         <v>86</v>
@@ -6194,11 +6296,11 @@
       </c>
       <c r="I7" s="107"/>
     </row>
-    <row r="8" spans="2:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="20" thickBot="1">
       <c r="B8" s="25"/>
       <c r="I8" s="46"/>
     </row>
-    <row r="9" spans="2:9" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" s="45" customFormat="1" ht="20" thickBot="1">
       <c r="B9" s="25"/>
       <c r="C9" s="165" t="s">
         <v>88</v>

--- a/carriers_source_analyses/crude_oil.carrier.xlsx
+++ b/carriers_source_analyses/crude_oil.carrier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/carriers_source_analyses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlottevonm/Code/etdataset/carriers_source_analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0E9910-A1C5-CE4A-9803-D167611CD42D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07976355-CBCA-B34F-A838-50CA253A9DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9960" yWindow="3720" windowWidth="33800" windowHeight="22320" tabRatio="762" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9960" yWindow="3720" windowWidth="33800" windowHeight="22320" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -61,7 +61,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -72,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="113">
   <si>
     <t>Source</t>
   </si>
@@ -463,7 +466,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
@@ -471,7 +474,6 @@
     <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="169" formatCode="0.0000000000"/>
     <numFmt numFmtId="170" formatCode="0.00000000000"/>
-    <numFmt numFmtId="171" formatCode="0.0000000000000000"/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -1448,7 +1450,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1697,14 +1699,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="10" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="169" fontId="28" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
@@ -2718,13 +2718,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="31" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="2.1640625" style="23" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="23"/>
+    <col min="1" max="1" width="3.42578125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" style="23" customWidth="1"/>
+    <col min="5" max="16384" width="10.85546875" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="29" customFormat="1">
@@ -2916,25 +2916,25 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:J15"/>
+  <dimension ref="B1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="38" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="38" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="38" customWidth="1"/>
     <col min="3" max="3" width="46" style="38" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="38" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" style="38" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="38" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="38" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="38" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="38" customWidth="1"/>
     <col min="7" max="7" width="45" style="38" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="38" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="38" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="38" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="38"/>
+    <col min="8" max="8" width="5.140625" style="38" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="38" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="38" customWidth="1"/>
+    <col min="11" max="16384" width="10.85546875" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10">
@@ -2944,30 +2944,30 @@
       <c r="G1" s="36"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="183" t="s">
+      <c r="B2" s="181" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="185"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="183"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="186"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="188"/>
+      <c r="B3" s="184"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="186"/>
     </row>
     <row r="4" spans="2:10" ht="76" customHeight="1">
-      <c r="B4" s="189"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="190"/>
-      <c r="E4" s="190"/>
-      <c r="F4" s="190"/>
-      <c r="G4" s="191"/>
+      <c r="B4" s="187"/>
+      <c r="C4" s="188"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="188"/>
+      <c r="F4" s="188"/>
+      <c r="G4" s="189"/>
     </row>
     <row r="5" spans="2:10" ht="17" thickBot="1">
       <c r="D5" s="36"/>
@@ -3053,34 +3053,34 @@
     <row r="11" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1">
       <c r="B11" s="25"/>
       <c r="C11" s="122" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="171">
-        <f>'Research data'!G7</f>
-        <v>7.0428439420318909E-3</v>
+        <v>53</v>
+      </c>
+      <c r="E11" s="47">
+        <f>'Research data'!G8</f>
+        <v>42</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="122"/>
       <c r="H11" s="32"/>
-      <c r="I11" s="166" t="s">
-        <v>103</v>
+      <c r="I11" s="143" t="s">
+        <v>74</v>
       </c>
       <c r="J11" s="46"/>
     </row>
     <row r="12" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1">
       <c r="B12" s="25"/>
-      <c r="C12" s="122" t="s">
-        <v>82</v>
+      <c r="C12" s="170" t="s">
+        <v>105</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="E12" s="47">
-        <f>'Research data'!G8</f>
-        <v>42</v>
+        <f>'Research data'!G9</f>
+        <v>0.82</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="122"/>
@@ -3090,56 +3090,16 @@
       </c>
       <c r="J12" s="46"/>
     </row>
-    <row r="13" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1">
-      <c r="B13" s="25"/>
-      <c r="C13" s="172" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="47">
-        <f>'Research data'!G9</f>
-        <v>0.82</v>
-      </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="143" t="s">
-        <v>74</v>
-      </c>
-      <c r="J13" s="46"/>
-    </row>
-    <row r="14" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1">
-      <c r="B14" s="25"/>
-      <c r="C14" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="115">
-        <f>'Research data'!G10</f>
-        <v>7.3300000000000004E-2</v>
-      </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="143" t="s">
-        <v>74</v>
-      </c>
-      <c r="J14" s="46"/>
-    </row>
-    <row r="15" spans="2:10" ht="20" customHeight="1" thickBot="1">
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="44"/>
+    <row r="13" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3161,19 +3121,19 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="38" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="38" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="38" customWidth="1"/>
     <col min="3" max="3" width="46" style="38" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="38" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="38" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="38" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="38" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="38" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="38" customWidth="1"/>
     <col min="7" max="7" width="45" style="38" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="38" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="38" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="38" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="38"/>
+    <col min="8" max="8" width="5.140625" style="38" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="38" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="38" customWidth="1"/>
+    <col min="11" max="16384" width="10.85546875" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10">
@@ -3183,28 +3143,28 @@
       <c r="G1" s="36"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="183" t="s">
+      <c r="B2" s="181" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="192"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="190"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="186"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="193"/>
+      <c r="B3" s="184"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="191"/>
       <c r="F3" s="36"/>
       <c r="G3" s="154"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="194"/>
-      <c r="C4" s="195"/>
-      <c r="D4" s="195"/>
-      <c r="E4" s="196"/>
+      <c r="B4" s="192"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="194"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
@@ -3280,7 +3240,7 @@
     </row>
     <row r="11" spans="2:10" ht="17" thickBot="1">
       <c r="B11" s="41"/>
-      <c r="C11" s="175" t="s">
+      <c r="C11" s="173" t="s">
         <v>106</v>
       </c>
       <c r="D11" s="122"/>
@@ -3293,7 +3253,7 @@
     </row>
     <row r="12" spans="2:10" ht="17" thickBot="1">
       <c r="B12" s="41"/>
-      <c r="C12" s="176" t="s">
+      <c r="C12" s="174" t="s">
         <v>43</v>
       </c>
       <c r="D12" s="24" t="s">
@@ -3315,7 +3275,7 @@
     </row>
     <row r="13" spans="2:10" ht="17" thickBot="1">
       <c r="B13" s="41"/>
-      <c r="C13" s="176" t="s">
+      <c r="C13" s="174" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="24" t="s">
@@ -3337,7 +3297,7 @@
     </row>
     <row r="14" spans="2:10" ht="17" thickBot="1">
       <c r="B14" s="41"/>
-      <c r="C14" s="176" t="s">
+      <c r="C14" s="174" t="s">
         <v>47</v>
       </c>
       <c r="D14" s="24" t="s">
@@ -3359,7 +3319,7 @@
     </row>
     <row r="15" spans="2:10" ht="17" thickBot="1">
       <c r="B15" s="41"/>
-      <c r="C15" s="176" t="s">
+      <c r="C15" s="174" t="s">
         <v>46</v>
       </c>
       <c r="D15" s="24" t="s">
@@ -3381,7 +3341,7 @@
     </row>
     <row r="16" spans="2:10" ht="17" thickBot="1">
       <c r="B16" s="41"/>
-      <c r="C16" s="176" t="s">
+      <c r="C16" s="174" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="24" t="s">
@@ -3403,7 +3363,7 @@
     </row>
     <row r="17" spans="2:10" ht="17" thickBot="1">
       <c r="B17" s="41"/>
-      <c r="C17" s="176" t="s">
+      <c r="C17" s="174" t="s">
         <v>45</v>
       </c>
       <c r="D17" s="24" t="s">
@@ -3425,7 +3385,7 @@
     </row>
     <row r="18" spans="2:10" ht="17" thickBot="1">
       <c r="B18" s="41"/>
-      <c r="C18" s="177" t="s">
+      <c r="C18" s="175" t="s">
         <v>107</v>
       </c>
       <c r="D18" s="24" t="s">
@@ -3474,23 +3434,23 @@
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="67" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="67" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="67" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="67" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="67" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="67" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" style="67" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" style="68" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="67" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="67" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="67" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="67" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="67" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="67" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="67" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="68" customWidth="1"/>
     <col min="10" max="10" width="3" style="68" customWidth="1"/>
-    <col min="11" max="11" width="8.5" style="68" customWidth="1"/>
-    <col min="12" max="12" width="2.6640625" style="68" customWidth="1"/>
-    <col min="13" max="13" width="9.5" style="68" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.6640625" style="68" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="68" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" style="68" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" style="68" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="68" customWidth="1"/>
     <col min="15" max="15" width="60" style="67" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="67"/>
+    <col min="16" max="16384" width="10.85546875" style="67"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="17" thickBot="1"/>
@@ -3614,7 +3574,7 @@
       <c r="F7" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="170">
+      <c r="G7" s="169">
         <f>M7</f>
         <v>7.0428439420318909E-3</v>
       </c>
@@ -3623,7 +3583,7 @@
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
-      <c r="M7" s="169">
+      <c r="M7" s="168">
         <f>Notes!G137</f>
         <v>7.0428439420318909E-3</v>
       </c>
@@ -3969,19 +3929,19 @@
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="49" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="49" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="49" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" style="49" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="49" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="49" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="49" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="49" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="49" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="49" customWidth="1"/>
     <col min="6" max="6" width="5" style="49" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="49" customWidth="1"/>
-    <col min="8" max="10" width="12.1640625" style="49" customWidth="1"/>
-    <col min="11" max="11" width="33.1640625" style="50" customWidth="1"/>
-    <col min="12" max="12" width="87.33203125" style="49" customWidth="1"/>
-    <col min="13" max="16384" width="33.1640625" style="49"/>
+    <col min="7" max="7" width="10.28515625" style="49" customWidth="1"/>
+    <col min="8" max="10" width="12.140625" style="49" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" style="50" customWidth="1"/>
+    <col min="12" max="12" width="87.28515625" style="49" customWidth="1"/>
+    <col min="13" max="16384" width="33.140625" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="17" thickBot="1"/>
@@ -4172,7 +4132,7 @@
       <c r="I13" s="66">
         <v>2017</v>
       </c>
-      <c r="J13" s="168">
+      <c r="J13" s="167">
         <v>43069</v>
       </c>
       <c r="K13" s="64"/>
@@ -4204,17 +4164,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Y154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="116" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="116" customWidth="1"/>
     <col min="2" max="2" width="5" style="116" customWidth="1"/>
     <col min="3" max="5" width="7" style="116"/>
-    <col min="6" max="6" width="10.83203125" style="116" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="116" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="116" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="116" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="7" style="116"/>
     <col min="12" max="12" width="18" style="116" customWidth="1"/>
     <col min="13" max="16384" width="7" style="116"/>
@@ -5677,22 +5637,22 @@
       </c>
     </row>
     <row r="130" spans="6:17" customFormat="1">
-      <c r="L130" s="173" t="s">
+      <c r="L130" s="171" t="s">
         <v>87</v>
       </c>
-      <c r="M130" s="173" t="s">
+      <c r="M130" s="171" t="s">
         <v>91</v>
       </c>
-      <c r="N130" s="173" t="s">
+      <c r="N130" s="171" t="s">
         <v>92</v>
       </c>
-      <c r="O130" s="173" t="s">
+      <c r="O130" s="171" t="s">
         <v>93</v>
       </c>
-      <c r="P130" s="173" t="s">
+      <c r="P130" s="171" t="s">
         <v>94</v>
       </c>
-      <c r="Q130" s="173" t="s">
+      <c r="Q130" s="171" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5707,7 +5667,7 @@
       <c r="I131" s="161" t="s">
         <v>98</v>
       </c>
-      <c r="L131" s="182">
+      <c r="L131" s="180">
         <v>42916</v>
       </c>
       <c r="M131">
@@ -5733,7 +5693,7 @@
       <c r="H132" s="161" t="s">
         <v>100</v>
       </c>
-      <c r="L132" s="182">
+      <c r="L132" s="180">
         <v>42915</v>
       </c>
       <c r="M132">
@@ -5760,7 +5720,7 @@
       <c r="H133" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="L133" s="182">
+      <c r="L133" s="180">
         <v>42914</v>
       </c>
       <c r="M133">
@@ -5787,7 +5747,7 @@
       <c r="H134" s="161" t="s">
         <v>89</v>
       </c>
-      <c r="L134" s="182">
+      <c r="L134" s="180">
         <v>42913</v>
       </c>
       <c r="M134">
@@ -5814,7 +5774,7 @@
       <c r="H135" s="161" t="s">
         <v>102</v>
       </c>
-      <c r="L135" s="182">
+      <c r="L135" s="180">
         <v>42912</v>
       </c>
       <c r="M135">
@@ -5841,7 +5801,7 @@
       <c r="H136" s="161" t="s">
         <v>64</v>
       </c>
-      <c r="L136" s="182">
+      <c r="L136" s="180">
         <v>42909</v>
       </c>
       <c r="M136">
@@ -5861,14 +5821,14 @@
       </c>
     </row>
     <row r="137" spans="6:17">
-      <c r="G137" s="167">
+      <c r="G137" s="166">
         <f>G135/G136</f>
         <v>7.0428439420318909E-3</v>
       </c>
       <c r="H137" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="L137" s="182">
+      <c r="L137" s="180">
         <v>42908</v>
       </c>
       <c r="M137">
@@ -5888,7 +5848,7 @@
       </c>
     </row>
     <row r="138" spans="6:17">
-      <c r="L138" s="182">
+      <c r="L138" s="180">
         <v>42907</v>
       </c>
       <c r="M138">
@@ -5908,7 +5868,7 @@
       </c>
     </row>
     <row r="139" spans="6:17">
-      <c r="L139" s="182">
+      <c r="L139" s="180">
         <v>42906</v>
       </c>
       <c r="M139">
@@ -5928,7 +5888,7 @@
       </c>
     </row>
     <row r="140" spans="6:17">
-      <c r="L140" s="182">
+      <c r="L140" s="180">
         <v>42905</v>
       </c>
       <c r="M140">
@@ -5948,7 +5908,7 @@
       </c>
     </row>
     <row r="141" spans="6:17">
-      <c r="L141" s="182">
+      <c r="L141" s="180">
         <v>42902</v>
       </c>
       <c r="M141">
@@ -5968,7 +5928,7 @@
       </c>
     </row>
     <row r="142" spans="6:17">
-      <c r="L142" s="182">
+      <c r="L142" s="180">
         <v>42901</v>
       </c>
       <c r="M142">
@@ -5988,7 +5948,7 @@
       </c>
     </row>
     <row r="143" spans="6:17">
-      <c r="L143" s="182">
+      <c r="L143" s="180">
         <v>42900</v>
       </c>
       <c r="M143">
@@ -6008,7 +5968,7 @@
       </c>
     </row>
     <row r="144" spans="6:17">
-      <c r="L144" s="182">
+      <c r="L144" s="180">
         <v>42899</v>
       </c>
       <c r="M144">
@@ -6028,7 +5988,7 @@
       </c>
     </row>
     <row r="145" spans="12:17">
-      <c r="L145" s="182">
+      <c r="L145" s="180">
         <v>42898</v>
       </c>
       <c r="M145">
@@ -6048,7 +6008,7 @@
       </c>
     </row>
     <row r="146" spans="12:17">
-      <c r="L146" s="182">
+      <c r="L146" s="180">
         <v>42895</v>
       </c>
       <c r="M146">
@@ -6068,7 +6028,7 @@
       </c>
     </row>
     <row r="147" spans="12:17">
-      <c r="L147" s="182">
+      <c r="L147" s="180">
         <v>42894</v>
       </c>
       <c r="M147">
@@ -6088,7 +6048,7 @@
       </c>
     </row>
     <row r="148" spans="12:17">
-      <c r="L148" s="182">
+      <c r="L148" s="180">
         <v>42893</v>
       </c>
       <c r="M148">
@@ -6108,7 +6068,7 @@
       </c>
     </row>
     <row r="149" spans="12:17">
-      <c r="L149" s="182">
+      <c r="L149" s="180">
         <v>42892</v>
       </c>
       <c r="M149">
@@ -6128,7 +6088,7 @@
       </c>
     </row>
     <row r="150" spans="12:17">
-      <c r="L150" s="182">
+      <c r="L150" s="180">
         <v>42891</v>
       </c>
       <c r="M150">
@@ -6148,7 +6108,7 @@
       </c>
     </row>
     <row r="151" spans="12:17">
-      <c r="L151" s="182">
+      <c r="L151" s="180">
         <v>42888</v>
       </c>
       <c r="M151">
@@ -6168,7 +6128,7 @@
       </c>
     </row>
     <row r="152" spans="12:17">
-      <c r="L152" s="182">
+      <c r="L152" s="180">
         <v>42887</v>
       </c>
       <c r="M152">
@@ -6188,20 +6148,20 @@
       </c>
     </row>
     <row r="153" spans="12:17">
-      <c r="L153" s="174"/>
-      <c r="M153" s="173"/>
-      <c r="N153" s="173"/>
-      <c r="O153" s="173"/>
-      <c r="P153" s="173"/>
-      <c r="Q153" s="173"/>
+      <c r="L153" s="172"/>
+      <c r="M153" s="171"/>
+      <c r="N153" s="171"/>
+      <c r="O153" s="171"/>
+      <c r="P153" s="171"/>
+      <c r="Q153" s="171"/>
     </row>
     <row r="154" spans="12:17">
-      <c r="L154" s="174"/>
-      <c r="M154" s="173"/>
-      <c r="N154" s="173"/>
-      <c r="O154" s="173"/>
-      <c r="P154" s="173"/>
-      <c r="Q154" s="173"/>
+      <c r="L154" s="172"/>
+      <c r="M154" s="171"/>
+      <c r="N154" s="171"/>
+      <c r="O154" s="171"/>
+      <c r="P154" s="171"/>
+      <c r="Q154" s="171"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6220,13 +6180,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.33203125" customWidth="1"/>
+    <col min="1" max="2" width="3.28515625" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="7" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="7" width="17.7109375" customWidth="1"/>
     <col min="8" max="8" width="55" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.5" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" s="161" customFormat="1">
@@ -6236,28 +6196,28 @@
       <c r="G1" s="162"/>
     </row>
     <row r="2" spans="2:9" s="161" customFormat="1" ht="15" customHeight="1">
-      <c r="B2" s="183" t="s">
+      <c r="B2" s="181" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="192"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="190"/>
       <c r="F2" s="162"/>
       <c r="G2" s="162"/>
     </row>
     <row r="3" spans="2:9" s="161" customFormat="1">
-      <c r="B3" s="186"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="193"/>
+      <c r="B3" s="184"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="191"/>
       <c r="F3" s="162"/>
       <c r="G3" s="162"/>
     </row>
     <row r="4" spans="2:9" s="161" customFormat="1">
-      <c r="B4" s="189"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="190"/>
-      <c r="E4" s="197"/>
+      <c r="B4" s="187"/>
+      <c r="C4" s="188"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="195"/>
       <c r="F4" s="162"/>
       <c r="G4" s="162"/>
     </row>
@@ -6308,16 +6268,16 @@
       <c r="D9" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="178">
+      <c r="E9" s="176">
         <v>1.1718999999999999</v>
       </c>
-      <c r="F9" s="179" t="s">
+      <c r="F9" s="177" t="s">
         <v>90</v>
       </c>
-      <c r="G9" s="180">
+      <c r="G9" s="178">
         <v>43068</v>
       </c>
-      <c r="H9" s="181" t="s">
+      <c r="H9" s="179" t="s">
         <v>109</v>
       </c>
       <c r="I9" s="46"/>
